--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183353</v>
+        <v>6183354</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,58 +2841,58 @@
         <v>45051.5</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N27">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
         <v>3.5</v>
       </c>
       <c r="P27">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q27">
         <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,13 +2901,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183354</v>
+        <v>6183353</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="O28">
         <v>3.5</v>
       </c>
       <c r="P28">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
         <v>-0.75</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.85</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183350</v>
+        <v>6183355</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
+        <v>-1</v>
+      </c>
+      <c r="AB29">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB29">
-        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183355</v>
+        <v>6183350</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183368</v>
+        <v>6183365</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>3.3</v>
+      </c>
+      <c r="P45">
         <v>3.8</v>
       </c>
-      <c r="O45">
-        <v>3.75</v>
-      </c>
-      <c r="P45">
-        <v>1.85</v>
-      </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183379</v>
+        <v>6183381</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N59">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183380</v>
+        <v>6183903</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,16 +5778,16 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>43</v>
@@ -5796,40 +5796,40 @@
         <v>1.5</v>
       </c>
       <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.5</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>6</v>
       </c>
-      <c r="N60">
-        <v>1.75</v>
-      </c>
-      <c r="O60">
-        <v>3.3</v>
-      </c>
-      <c r="P60">
-        <v>4.5</v>
-      </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R60">
+        <v>1.95</v>
+      </c>
+      <c r="S60">
+        <v>1.9</v>
+      </c>
+      <c r="T60">
+        <v>2.5</v>
+      </c>
+      <c r="U60">
         <v>2.025</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.825</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>2.025</v>
-      </c>
       <c r="W60">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5838,16 +5838,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183381</v>
+        <v>6183380</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
         <v>3.8</v>
       </c>
       <c r="M62">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0.5125</v>
+      </c>
+      <c r="AA62">
         <v>-0.5</v>
       </c>
-      <c r="AA62">
-        <v>0.4</v>
-      </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183903</v>
+        <v>6183379</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6069,34 +6069,34 @@
         <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q63">
         <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.9</v>
-      </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>-0</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6238,19 +6238,19 @@
         <v>41</v>
       </c>
       <c r="K65">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
         <v>2.55</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,10 +6289,10 @@
         <v>-0</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,10 +6312,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6327,19 +6327,19 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O66">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
         <v>2.55</v>
@@ -6348,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183391</v>
+        <v>6183393</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,34 +6757,34 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K71">
+        <v>1.65</v>
+      </c>
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
         <v>1.833</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>3.4</v>
-      </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="N71">
-        <v>1.85</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
       </c>
       <c r="P71">
         <v>4</v>
@@ -6799,34 +6799,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183392</v>
+        <v>6183391</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
+        <v>1.9</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="V72">
-        <v>1.9</v>
-      </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183393</v>
+        <v>6183392</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,13 +6935,13 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6950,43 +6950,43 @@
         <v>43</v>
       </c>
       <c r="K73">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>2.025</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
         <v>1.9</v>
       </c>
-      <c r="S73">
-        <v>1.95</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>0.833</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.825</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
-      <c r="AC73">
-        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183400</v>
+        <v>6183401</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y84">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183905</v>
+        <v>6183402</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
+        <v>2.375</v>
+      </c>
+      <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
         <v>2.9</v>
       </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.3</v>
-      </c>
       <c r="N87">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M102">
+        <v>5.75</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102">
         <v>4</v>
       </c>
-      <c r="N102">
-        <v>1.909</v>
-      </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.9</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.875</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.95</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
       </c>
       <c r="K103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
         <v>4</v>
       </c>
-      <c r="M103">
-        <v>5.75</v>
-      </c>
       <c r="N103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6183420</v>
+        <v>6183421</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L107">
         <v>3.5</v>
       </c>
       <c r="M107">
+        <v>1.8</v>
+      </c>
+      <c r="N107">
+        <v>3.75</v>
+      </c>
+      <c r="O107">
+        <v>3.3</v>
+      </c>
+      <c r="P107">
+        <v>2.05</v>
+      </c>
+      <c r="Q107">
+        <v>0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
+        <v>2.025</v>
+      </c>
+      <c r="T107">
         <v>2.25</v>
       </c>
-      <c r="N107">
-        <v>3.1</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
-      <c r="P107">
-        <v>2.25</v>
-      </c>
-      <c r="Q107">
-        <v>0.25</v>
-      </c>
-      <c r="R107">
-        <v>1.85</v>
-      </c>
-      <c r="S107">
-        <v>2</v>
-      </c>
-      <c r="T107">
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
         <v>2.75</v>
       </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6183421</v>
+        <v>6183420</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45145.5</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N108">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183437</v>
+        <v>6183441</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>3.5</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>1.909</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>3.3</v>
+      </c>
+      <c r="P128">
+        <v>2.2</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>1.2</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>1</v>
       </c>
-      <c r="J128" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128">
-        <v>2</v>
-      </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>3.25</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>4</v>
-      </c>
-      <c r="Q128">
-        <v>-0.75</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>2.025</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
-      <c r="W128">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0.4875</v>
-      </c>
-      <c r="AA128">
-        <v>-0.5</v>
-      </c>
       <c r="AB128">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183438</v>
+        <v>6183437</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,40 +11919,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
         <v>1.975</v>
@@ -11961,16 +11961,16 @@
         <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
+        <v>2.025</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>1.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183439</v>
+        <v>6183438</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N130">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O130">
         <v>3.25</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U130">
+        <v>1.825</v>
+      </c>
+      <c r="V130">
         <v>2.025</v>
       </c>
-      <c r="V130">
-        <v>1.825</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183441</v>
+        <v>6183439</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,73 +12275,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L133">
         <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>42</v>
+      </c>
+      <c r="K137">
+        <v>2.5</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>2.75</v>
+      </c>
+      <c r="N137">
+        <v>2.5</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>2.75</v>
+      </c>
+      <c r="Q137">
         <v>0</v>
       </c>
-      <c r="J137" t="s">
-        <v>43</v>
-      </c>
-      <c r="K137">
-        <v>1.615</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
-        <v>4.5</v>
-      </c>
-      <c r="N137">
+      <c r="R137">
         <v>1.8</v>
       </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>3.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
+      <c r="S137">
+        <v>2.05</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.9</v>
-      </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>1.05</v>
+      </c>
+      <c r="AB137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183902</v>
+        <v>7183413</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>1.615</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
+        <v>1.8</v>
+      </c>
+      <c r="O138">
+        <v>3.6</v>
+      </c>
+      <c r="P138">
+        <v>3.8</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
-        <v>2.75</v>
-      </c>
-      <c r="N138">
-        <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.75</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
-        <v>2.05</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,73 +12987,73 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183919</v>
+        <v>7183920</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,73 +13076,73 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142">
+        <v>2.45</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>2.875</v>
+      </c>
+      <c r="N142">
+        <v>2.5</v>
+      </c>
+      <c r="O142">
+        <v>3.3</v>
+      </c>
+      <c r="P142">
+        <v>2.8</v>
+      </c>
+      <c r="Q142">
         <v>0</v>
       </c>
-      <c r="I142">
-        <v>3</v>
-      </c>
-      <c r="J142" t="s">
-        <v>42</v>
-      </c>
-      <c r="K142">
-        <v>2.625</v>
-      </c>
-      <c r="L142">
-        <v>3.4</v>
-      </c>
-      <c r="M142">
-        <v>2.55</v>
-      </c>
-      <c r="N142">
-        <v>3</v>
-      </c>
-      <c r="O142">
-        <v>3.5</v>
-      </c>
-      <c r="P142">
-        <v>2.3</v>
-      </c>
-      <c r="Q142">
-        <v>0.25</v>
-      </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
         <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
+        <v>3.2</v>
+      </c>
+      <c r="M158">
+        <v>2.4</v>
+      </c>
+      <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
         <v>3.5</v>
       </c>
-      <c r="M158">
-        <v>2.9</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
       <c r="P158">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z158">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183929</v>
+        <v>7183930</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183356</v>
+        <v>6183901</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
+        <v>-0.5</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.85</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>3.5</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>1</v>
       </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>3.2</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183357</v>
+        <v>6183356</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
+        <v>4.75</v>
+      </c>
+      <c r="L33">
         <v>3.8</v>
       </c>
-      <c r="L33">
-        <v>3.4</v>
-      </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
+        <v>5.75</v>
+      </c>
+      <c r="O33">
+        <v>4.2</v>
+      </c>
+      <c r="P33">
+        <v>1.533</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1.9</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
+        <v>1.975</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
         <v>3.2</v>
       </c>
-      <c r="O33">
-        <v>3.25</v>
-      </c>
-      <c r="P33">
-        <v>2.15</v>
-      </c>
-      <c r="Q33">
-        <v>0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.925</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>1.925</v>
-      </c>
-      <c r="V33">
-        <v>1.925</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>-1</v>
-      </c>
       <c r="Y33">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183901</v>
+        <v>6183357</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3479,40 +3479,40 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183367</v>
+        <v>6183366</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
+        <v>2.05</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
         <v>1.9</v>
       </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>3.5</v>
-      </c>
-      <c r="Y43">
-        <v>-1</v>
-      </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183368</v>
+        <v>6183365</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>3.3</v>
+      </c>
+      <c r="P44">
         <v>3.8</v>
       </c>
-      <c r="O44">
-        <v>3.75</v>
-      </c>
-      <c r="P44">
-        <v>1.85</v>
-      </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183366</v>
+        <v>6183367</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N46">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183369</v>
+        <v>6183370</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,46 +4621,46 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T47">
         <v>2.25</v>
@@ -4678,19 +4678,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6183370</v>
+        <v>6183371</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,13 +4710,13 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4725,40 +4725,40 @@
         <v>42</v>
       </c>
       <c r="K48">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
+        <v>2.3</v>
+      </c>
+      <c r="O48">
+        <v>3.1</v>
+      </c>
+      <c r="P48">
         <v>3</v>
       </c>
-      <c r="O48">
-        <v>3.2</v>
-      </c>
-      <c r="P48">
-        <v>2.375</v>
-      </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4767,19 +4767,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.375</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183371</v>
+        <v>6183372</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
+        <v>2.4</v>
+      </c>
+      <c r="L49">
+        <v>3.4</v>
+      </c>
+      <c r="M49">
+        <v>2.7</v>
+      </c>
+      <c r="N49">
         <v>2.25</v>
       </c>
-      <c r="L49">
-        <v>3.3</v>
-      </c>
-      <c r="M49">
-        <v>2.9</v>
-      </c>
-      <c r="N49">
-        <v>2.3</v>
-      </c>
       <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
         <v>3.1</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6183372</v>
+        <v>6183373</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,13 +4888,13 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4903,43 +4903,43 @@
         <v>43</v>
       </c>
       <c r="K50">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L50">
         <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q50">
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4948,16 +4948,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183373</v>
+        <v>6183369</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N51">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W51">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.925</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1.05</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>0.825</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183381</v>
+        <v>6183379</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>2</v>
-      </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
+        <v>5.5</v>
+      </c>
+      <c r="N59">
         <v>1.533</v>
       </c>
-      <c r="N59">
-        <v>5.25</v>
-      </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183903</v>
+        <v>6183380</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,16 +5778,16 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>43</v>
@@ -5796,40 +5796,40 @@
         <v>1.5</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
+        <v>1.825</v>
+      </c>
+      <c r="V60">
         <v>2.025</v>
       </c>
-      <c r="V60">
-        <v>1.825</v>
-      </c>
       <c r="W60">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5838,16 +5838,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>1.025</v>
-      </c>
-      <c r="AC60">
-        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183380</v>
+        <v>6183381</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L62">
         <v>3.8</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N62">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O62">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R62">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183379</v>
+        <v>6183903</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6069,34 +6069,34 @@
         <v>5.5</v>
       </c>
       <c r="N63">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q63">
         <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
         <v>1.9</v>
       </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>0.5329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183388</v>
+        <v>6183904</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L68">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N68">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W68">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183393</v>
+        <v>6183389</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>43</v>
       </c>
       <c r="K71">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O71">
         <v>3.4</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
         <v>1.9</v>
-      </c>
-      <c r="S71">
-        <v>1.95</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183672</v>
+        <v>6183393</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,67 +7024,67 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="N74">
+        <v>1.833</v>
+      </c>
+      <c r="O74">
         <v>3.4</v>
       </c>
-      <c r="M74">
-        <v>1.8</v>
-      </c>
-      <c r="N74">
+      <c r="P74">
         <v>4</v>
       </c>
-      <c r="O74">
-        <v>3.6</v>
-      </c>
-      <c r="P74">
-        <v>1.727</v>
-      </c>
       <c r="Q74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
         <v>-1</v>
@@ -7093,7 +7093,7 @@
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183389</v>
+        <v>6183672</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
         <v>1.95</v>
       </c>
-      <c r="S76">
-        <v>1.9</v>
-      </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.8</v>
-      </c>
-      <c r="V76">
-        <v>2.05</v>
-      </c>
       <c r="W76">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
+        <v>0.825</v>
+      </c>
+      <c r="AA76">
+        <v>-1</v>
+      </c>
+      <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.95</v>
-      </c>
-      <c r="AA76">
-        <v>-1</v>
-      </c>
-      <c r="AB76">
-        <v>0.8</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N84">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
         <v>1.85</v>
       </c>
-      <c r="S84">
-        <v>2</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.975</v>
-      </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183400</v>
+        <v>6183401</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
+        <v>2.375</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
         <v>2.9</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.3</v>
-      </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X86">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183905</v>
+        <v>6183402</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="L87">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P87">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA94">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N95">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
+        <v>3.2</v>
+      </c>
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="M102">
-        <v>5.75</v>
-      </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M103">
+        <v>5.75</v>
+      </c>
+      <c r="N103">
+        <v>1.5</v>
+      </c>
+      <c r="O103">
         <v>4</v>
       </c>
-      <c r="N103">
-        <v>1.909</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.85</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.875</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.95</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183441</v>
+        <v>6183437</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
         <v>1</v>
       </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
         <v>3.5</v>
       </c>
-      <c r="L128">
-        <v>3.4</v>
-      </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183437</v>
+        <v>6183438</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,40 +11919,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L129">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
+        <v>2.3</v>
+      </c>
+      <c r="N129">
+        <v>2.7</v>
+      </c>
+      <c r="O129">
         <v>3.25</v>
       </c>
-      <c r="N129">
-        <v>1.727</v>
-      </c>
-      <c r="O129">
-        <v>3.6</v>
-      </c>
       <c r="P129">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R129">
         <v>1.975</v>
@@ -11961,16 +11961,16 @@
         <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183438</v>
+        <v>6183439</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,73 +12008,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N130">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O130">
         <v>3.25</v>
       </c>
       <c r="P130">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
+        <v>2.025</v>
+      </c>
+      <c r="V130">
         <v>1.825</v>
       </c>
-      <c r="V130">
-        <v>2.025</v>
-      </c>
       <c r="W130">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183439</v>
+        <v>6183441</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,73 +12275,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
         <v>3.4</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB133">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183902</v>
+        <v>7183413</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
+        <v>1.615</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>4.5</v>
+      </c>
+      <c r="N137">
+        <v>1.8</v>
+      </c>
+      <c r="O137">
+        <v>3.6</v>
+      </c>
+      <c r="P137">
+        <v>3.8</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
         <v>2.5</v>
       </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>2.75</v>
-      </c>
-      <c r="N137">
-        <v>2.5</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
-      <c r="S137">
-        <v>2.05</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
+      <c r="K138">
+        <v>2.5</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.75</v>
+      </c>
+      <c r="N138">
+        <v>2.5</v>
+      </c>
+      <c r="O138">
+        <v>3.1</v>
+      </c>
+      <c r="P138">
+        <v>2.75</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>43</v>
-      </c>
-      <c r="K138">
-        <v>1.615</v>
-      </c>
-      <c r="L138">
-        <v>4</v>
-      </c>
-      <c r="M138">
-        <v>4.5</v>
-      </c>
-      <c r="N138">
+      <c r="R138">
         <v>1.8</v>
       </c>
-      <c r="O138">
-        <v>3.6</v>
-      </c>
-      <c r="P138">
-        <v>3.8</v>
-      </c>
-      <c r="Q138">
-        <v>-0.5</v>
-      </c>
-      <c r="R138">
+      <c r="S138">
+        <v>2.05</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
         <v>1.85</v>
       </c>
-      <c r="S138">
-        <v>2</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.9</v>
-      </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>1.05</v>
+      </c>
+      <c r="AB138">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183919</v>
+        <v>7183920</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,73 +12987,73 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141">
+        <v>2.45</v>
+      </c>
+      <c r="L141">
+        <v>3.2</v>
+      </c>
+      <c r="M141">
+        <v>2.875</v>
+      </c>
+      <c r="N141">
+        <v>2.5</v>
+      </c>
+      <c r="O141">
+        <v>3.3</v>
+      </c>
+      <c r="P141">
+        <v>2.8</v>
+      </c>
+      <c r="Q141">
         <v>0</v>
       </c>
-      <c r="I141">
-        <v>3</v>
-      </c>
-      <c r="J141" t="s">
-        <v>42</v>
-      </c>
-      <c r="K141">
-        <v>2.625</v>
-      </c>
-      <c r="L141">
-        <v>3.4</v>
-      </c>
-      <c r="M141">
-        <v>2.55</v>
-      </c>
-      <c r="N141">
-        <v>3</v>
-      </c>
-      <c r="O141">
-        <v>3.5</v>
-      </c>
-      <c r="P141">
-        <v>2.3</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,73 +13076,73 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7183916</v>
+        <v>7183918</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -14782,41 +14782,41 @@
         <v>42</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
+        <v>2.4</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
         <v>3</v>
       </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.975</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.875</v>
       </c>
-      <c r="T161">
-        <v>2.5</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
@@ -14824,19 +14824,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.875</v>
-      </c>
-      <c r="AB161">
-        <v>0.95</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7183918</v>
+        <v>7183917</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,76 +14856,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="I162">
         <v>0</v>
       </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M162">
+        <v>3.2</v>
+      </c>
+      <c r="N162">
+        <v>1.6</v>
+      </c>
+      <c r="O162">
+        <v>4</v>
+      </c>
+      <c r="P162">
+        <v>4.5</v>
+      </c>
+      <c r="Q162">
+        <v>-0.75</v>
+      </c>
+      <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2.05</v>
+      </c>
+      <c r="T162">
         <v>2.75</v>
       </c>
-      <c r="N162">
-        <v>2.5</v>
-      </c>
-      <c r="O162">
-        <v>3.6</v>
-      </c>
-      <c r="P162">
-        <v>2.4</v>
-      </c>
-      <c r="Q162">
-        <v>0</v>
-      </c>
-      <c r="R162">
-        <v>2.025</v>
-      </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>3</v>
-      </c>
       <c r="U162">
+        <v>1.875</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="V162">
-        <v>1.875</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>3.3</v>
+      </c>
+      <c r="N163">
+        <v>2.2</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
         <v>3</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>43</v>
-      </c>
-      <c r="K163">
-        <v>2</v>
-      </c>
-      <c r="L163">
-        <v>3.5</v>
-      </c>
-      <c r="M163">
-        <v>3.2</v>
-      </c>
-      <c r="N163">
-        <v>1.6</v>
-      </c>
-      <c r="O163">
-        <v>4</v>
-      </c>
-      <c r="P163">
-        <v>4.5</v>
-      </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,16 +106,16 @@
     <t>IFK Mariehamn</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>SJK</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
-    <t>KuPS Kuopio</t>
+    <t>SJK</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183332</v>
+        <v>6183330</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183898</v>
+        <v>6183332</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
+        <v>2.05</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.25</v>
+      </c>
+      <c r="N5">
         <v>2.15</v>
-      </c>
-      <c r="L5">
-        <v>3.3</v>
-      </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.4</v>
       </c>
       <c r="O5">
         <v>3.2</v>
       </c>
       <c r="P5">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183330</v>
+        <v>6183898</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,70 +975,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1684,7 +1684,7 @@
         <v>45035.5</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1862,7 +1862,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2399,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183346</v>
+        <v>6183347</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
       <c r="P23">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183347</v>
+        <v>6183346</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q24">
+        <v>0.25</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>2.3</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA24">
         <v>-0.5</v>
       </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
-      </c>
-      <c r="V24">
-        <v>1.85</v>
-      </c>
-      <c r="W24">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
-      <c r="Z24">
-        <v>0.825</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183352</v>
+        <v>6183353</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P26">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>1.2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183354</v>
+        <v>6183352</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,58 +2841,58 @@
         <v>45051.5</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>43</v>
       </c>
       <c r="K27">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,13 +2901,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183353</v>
+        <v>6183354</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
         <v>3.5</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q28">
         <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183355</v>
+        <v>6183350</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,73 +3019,73 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M29">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183350</v>
+        <v>6183355</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183901</v>
+        <v>6183356</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y32">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183356</v>
+        <v>6183901</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
+        <v>-0.5</v>
+      </c>
+      <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>1.85</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
+        <v>3.5</v>
+      </c>
+      <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>1</v>
       </c>
-      <c r="R33">
-        <v>1.9</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.875</v>
-      </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>3.2</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6183360</v>
+        <v>6183362</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,58 +3731,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>43</v>
       </c>
       <c r="K37">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L37">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,16 +3791,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6183362</v>
+        <v>6183360</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,58 +3909,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183366</v>
+        <v>6183365</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,49 +4265,49 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
+        <v>1.833</v>
+      </c>
+      <c r="L43">
+        <v>3.4</v>
+      </c>
+      <c r="M43">
+        <v>4.5</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
         <v>3.3</v>
       </c>
-      <c r="L43">
-        <v>3.25</v>
-      </c>
-      <c r="M43">
-        <v>2.2</v>
-      </c>
-      <c r="N43">
-        <v>2.6</v>
-      </c>
-      <c r="O43">
-        <v>3</v>
-      </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
         <v>1.8</v>
@@ -4319,16 +4319,16 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
         <v>0.8</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183365</v>
+        <v>6183367</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,40 +4354,40 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M44">
+        <v>4.75</v>
+      </c>
+      <c r="N44">
+        <v>1.6</v>
+      </c>
+      <c r="O44">
         <v>4.5</v>
       </c>
-      <c r="N44">
-        <v>2</v>
-      </c>
-      <c r="O44">
-        <v>3.3</v>
-      </c>
       <c r="P44">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R44">
         <v>2.025</v>
@@ -4396,19 +4396,19 @@
         <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4420,10 +4420,10 @@
         <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183367</v>
+        <v>6183366</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N46">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O46">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
+        <v>2.05</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>1.9</v>
       </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
-      <c r="X46">
-        <v>3.5</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183370</v>
+        <v>6183369</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,46 +4621,46 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.25</v>
@@ -4678,19 +4678,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4888,10 +4888,10 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183369</v>
+        <v>6183370</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,46 +4977,46 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T51">
         <v>2.25</v>
@@ -5034,19 +5034,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6183377</v>
+        <v>6183375</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,58 +5244,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54">
         <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>0.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5336,7 +5336,7 @@
         <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183375</v>
+        <v>6183377</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>43</v>
       </c>
       <c r="K56">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N56">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56">
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>0.6000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183379</v>
+        <v>6183382</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,61 +5689,61 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
         <v>1.9</v>
       </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5755,10 +5755,10 @@
         <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183380</v>
+        <v>6183381</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L60">
         <v>3.8</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N60">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183382</v>
+        <v>6183903</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,40 +5867,40 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5909,19 +5909,19 @@
         <v>1.9</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -5933,10 +5933,10 @@
         <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183381</v>
+        <v>6183379</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M62">
+        <v>5.5</v>
+      </c>
+      <c r="N62">
         <v>1.533</v>
       </c>
-      <c r="N62">
-        <v>5.25</v>
-      </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183903</v>
+        <v>6183380</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,16 +6045,16 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>43</v>
@@ -6063,40 +6063,40 @@
         <v>1.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>2.025</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,16 +6105,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>1.025</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>32</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6238,19 +6238,19 @@
         <v>41</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
         <v>2.55</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,10 +6289,10 @@
         <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,10 +6312,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6327,19 +6327,19 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N66">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
         <v>2.55</v>
@@ -6348,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183386</v>
+        <v>6183387</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N67">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q67">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
+        <v>1.825</v>
+      </c>
+      <c r="V67">
         <v>2.025</v>
       </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183904</v>
+        <v>6183386</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,10 +6490,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6505,41 +6505,41 @@
         <v>42</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L68">
         <v>3.3</v>
       </c>
       <c r="M68">
+        <v>1.85</v>
+      </c>
+      <c r="N68">
+        <v>3.8</v>
+      </c>
+      <c r="O68">
+        <v>3.3</v>
+      </c>
+      <c r="P68">
         <v>1.909</v>
       </c>
-      <c r="N68">
-        <v>3.3</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
-      <c r="P68">
-        <v>2.1</v>
-      </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
+        <v>2.025</v>
+      </c>
+      <c r="V68">
         <v>1.825</v>
       </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6547,19 +6547,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB68">
         <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6183387</v>
+        <v>6183388</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,10 +6579,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6594,43 +6594,43 @@
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6639,16 +6639,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183388</v>
+        <v>6183904</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183389</v>
+        <v>6183672</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
+        <v>1.825</v>
+      </c>
+      <c r="S71">
+        <v>2.025</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
+        <v>1.9</v>
+      </c>
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="S71">
-        <v>1.9</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.8</v>
-      </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
       <c r="W71">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>0.825</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.95</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.8</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183391</v>
+        <v>6183393</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,34 +6846,34 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s">
         <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
+        <v>1.65</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
         <v>1.833</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>3.4</v>
-      </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
-      <c r="N72">
-        <v>1.85</v>
-      </c>
-      <c r="O72">
-        <v>3.5</v>
       </c>
       <c r="P72">
         <v>4</v>
@@ -6888,34 +6888,34 @@
         <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183392</v>
+        <v>6183390</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P73">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183393</v>
+        <v>6183389</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N74">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
         <v>3.4</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.9</v>
-      </c>
-      <c r="S74">
-        <v>1.95</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W74">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183390</v>
+        <v>6183392</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75">
         <v>0</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M75">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N75">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183672</v>
+        <v>6183391</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,46 +7202,46 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L76">
         <v>3.4</v>
       </c>
       <c r="M76">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="N76">
+        <v>1.85</v>
+      </c>
+      <c r="O76">
+        <v>3.5</v>
+      </c>
+      <c r="P76">
         <v>4</v>
       </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>1.727</v>
-      </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T76">
         <v>2.5</v>
@@ -7256,22 +7256,22 @@
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183396</v>
+        <v>6183394</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>2.625</v>
+      </c>
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="I78">
+      <c r="M78">
+        <v>2.5</v>
+      </c>
+      <c r="N78">
+        <v>2.625</v>
+      </c>
+      <c r="O78">
+        <v>3.2</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>43</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
-      <c r="L78">
-        <v>3.1</v>
-      </c>
-      <c r="M78">
-        <v>3.4</v>
-      </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.75</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7484,43 +7484,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183394</v>
+        <v>6183395</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
         <v>1.9</v>
       </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X80">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7914,10 +7914,10 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183401</v>
+        <v>6183402</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,16 +8003,16 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
@@ -8027,31 +8027,31 @@
         <v>2.3</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.875</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183402</v>
+        <v>6183401</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,16 +8181,16 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
@@ -8205,31 +8205,31 @@
         <v>2.3</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
         <v>3.2</v>
       </c>
       <c r="P87">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
         <v>1.975</v>
-      </c>
-      <c r="V87">
-        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>4.333</v>
+      </c>
+      <c r="N94">
+        <v>1.75</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
         <v>4</v>
-      </c>
-      <c r="M94">
-        <v>6.5</v>
-      </c>
-      <c r="N94">
-        <v>1.7</v>
-      </c>
-      <c r="O94">
-        <v>3.5</v>
-      </c>
-      <c r="P94">
-        <v>4.75</v>
       </c>
       <c r="Q94">
         <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8896,7 +8896,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,16 +9042,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M102">
+        <v>5.75</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102">
         <v>4</v>
       </c>
-      <c r="N102">
-        <v>1.909</v>
-      </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.9</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.875</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.95</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
       </c>
       <c r="K103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
         <v>4</v>
       </c>
-      <c r="M103">
-        <v>5.75</v>
-      </c>
       <c r="N103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10139,10 +10139,10 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
         <v>1.85</v>
       </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>3.6</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3.1</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.25</v>
+      </c>
+      <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.25</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113">
-        <v>2.1</v>
-      </c>
-      <c r="L113">
-        <v>3.25</v>
-      </c>
-      <c r="M113">
-        <v>3.25</v>
-      </c>
-      <c r="N113">
-        <v>1.95</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>2.025</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
-      <c r="W113">
-        <v>0.95</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" t="s">
         <v>33</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>31</v>
@@ -11385,7 +11385,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>29</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L124">
+        <v>3.3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>4.2</v>
-      </c>
-      <c r="N124">
-        <v>1.909</v>
-      </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
+        <v>1.9</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.5</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5125</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.95</v>
-      </c>
-      <c r="S124">
-        <v>1.9</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>0.909</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
+      <c r="AB124">
         <v>0.95</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-0.5</v>
-      </c>
       <c r="AC124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
+        <v>1.8</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>4.2</v>
+      </c>
+      <c r="N125">
+        <v>1.909</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>3.75</v>
       </c>
-      <c r="L125">
-        <v>3.3</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X125">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>0.95</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183437</v>
+        <v>6183441</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>42</v>
+      </c>
+      <c r="K128">
+        <v>3.5</v>
+      </c>
+      <c r="L128">
+        <v>3.4</v>
+      </c>
+      <c r="M128">
+        <v>1.909</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128">
+        <v>3.3</v>
+      </c>
+      <c r="P128">
+        <v>2.2</v>
+      </c>
+      <c r="Q128">
+        <v>0.25</v>
+      </c>
+      <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>2</v>
+      </c>
+      <c r="W128">
+        <v>-1</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>1.2</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>1</v>
       </c>
-      <c r="J128" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128">
-        <v>2</v>
-      </c>
-      <c r="L128">
-        <v>3.5</v>
-      </c>
-      <c r="M128">
-        <v>3.25</v>
-      </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
-      <c r="P128">
-        <v>4</v>
-      </c>
-      <c r="Q128">
-        <v>-0.75</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>2.025</v>
-      </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
-      <c r="W128">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X128">
-        <v>-1</v>
-      </c>
-      <c r="Y128">
-        <v>-1</v>
-      </c>
-      <c r="Z128">
-        <v>0.4875</v>
-      </c>
-      <c r="AA128">
-        <v>-0.5</v>
-      </c>
       <c r="AB128">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183438</v>
+        <v>6183909</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,58 +11919,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>43</v>
       </c>
       <c r="K129">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
         <v>2.3</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
+        <v>2.025</v>
+      </c>
+      <c r="V129">
         <v>1.825</v>
       </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>0.825</v>
-      </c>
-      <c r="AC129">
-        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,49 +12008,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
         <v>2.025</v>
@@ -12059,25 +12059,25 @@
         <v>1.825</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0.4875</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="AA130">
-        <v>0.4625</v>
-      </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183440</v>
+        <v>6183438</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,40 +12097,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R131">
         <v>1.975</v>
@@ -12139,31 +12139,31 @@
         <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183909</v>
+        <v>6183439</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,49 +12186,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
         <v>2.025</v>
@@ -12237,25 +12237,25 @@
         <v>1.825</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183441</v>
+        <v>6183440</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,10 +12275,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12290,40 +12290,40 @@
         <v>42</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12332,16 +12332,16 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,46 +12364,46 @@
         <v>45184.5</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
         <v>2.5</v>
@@ -12415,19 +12415,19 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
         <v>1.05</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,46 +12453,46 @@
         <v>45184.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12504,19 +12504,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>1.05</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,58 +12542,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>43</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12602,16 +12602,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183413</v>
+        <v>7183906</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>43</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137">
+        <v>3.75</v>
+      </c>
+      <c r="P137">
+        <v>3.3</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
         <v>1.8</v>
       </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>3.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
+        <v>1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8</v>
       </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7183907</v>
+        <v>7183920</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,73 +12898,73 @@
         <v>45191.5</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
         <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,73 +12987,73 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N141">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P141">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T141">
         <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V141">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W141">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,10 +13076,10 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13091,40 +13091,40 @@
         <v>42</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13133,16 +13133,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45196.5</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
+        <v>1.85</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
+        <v>4.2</v>
+      </c>
+      <c r="N146">
         <v>1.8</v>
       </c>
-      <c r="L146">
+      <c r="O146">
         <v>3.6</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>4.333</v>
       </c>
-      <c r="N146">
-        <v>1.909</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>4</v>
-      </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,13 +13492,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45196.5</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>43</v>
       </c>
       <c r="K147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.909</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>4.2</v>
-      </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
       <c r="P147">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,13 +13581,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,40 +13610,40 @@
         <v>45198.5</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
       </c>
       <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>1.95</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="M148">
-        <v>4.2</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -13655,31 +13655,31 @@
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X148">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,40 +13699,40 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>1.8</v>
       </c>
       <c r="L149">
+        <v>3.75</v>
+      </c>
+      <c r="M149">
+        <v>4.2</v>
+      </c>
+      <c r="N149">
+        <v>1.75</v>
+      </c>
+      <c r="O149">
         <v>3.8</v>
       </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>1.95</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -13744,31 +13744,31 @@
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>1</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
+        <v>30</v>
+      </c>
+      <c r="G151" t="s">
         <v>33</v>
-      </c>
-      <c r="G151" t="s">
-        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,55 +14325,55 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>43</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,13 +14382,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,55 +14500,55 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>42</v>
       </c>
       <c r="K158">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
@@ -14557,19 +14557,19 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159">
         <v>1</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L159">
+        <v>3.2</v>
+      </c>
+      <c r="M159">
+        <v>2.4</v>
+      </c>
+      <c r="N159">
+        <v>2.5</v>
+      </c>
+      <c r="O159">
         <v>3.5</v>
       </c>
-      <c r="M159">
-        <v>2.9</v>
-      </c>
-      <c r="N159">
-        <v>3</v>
-      </c>
-      <c r="O159">
-        <v>3.6</v>
-      </c>
       <c r="P159">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q159">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z159">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K160">
         <v>2.15</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
+        <v>2.9</v>
+      </c>
+      <c r="N160">
         <v>3</v>
-      </c>
-      <c r="N160">
-        <v>2.25</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
-      <c r="AC160">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,10 +14767,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
+        <v>33</v>
+      </c>
+      <c r="G161" t="s">
         <v>32</v>
-      </c>
-      <c r="G161" t="s">
-        <v>30</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14948,7 +14948,7 @@
         <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15034,7 +15034,7 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,19 +103,19 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>SJK</t>
+  </si>
+  <si>
+    <t>KTP</t>
   </si>
   <si>
     <t>KuPS Kuopio</t>
   </si>
   <si>
-    <t>KTP</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
     <t>VPS Vaasa</t>
-  </si>
-  <si>
-    <t>SJK</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -139,13 +139,13 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183331</v>
+        <v>6183898</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,10 +619,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -631,25 +631,25 @@
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O2">
         <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -661,31 +661,31 @@
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183330</v>
+        <v>6183333</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -720,40 +720,40 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183333</v>
+        <v>6183330</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -809,40 +809,40 @@
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,19 +851,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183332</v>
+        <v>6183331</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,52 +886,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O5">
         <v>3.2</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.3875</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="AA5">
-        <v>0.4875</v>
-      </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183898</v>
+        <v>6183332</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
+        <v>2.05</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>3.25</v>
+      </c>
+      <c r="N6">
         <v>2.15</v>
-      </c>
-      <c r="L6">
-        <v>3.3</v>
-      </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.4</v>
       </c>
       <c r="O6">
         <v>3.2</v>
       </c>
       <c r="P6">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183335</v>
+        <v>6183334</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>45030.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183334</v>
+        <v>6183335</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,76 +1239,76 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1684,7 +1684,7 @@
         <v>45035.5</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>1.4</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183342</v>
+        <v>6183341</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183341</v>
+        <v>6183342</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>1.75</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
         <v>1.5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183348</v>
+        <v>6183346</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
+        <v>3.5</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.3</v>
       </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>1.833</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183346</v>
+        <v>6183348</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
+        <v>3.1</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
+        <v>1.825</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>1.925</v>
+      </c>
+      <c r="V24">
+        <v>1.925</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>2.1</v>
       </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.875</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>2.3</v>
-      </c>
-      <c r="Y24">
-        <v>-1</v>
-      </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183353</v>
+        <v>6183355</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N26">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
+        <v>3.1</v>
+      </c>
+      <c r="P26">
         <v>3.5</v>
       </c>
-      <c r="P26">
-        <v>4.333</v>
-      </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>2.25</v>
+      </c>
+      <c r="U26">
         <v>1.85</v>
       </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183352</v>
+        <v>6183350</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,46 +2841,46 @@
         <v>45051.5</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
         <v>3</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2.25</v>
@@ -2892,19 +2892,19 @@
         <v>1.925</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z27">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
         <v>0.925</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183354</v>
+        <v>6183352</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>2.2</v>
+      </c>
+      <c r="L28">
+        <v>3.25</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28">
-        <v>1.5</v>
-      </c>
-      <c r="L28">
-        <v>3.8</v>
-      </c>
-      <c r="M28">
-        <v>5.5</v>
-      </c>
       <c r="N28">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183350</v>
+        <v>6183353</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,40 +3019,40 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
         <v>2</v>
@@ -3061,31 +3061,31 @@
         <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183355</v>
+        <v>6183354</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,58 +3108,58 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>0.571</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3168,13 +3168,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183356</v>
+        <v>6183901</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
+        <v>-0.5</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.85</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>3.5</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>1</v>
       </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>3.2</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183901</v>
+        <v>6183357</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,10 +3375,10 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3390,40 +3390,40 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183357</v>
+        <v>6183356</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
+        <v>4.75</v>
+      </c>
+      <c r="L34">
         <v>3.8</v>
       </c>
-      <c r="L34">
-        <v>3.4</v>
-      </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N34">
+        <v>5.75</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>1.533</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
+        <v>1.975</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
         <v>3.2</v>
       </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
-      <c r="P34">
-        <v>2.15</v>
-      </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.925</v>
-      </c>
-      <c r="S34">
-        <v>1.925</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.925</v>
-      </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
       <c r="Y34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
         <v>1.85</v>
@@ -3823,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>1.571</v>
@@ -3998,7 +3998,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41">
         <v>1.363</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O43">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>1.65</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183368</v>
+        <v>6183366</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N45">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
+        <v>2.05</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>1.9</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183366</v>
+        <v>6183365</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,49 +4532,49 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
+        <v>1.833</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>4.5</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
         <v>3.3</v>
       </c>
-      <c r="L46">
-        <v>3.25</v>
-      </c>
-      <c r="M46">
-        <v>2.2</v>
-      </c>
-      <c r="N46">
-        <v>2.6</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
       <c r="P46">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -4586,16 +4586,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y46">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
         <v>0.8</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183369</v>
+        <v>6183370</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,46 +4621,46 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T47">
         <v>2.25</v>
@@ -4678,19 +4678,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>6</v>
+        <v>1.375</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC47">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4888,10 +4888,10 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
         <v>2.45</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183370</v>
+        <v>6183369</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,46 +4977,46 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>2.25</v>
@@ -5034,19 +5034,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>2.45</v>
@@ -5244,7 +5244,7 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
         <v>1.571</v>
@@ -5333,10 +5333,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K55">
         <v>2.55</v>
@@ -5425,7 +5425,7 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5434,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5514,7 +5514,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>1.8</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183382</v>
+        <v>6183903</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,13 +5689,13 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -5704,25 +5704,25 @@
         <v>41</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P59">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R59">
         <v>1.95</v>
@@ -5731,19 +5731,19 @@
         <v>1.9</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
@@ -5755,10 +5755,10 @@
         <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183381</v>
+        <v>6183382</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
+        <v>2</v>
+      </c>
+      <c r="V60">
         <v>1.85</v>
       </c>
-      <c r="V60">
-        <v>2</v>
-      </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-0</v>
+      </c>
+      <c r="AB60">
         <v>-0.5</v>
       </c>
-      <c r="AA60">
-        <v>0.4</v>
-      </c>
-      <c r="AB60">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183903</v>
+        <v>6183380</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,58 +5867,58 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.5</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O61">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P61">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>2.025</v>
       </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
       <c r="W61">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5927,16 +5927,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
+        <v>-1</v>
+      </c>
+      <c r="AC61">
         <v>1.025</v>
-      </c>
-      <c r="AC61">
-        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>1.5</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183380</v>
+        <v>6183381</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L63">
         <v>3.8</v>
       </c>
       <c r="M63">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N63">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z63">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.444</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>2.6</v>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183387</v>
+        <v>6183904</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N67">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6452,25 +6452,25 @@
         <v>2.025</v>
       </c>
       <c r="W67">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183386</v>
+        <v>6183387</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N68">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O68">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q68">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
+        <v>1.825</v>
+      </c>
+      <c r="V68">
         <v>2.025</v>
       </c>
-      <c r="V68">
-        <v>1.825</v>
-      </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6183388</v>
+        <v>6183386</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>1.85</v>
+      </c>
+      <c r="N69">
+        <v>3.8</v>
+      </c>
+      <c r="O69">
+        <v>3.3</v>
+      </c>
+      <c r="P69">
+        <v>1.909</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>1.85</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
+        <v>1.825</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0.909</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>2.6</v>
-      </c>
-      <c r="L69">
-        <v>3.2</v>
-      </c>
-      <c r="M69">
-        <v>2.5</v>
-      </c>
-      <c r="N69">
-        <v>2.8</v>
-      </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>2.3</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>2.125</v>
-      </c>
-      <c r="S69">
-        <v>1.75</v>
-      </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>2.05</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
-      <c r="W69">
-        <v>1.8</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>1.125</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>4.2</v>
@@ -6849,7 +6849,7 @@
         <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
         <v>1.65</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183390</v>
+        <v>6183392</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N73">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
         <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183389</v>
+        <v>6183390</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
+        <v>1.45</v>
+      </c>
+      <c r="L74">
+        <v>4.2</v>
+      </c>
+      <c r="M74">
+        <v>6.5</v>
+      </c>
+      <c r="N74">
+        <v>1.363</v>
+      </c>
+      <c r="O74">
+        <v>4.333</v>
+      </c>
+      <c r="P74">
+        <v>9</v>
+      </c>
+      <c r="Q74">
+        <v>-1.25</v>
+      </c>
+      <c r="R74">
         <v>1.85</v>
       </c>
-      <c r="L74">
-        <v>3.5</v>
-      </c>
-      <c r="M74">
-        <v>3.8</v>
-      </c>
-      <c r="N74">
-        <v>2.15</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>3.1</v>
-      </c>
-      <c r="Q74">
-        <v>-0.25</v>
-      </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183392</v>
+        <v>6183389</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,58 +7113,58 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
+        <v>1.85</v>
+      </c>
+      <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
         <v>2.15</v>
       </c>
-      <c r="L75">
-        <v>3.25</v>
-      </c>
-      <c r="M75">
+      <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3.1</v>
       </c>
-      <c r="N75">
-        <v>2.375</v>
-      </c>
-      <c r="O75">
-        <v>3.3</v>
-      </c>
-      <c r="P75">
-        <v>2.7</v>
-      </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183394</v>
+        <v>6183396</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>2.3</v>
+      </c>
+      <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
+        <v>2.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>1.775</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
       </c>
-      <c r="N78">
-        <v>2.625</v>
-      </c>
-      <c r="O78">
-        <v>3.2</v>
-      </c>
-      <c r="P78">
-        <v>2.5</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>1.975</v>
-      </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X78">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7481,46 +7481,46 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183395</v>
+        <v>6183394</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
+        <v>2.625</v>
+      </c>
+      <c r="L80">
         <v>3</v>
       </c>
-      <c r="L80">
-        <v>3.1</v>
-      </c>
       <c r="M80">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P80">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
       <c r="W80">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,10 +7647,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183400</v>
+        <v>6183402</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L84">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N84">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
+        <v>0.25</v>
+      </c>
+      <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
+        <v>2.025</v>
+      </c>
+      <c r="T84">
+        <v>2.5</v>
+      </c>
+      <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
+        <v>1.875</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>2.2</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0.4125</v>
+      </c>
+      <c r="AA84">
         <v>-0.5</v>
       </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>3.2</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.95</v>
-      </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183402</v>
+        <v>6183401</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,19 +8003,19 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>2.9</v>
@@ -8027,31 +8027,31 @@
         <v>2.3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
-      </c>
-      <c r="V85">
-        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183905</v>
+        <v>6183400</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
         <v>33</v>
       </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8137,31 +8137,31 @@
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183401</v>
+        <v>6183905</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
       </c>
       <c r="K87">
+        <v>2.375</v>
+      </c>
+      <c r="L87">
+        <v>3.1</v>
+      </c>
+      <c r="M87">
         <v>2.9</v>
       </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.3</v>
-      </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>2.55</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8816,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA95">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N96">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9516,10 +9516,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" t="s">
         <v>30</v>
-      </c>
-      <c r="G102" t="s">
-        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9694,7 +9694,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9875,7 +9875,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>1.363</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6183421</v>
+        <v>6183420</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L107">
         <v>3.5</v>
       </c>
       <c r="M107">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N107">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q107">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6183420</v>
+        <v>6183421</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45145.5</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L108">
         <v>3.5</v>
       </c>
       <c r="M108">
+        <v>1.8</v>
+      </c>
+      <c r="N108">
+        <v>3.75</v>
+      </c>
+      <c r="O108">
+        <v>3.3</v>
+      </c>
+      <c r="P108">
+        <v>2.05</v>
+      </c>
+      <c r="Q108">
+        <v>0.5</v>
+      </c>
+      <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
         <v>2.25</v>
       </c>
-      <c r="N108">
-        <v>3.1</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
-      <c r="P108">
-        <v>2.25</v>
-      </c>
-      <c r="Q108">
-        <v>0.25</v>
-      </c>
-      <c r="R108">
-        <v>1.85</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
-      <c r="T108">
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
         <v>2.75</v>
       </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.85</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,10 +10139,10 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10418,7 +10418,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>2.1</v>
@@ -10498,7 +10498,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10584,10 +10584,10 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11118,7 +11118,7 @@
         <v>45159.5</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11207,10 +11207,10 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K121">
         <v>1.7</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,10 +11385,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11397,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K123">
         <v>1.55</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>41</v>
       </c>
       <c r="K124">
+        <v>1.8</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
+        <v>4.2</v>
+      </c>
+      <c r="N124">
+        <v>1.909</v>
+      </c>
+      <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
         <v>3.75</v>
       </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>2</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>0.95</v>
-      </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>43</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L125">
+        <v>3.3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
         <v>3.4</v>
       </c>
-      <c r="M125">
-        <v>4.2</v>
-      </c>
-      <c r="N125">
-        <v>1.909</v>
-      </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>1.9</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.5125</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.95</v>
-      </c>
-      <c r="S125">
-        <v>1.9</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
-      <c r="W125">
-        <v>0.909</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
+      <c r="AB125">
         <v>0.95</v>
       </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>-0.5</v>
-      </c>
       <c r="AC125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183441</v>
+        <v>6183439</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,73 +11830,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
         <v>3.4</v>
       </c>
       <c r="M128">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y128">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB128">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183909</v>
+        <v>6183438</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,58 +11919,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
         <v>2.3</v>
       </c>
       <c r="N129">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11979,16 +11979,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K130">
         <v>2</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183438</v>
+        <v>6183909</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,58 +12097,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
         <v>2.3</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
         <v>1.825</v>
       </c>
-      <c r="V131">
-        <v>2.025</v>
-      </c>
       <c r="W131">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.825</v>
-      </c>
-      <c r="AC131">
-        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183439</v>
+        <v>6183441</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
         <v>3.4</v>
       </c>
       <c r="M132">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB132">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12275,7 +12275,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>37</v>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,46 +12364,46 @@
         <v>45184.5</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>41</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>2.5</v>
@@ -12415,19 +12415,19 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>1.05</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,46 +12453,46 @@
         <v>45184.5</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>43</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12504,19 +12504,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
         <v>1.05</v>
@@ -12554,7 +12554,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K136">
         <v>1.615</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183906</v>
+        <v>7183902</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,40 +12631,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
         <v>1.8</v>
@@ -12673,7 +12673,7 @@
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
         <v>1.85</v>
@@ -12682,19 +12682,19 @@
         <v>2</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>0.8500000000000001</v>
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,40 +12720,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.8</v>
@@ -12762,7 +12762,7 @@
         <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
         <v>1.85</v>
@@ -12771,19 +12771,19 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.8500000000000001</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,73 +12898,73 @@
         <v>45191.5</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13002,40 +13002,40 @@
         <v>42</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13044,16 +13044,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183907</v>
+        <v>7183920</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,73 +13076,73 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O142">
         <v>3.3</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13165,7 +13165,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
         <v>1.85</v>
@@ -13524,7 +13524,7 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
         <v>1.8</v>
@@ -13613,7 +13613,7 @@
         <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13699,7 +13699,7 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K150">
         <v>1.95</v>
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K152">
         <v>1.909</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14233,7 +14233,7 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K156">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,13 +14382,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
+        <v>2.9</v>
+      </c>
+      <c r="N158">
         <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.25</v>
       </c>
       <c r="O158">
         <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA158">
+        <v>-0.5</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,55 +14589,55 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>42</v>
       </c>
       <c r="K159">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14646,19 +14646,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L160">
+        <v>3.2</v>
+      </c>
+      <c r="M160">
+        <v>2.4</v>
+      </c>
+      <c r="N160">
+        <v>2.5</v>
+      </c>
+      <c r="O160">
         <v>3.5</v>
       </c>
-      <c r="M160">
-        <v>2.9</v>
-      </c>
-      <c r="N160">
-        <v>3</v>
-      </c>
-      <c r="O160">
-        <v>3.6</v>
-      </c>
       <c r="P160">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z160">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,10 +14767,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
+        <v>29</v>
+      </c>
+      <c r="G161" t="s">
         <v>33</v>
-      </c>
-      <c r="G161" t="s">
-        <v>32</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14948,7 +14948,7 @@
         <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15034,7 +15034,7 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K166">
         <v>1.8</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K168">
         <v>2.15</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,19 +103,19 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>SJK</t>
+    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>KuPS Kuopio</t>
+    <t>VPS Vaasa</t>
+  </si>
+  <si>
+    <t>SJK</t>
   </si>
   <si>
     <t>IFK Mariehamn</t>
-  </si>
-  <si>
-    <t>VPS Vaasa</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -139,13 +139,13 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183898</v>
+        <v>6183330</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,70 +619,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>3.8</v>
+      </c>
+      <c r="N2">
+        <v>1.909</v>
+      </c>
+      <c r="O2">
         <v>3.3</v>
       </c>
-      <c r="M2">
-        <v>3.1</v>
-      </c>
-      <c r="N2">
-        <v>2.4</v>
-      </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
       <c r="P2">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183330</v>
+        <v>6183332</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L4">
         <v>3.4</v>
       </c>
       <c r="M4">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N4">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O4">
+        <v>3.2</v>
+      </c>
+      <c r="P4">
         <v>3.3</v>
       </c>
-      <c r="P4">
-        <v>3.8</v>
-      </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183331</v>
+        <v>6183898</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -898,25 +898,25 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
         <v>3.2</v>
       </c>
       <c r="P5">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -928,31 +928,31 @@
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183332</v>
+        <v>6183331</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,52 +975,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N6">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
         <v>3.2</v>
       </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1032,16 +1032,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.3875</v>
+      </c>
+      <c r="AA6">
         <v>-0.5</v>
       </c>
-      <c r="AA6">
-        <v>0.4875</v>
-      </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>1.05</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183334</v>
+        <v>6183335</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>45030.5</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N8">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183335</v>
+        <v>6183334</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,76 +1239,76 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N9">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1595,7 +1595,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1684,7 +1684,7 @@
         <v>45035.5</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2.25</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.4</v>
@@ -1865,7 +1865,7 @@
         <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.5</v>
@@ -1951,7 +1951,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
         <v>1.727</v>
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>1.75</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183346</v>
+        <v>6183347</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,13 +2396,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2411,61 +2411,61 @@
         <v>43</v>
       </c>
       <c r="K22">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N22">
+        <v>1.85</v>
+      </c>
+      <c r="O22">
         <v>3.5</v>
       </c>
-      <c r="O22">
-        <v>3.3</v>
-      </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183347</v>
+        <v>6183348</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
         <v>1.825</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.825</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183348</v>
+        <v>6183346</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
         <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>3.3</v>
+      </c>
+      <c r="P24">
+        <v>2.1</v>
+      </c>
+      <c r="Q24">
+        <v>0.25</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>1.875</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.3</v>
       </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-      <c r="P24">
-        <v>3.1</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>2.025</v>
-      </c>
-      <c r="S24">
-        <v>1.825</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.925</v>
-      </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA24">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>3.75</v>
@@ -2752,10 +2752,10 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
         <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.3</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2930,7 +2930,7 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183353</v>
+        <v>6183354</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,58 +3019,58 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="O29">
         <v>3.5</v>
       </c>
       <c r="P29">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q29">
         <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.6659999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,13 +3079,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183354</v>
+        <v>6183353</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,58 +3108,58 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N30">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="O30">
         <v>3.5</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q30">
         <v>-0.75</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
         <v>1.85</v>
       </c>
-      <c r="S30">
-        <v>2</v>
-      </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.571</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3168,13 +3168,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3298,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
         <v>1.7</v>
@@ -3378,7 +3378,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
         <v>3.8</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
         <v>4.75</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>1.85</v>
@@ -3823,7 +3823,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.571</v>
@@ -3998,7 +3998,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.363</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183368</v>
+        <v>6183366</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>41</v>
+      </c>
+      <c r="K43">
+        <v>3.3</v>
+      </c>
+      <c r="L43">
+        <v>3.25</v>
+      </c>
+      <c r="M43">
+        <v>2.2</v>
+      </c>
+      <c r="N43">
+        <v>2.6</v>
+      </c>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="P43">
+        <v>2.9</v>
+      </c>
+      <c r="Q43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43">
-        <v>3.6</v>
-      </c>
-      <c r="L43">
-        <v>3.6</v>
-      </c>
-      <c r="M43">
-        <v>1.95</v>
-      </c>
-      <c r="N43">
-        <v>3.8</v>
-      </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.85</v>
-      </c>
-      <c r="Q43">
-        <v>0.5</v>
-      </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U43">
+        <v>1.8</v>
+      </c>
+      <c r="V43">
+        <v>2.05</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
         <v>1.9</v>
       </c>
-      <c r="V43">
-        <v>1.95</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4357,7 +4357,7 @@
         <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.65</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183366</v>
+        <v>6183365</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,49 +4443,49 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
+        <v>1.833</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>4.5</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
         <v>3.3</v>
       </c>
-      <c r="L45">
-        <v>3.25</v>
-      </c>
-      <c r="M45">
-        <v>2.2</v>
-      </c>
-      <c r="N45">
-        <v>2.6</v>
-      </c>
-      <c r="O45">
-        <v>3</v>
-      </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
         <v>1.8</v>
@@ -4497,16 +4497,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
         <v>0.8</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>2.45</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6183371</v>
+        <v>6183369</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,55 +4710,55 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4767,19 +4767,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183372</v>
+        <v>6183371</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P49">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,10 +4888,10 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
         <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2.45</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183369</v>
+        <v>6183372</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.45</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6183375</v>
+        <v>6183671</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183377</v>
+        <v>6183375</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M56">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q56">
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>0.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183671</v>
+        <v>6183376</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,13 +5511,13 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -5526,25 +5526,25 @@
         <v>43</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N57">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
         <v>3.2</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>1.925</v>
@@ -5553,34 +5553,34 @@
         <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183903</v>
+        <v>6183381</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,73 +5689,73 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>41</v>
       </c>
       <c r="K59">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O59">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R59">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183382</v>
+        <v>6183380</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>43</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P60">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183380</v>
+        <v>6183379</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,58 +5867,58 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.5</v>
       </c>
       <c r="L61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O61">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5927,16 +5927,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183379</v>
+        <v>6183382</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,61 +5956,61 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N62">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R62">
+        <v>1.95</v>
+      </c>
+      <c r="S62">
         <v>1.9</v>
       </c>
-      <c r="S62">
-        <v>1.95</v>
-      </c>
       <c r="T62">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
@@ -6022,10 +6022,10 @@
         <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,73 +6045,73 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>2</v>
-      </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>5.5</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
         <v>3.8</v>
       </c>
-      <c r="M63">
-        <v>1.533</v>
-      </c>
-      <c r="N63">
-        <v>5.25</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6134,10 +6134,10 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.444</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>2.6</v>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183387</v>
+        <v>6183386</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>41</v>
       </c>
       <c r="K68">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="N68">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.25</v>
+      </c>
+      <c r="U68">
         <v>2.025</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.825</v>
       </c>
-      <c r="T68">
-        <v>2.75</v>
-      </c>
-      <c r="U68">
-        <v>1.825</v>
-      </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6183386</v>
+        <v>6183387</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M69">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O69">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P69">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U69">
+        <v>1.825</v>
+      </c>
+      <c r="V69">
         <v>2.025</v>
       </c>
-      <c r="V69">
-        <v>1.825</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183388</v>
+        <v>6183904</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183672</v>
+        <v>6183389</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,13 +6757,13 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -6772,61 +6772,61 @@
         <v>43</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>3.8</v>
+      </c>
+      <c r="N71">
+        <v>2.15</v>
+      </c>
+      <c r="O71">
         <v>3.4</v>
       </c>
-      <c r="M71">
+      <c r="P71">
+        <v>3.1</v>
+      </c>
+      <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
         <v>1.8</v>
       </c>
-      <c r="N71">
-        <v>4</v>
-      </c>
-      <c r="O71">
-        <v>3.6</v>
-      </c>
-      <c r="P71">
-        <v>1.727</v>
-      </c>
-      <c r="Q71">
-        <v>0.75</v>
-      </c>
-      <c r="R71">
-        <v>1.825</v>
-      </c>
-      <c r="S71">
-        <v>2.025</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183393</v>
+        <v>6183390</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>41</v>
       </c>
       <c r="K72">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N72">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2.15</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183390</v>
+        <v>6183393</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s">
         <v>31</v>
       </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183389</v>
+        <v>6183672</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>4.2</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
         <v>1.95</v>
       </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2.05</v>
-      </c>
       <c r="W75">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
+        <v>0.825</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.95</v>
-      </c>
-      <c r="AA75">
-        <v>-1</v>
-      </c>
-      <c r="AB75">
-        <v>0.8</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7214,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
         <v>1.833</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183396</v>
+        <v>6183394</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78">
+        <v>2.625</v>
+      </c>
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="I78">
+      <c r="M78">
+        <v>2.5</v>
+      </c>
+      <c r="N78">
+        <v>2.625</v>
+      </c>
+      <c r="O78">
+        <v>3.2</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
         <v>0</v>
       </c>
-      <c r="J78" t="s">
-        <v>41</v>
-      </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
-      <c r="L78">
-        <v>3.1</v>
-      </c>
-      <c r="M78">
-        <v>3.4</v>
-      </c>
-      <c r="N78">
-        <v>2.3</v>
-      </c>
-      <c r="O78">
-        <v>3.1</v>
-      </c>
-      <c r="P78">
-        <v>2.75</v>
-      </c>
-      <c r="Q78">
-        <v>-0.25</v>
-      </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7481,46 +7481,46 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183394</v>
+        <v>6183395</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M80">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O80">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
         <v>1.9</v>
       </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X80">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>30</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.333</v>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>2.9</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
+        <v>1.95</v>
+      </c>
+      <c r="T85">
+        <v>2.25</v>
+      </c>
+      <c r="U85">
+        <v>2</v>
+      </c>
+      <c r="V85">
         <v>1.85</v>
       </c>
-      <c r="S85">
-        <v>2</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
-      </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183400</v>
+        <v>6183905</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M86">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8137,31 +8137,31 @@
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87">
+        <v>2.9</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
+        <v>2.3</v>
+      </c>
+      <c r="N87">
+        <v>2.45</v>
+      </c>
+      <c r="O87">
+        <v>3.2</v>
+      </c>
+      <c r="P87">
+        <v>2.7</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>41</v>
-      </c>
-      <c r="K87">
-        <v>2.375</v>
-      </c>
-      <c r="L87">
-        <v>3.1</v>
-      </c>
-      <c r="M87">
-        <v>2.9</v>
-      </c>
-      <c r="N87">
-        <v>2.15</v>
-      </c>
-      <c r="O87">
-        <v>3.4</v>
-      </c>
-      <c r="P87">
-        <v>3.1</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W87">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8282,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8451,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>2.55</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
         <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H95">
+        <v>3</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.75</v>
+      </c>
+      <c r="O95">
+        <v>3.6</v>
+      </c>
+      <c r="P95">
         <v>4</v>
-      </c>
-      <c r="M95">
-        <v>6.5</v>
-      </c>
-      <c r="N95">
-        <v>1.7</v>
-      </c>
-      <c r="O95">
-        <v>3.5</v>
-      </c>
-      <c r="P95">
-        <v>4.75</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8994,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>2.45</v>
@@ -9074,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>2.6</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9350,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>2.55</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
+        <v>3.2</v>
+      </c>
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="M102">
-        <v>5.75</v>
-      </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>43</v>
+      </c>
+      <c r="K103">
+        <v>1.5</v>
+      </c>
+      <c r="L103">
         <v>4</v>
       </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
-        <v>1.909</v>
-      </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
       <c r="M103">
+        <v>5.75</v>
+      </c>
+      <c r="N103">
+        <v>1.5</v>
+      </c>
+      <c r="O103">
         <v>4</v>
       </c>
-      <c r="N103">
-        <v>1.909</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.85</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.875</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.95</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9875,7 +9875,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.363</v>
@@ -9973,7 +9973,7 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>4.5</v>
@@ -10139,10 +10139,10 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L112">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="O112">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q112">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>1</v>
       </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
         <v>1.85</v>
       </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>30</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10762,7 +10762,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>3.4</v>
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10952,7 +10952,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K118">
         <v>3</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
         <v>2.5</v>
@@ -11207,7 +11207,7 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.7</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,10 +11385,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11397,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.55</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11566,7 +11566,7 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>3.75</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>3.5</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,49 +11830,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
         <v>2.025</v>
@@ -11881,25 +11881,25 @@
         <v>1.825</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X128">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>0.4875</v>
+      </c>
+      <c r="AA128">
         <v>-0.5</v>
       </c>
-      <c r="AA128">
-        <v>0.4625</v>
-      </c>
       <c r="AB128">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2.75</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183437</v>
+        <v>6183440</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,40 +12008,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>41</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="N130">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
         <v>3.6</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>1.975</v>
@@ -12050,34 +12050,34 @@
         <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z130">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183909</v>
+        <v>6183441</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,34 +12097,34 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>41</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
         <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>2.3</v>
-      </c>
-      <c r="N131">
-        <v>2.9</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
       </c>
       <c r="P131">
         <v>2.2</v>
@@ -12133,40 +12133,40 @@
         <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183441</v>
+        <v>6183909</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,34 +12186,34 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
+        <v>35</v>
+      </c>
+      <c r="G132" t="s">
         <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>33</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="L132">
+        <v>3.3</v>
+      </c>
+      <c r="M132">
+        <v>2.3</v>
+      </c>
+      <c r="N132">
+        <v>2.9</v>
+      </c>
+      <c r="O132">
         <v>3.4</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
       </c>
       <c r="P132">
         <v>2.2</v>
@@ -12222,40 +12222,40 @@
         <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183440</v>
+        <v>6183439</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,13 +12275,13 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -12290,58 +12290,58 @@
         <v>42</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12465,7 +12465,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183413</v>
+        <v>7183906</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,76 +12542,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136">
+        <v>3.75</v>
+      </c>
+      <c r="P136">
+        <v>3.3</v>
+      </c>
+      <c r="Q136">
+        <v>-0.25</v>
+      </c>
+      <c r="R136">
         <v>1.8</v>
       </c>
-      <c r="O136">
-        <v>3.6</v>
-      </c>
-      <c r="P136">
-        <v>3.8</v>
-      </c>
-      <c r="Q136">
-        <v>-0.5</v>
-      </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
       <c r="S136">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>0.8</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
+      <c r="AA136">
+        <v>-1</v>
+      </c>
+      <c r="AB136">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
-      <c r="AB136">
-        <v>-1</v>
-      </c>
       <c r="AC136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183902</v>
+        <v>7183413</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
+        <v>1.615</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>4.5</v>
+      </c>
+      <c r="N137">
+        <v>1.8</v>
+      </c>
+      <c r="O137">
+        <v>3.6</v>
+      </c>
+      <c r="P137">
+        <v>3.8</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
         <v>2.5</v>
       </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>2.75</v>
-      </c>
-      <c r="N137">
-        <v>2.5</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
-      <c r="S137">
-        <v>2.05</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183906</v>
+        <v>7183902</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,13 +12720,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
         <v>2</v>
@@ -12735,25 +12735,25 @@
         <v>41</v>
       </c>
       <c r="K138">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
         <v>1.8</v>
@@ -12762,7 +12762,7 @@
         <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
         <v>1.85</v>
@@ -12771,19 +12771,19 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
         <v>0.8500000000000001</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s">
         <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>33</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.727</v>
@@ -12910,7 +12910,7 @@
         <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K140">
         <v>2.625</v>
@@ -12990,7 +12990,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13088,7 +13088,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K142">
         <v>2.45</v>
@@ -13165,7 +13165,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K144">
         <v>2.875</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13355,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K145">
         <v>2.875</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>1.85</v>
@@ -13524,7 +13524,7 @@
         <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.8</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,40 +13610,40 @@
         <v>45198.5</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K148">
         <v>1.8</v>
       </c>
       <c r="L148">
+        <v>3.75</v>
+      </c>
+      <c r="M148">
+        <v>4.2</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
         <v>3.8</v>
       </c>
-      <c r="M148">
-        <v>4</v>
-      </c>
-      <c r="N148">
-        <v>1.95</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -13655,31 +13655,31 @@
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
         <v>1</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,16 +13699,16 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>43</v>
@@ -13717,22 +13717,22 @@
         <v>1.8</v>
       </c>
       <c r="L149">
+        <v>3.8</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>1.95</v>
+      </c>
+      <c r="O149">
         <v>3.75</v>
       </c>
-      <c r="M149">
-        <v>4.2</v>
-      </c>
-      <c r="N149">
-        <v>1.75</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
-      </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -13744,31 +13744,31 @@
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X149">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.95</v>
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.909</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K153">
         <v>2.3</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14233,7 +14233,7 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14322,7 +14322,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
         <v>34</v>
@@ -14334,7 +14334,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>2.875</v>
@@ -14411,7 +14411,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>1.833</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183930</v>
+        <v>7183928</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K158">
         <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O158">
         <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183928</v>
+        <v>7183929</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,55 +14589,55 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>5</v>
+      </c>
+      <c r="J159" t="s">
+        <v>41</v>
+      </c>
+      <c r="K159">
+        <v>2.75</v>
+      </c>
+      <c r="L159">
+        <v>3.2</v>
+      </c>
+      <c r="M159">
+        <v>2.4</v>
+      </c>
+      <c r="N159">
+        <v>2.5</v>
+      </c>
+      <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
+        <v>2.45</v>
+      </c>
+      <c r="Q159">
         <v>0</v>
       </c>
-      <c r="I159">
-        <v>2</v>
-      </c>
-      <c r="J159" t="s">
-        <v>42</v>
-      </c>
-      <c r="K159">
-        <v>2.15</v>
-      </c>
-      <c r="L159">
-        <v>3.4</v>
-      </c>
-      <c r="M159">
-        <v>3</v>
-      </c>
-      <c r="N159">
-        <v>2.25</v>
-      </c>
-      <c r="O159">
-        <v>3.6</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
-      <c r="Q159">
-        <v>-0.25</v>
-      </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14646,19 +14646,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183929</v>
+        <v>7183930</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
       </c>
       <c r="K160">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA160">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,10 +14767,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K161">
         <v>2.3</v>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14948,7 +14948,7 @@
         <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14957,7 +14957,7 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K163">
         <v>2</v>
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,73 +15034,73 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N164">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45224.5</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J165" t="s">
         <v>41</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
         <v>3.25</v>
       </c>
       <c r="M165">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N165">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>1.8</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K167">
         <v>2.4</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>2.15</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,7 +103,7 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>KuPS Kuopio</t>
+    <t>SJK</t>
   </si>
   <si>
     <t>KTP</t>
@@ -112,7 +112,7 @@
     <t>VPS Vaasa</t>
   </si>
   <si>
-    <t>SJK</t>
+    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>IFK Mariehamn</t>
@@ -139,13 +139,13 @@
     <t>FC Inter</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183330</v>
+        <v>6183898</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,70 +619,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>2.375</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>2.05</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183898</v>
+        <v>6183330</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,70 +886,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.8</v>
+      </c>
+      <c r="N5">
+        <v>1.909</v>
+      </c>
+      <c r="O5">
         <v>3.3</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.4</v>
-      </c>
-      <c r="O5">
-        <v>3.2</v>
-      </c>
       <c r="P5">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>2.375</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1242,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6183339</v>
+        <v>6183340</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45035.5</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
         <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
       </c>
       <c r="K14">
+        <v>1.4</v>
+      </c>
+      <c r="L14">
+        <v>4.2</v>
+      </c>
+      <c r="M14">
+        <v>6.5</v>
+      </c>
+      <c r="N14">
+        <v>1.45</v>
+      </c>
+      <c r="O14">
+        <v>4.2</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>-1.25</v>
+      </c>
+      <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
+        <v>1.75</v>
+      </c>
+      <c r="T14">
         <v>2.25</v>
       </c>
-      <c r="L14">
-        <v>3.1</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>2.15</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>3.4</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.875</v>
-      </c>
-      <c r="S14">
-        <v>1.975</v>
-      </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA14">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6183340</v>
+        <v>6183339</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45035.5</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183341</v>
+        <v>6183342</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183342</v>
+        <v>6183341</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>2.5</v>
+      </c>
+      <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>2.55</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>3.3</v>
+      </c>
+      <c r="P17">
+        <v>2.7</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>1.727</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>4.2</v>
-      </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>4.5</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X17">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>1.75</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
         <v>1.5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183347</v>
+        <v>6183348</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
         <v>1.825</v>
       </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z22">
+        <v>-1</v>
+      </c>
+      <c r="AA22">
         <v>0.825</v>
       </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183348</v>
+        <v>6183347</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>0</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
         <v>2.025</v>
       </c>
-      <c r="S23">
-        <v>1.825</v>
-      </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>3.25</v>
@@ -2666,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>3.75</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183355</v>
+        <v>6183352</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,10 +2752,10 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2764,46 +2764,46 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O26">
         <v>3.1</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2853,7 +2853,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183352</v>
+        <v>6183353</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,73 +2930,73 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>1.909</v>
+      </c>
+      <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
+        <v>3.4</v>
+      </c>
+      <c r="N28">
+        <v>1.666</v>
+      </c>
+      <c r="O28">
+        <v>3.5</v>
+      </c>
+      <c r="P28">
+        <v>4.333</v>
+      </c>
+      <c r="Q28">
+        <v>-0.75</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.85</v>
+      </c>
+      <c r="T28">
+        <v>2.5</v>
+      </c>
+      <c r="U28">
+        <v>1.975</v>
+      </c>
+      <c r="V28">
+        <v>1.875</v>
+      </c>
+      <c r="W28">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>1</v>
       </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28">
-        <v>2.2</v>
-      </c>
-      <c r="L28">
-        <v>3.25</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>2.2</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
-      </c>
-      <c r="P28">
-        <v>3.1</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.95</v>
-      </c>
-      <c r="S28">
-        <v>1.9</v>
-      </c>
-      <c r="T28">
-        <v>2.25</v>
-      </c>
-      <c r="U28">
-        <v>1.925</v>
-      </c>
-      <c r="V28">
-        <v>1.925</v>
-      </c>
-      <c r="W28">
-        <v>1.2</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.95</v>
-      </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>1.5</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183353</v>
+        <v>6183355</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,58 +3108,58 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
+        <v>3.1</v>
+      </c>
+      <c r="P30">
         <v>3.5</v>
       </c>
-      <c r="P30">
-        <v>4.333</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
+        <v>2.05</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
         <v>1.85</v>
       </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.975</v>
-      </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3168,13 +3168,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183901</v>
+        <v>6183357</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,10 +3286,10 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3298,43 +3298,43 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N32">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
@@ -3343,19 +3343,19 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
         <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183357</v>
+        <v>6183901</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,10 +3375,10 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3387,43 +3387,43 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L33">
+        <v>3.6</v>
+      </c>
+      <c r="M33">
+        <v>4.333</v>
+      </c>
+      <c r="N33">
+        <v>1.8</v>
+      </c>
+      <c r="O33">
         <v>3.4</v>
       </c>
-      <c r="M33">
-        <v>1.909</v>
-      </c>
-      <c r="N33">
-        <v>3.2</v>
-      </c>
-      <c r="O33">
-        <v>3.25</v>
-      </c>
       <c r="P33">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.15</v>
+        <v>3.5</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>4.75</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3731,7 +3731,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
         <v>1.85</v>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38">
         <v>2.05</v>
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>1.571</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41">
         <v>1.363</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4277,7 +4277,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>3.3</v>
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>1.65</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>1.833</v>
@@ -4535,7 +4535,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>3.6</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183370</v>
+        <v>6183373</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,16 +4621,16 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>41</v>
@@ -4645,52 +4645,52 @@
         <v>2.625</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="O47">
         <v>3.2</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S47">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V47">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.615</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183371</v>
+        <v>6183372</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
         <v>0</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
+        <v>2.4</v>
+      </c>
+      <c r="L49">
+        <v>3.4</v>
+      </c>
+      <c r="M49">
+        <v>2.7</v>
+      </c>
+      <c r="N49">
         <v>2.25</v>
       </c>
-      <c r="L49">
-        <v>3.3</v>
-      </c>
-      <c r="M49">
-        <v>2.9</v>
-      </c>
-      <c r="N49">
-        <v>2.3</v>
-      </c>
       <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
         <v>3.1</v>
-      </c>
-      <c r="P49">
-        <v>3</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6183373</v>
+        <v>6183371</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,34 +4888,34 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="N50">
         <v>2.3</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
         <v>3</v>
@@ -4924,40 +4924,40 @@
         <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC50">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183372</v>
+        <v>6183370</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,73 +4977,73 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N51">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S51">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W51">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB51">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>2.45</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6183671</v>
+        <v>6183377</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
+        <v>1.7</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>4.5</v>
+      </c>
+      <c r="N54">
+        <v>1.75</v>
+      </c>
+      <c r="O54">
+        <v>3.4</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>-0.75</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
         <v>1.8</v>
       </c>
-      <c r="L54">
-        <v>3.2</v>
-      </c>
-      <c r="M54">
-        <v>4.333</v>
-      </c>
-      <c r="N54">
-        <v>1.85</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>4.2</v>
-      </c>
-      <c r="Q54">
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
+        <v>1.825</v>
+      </c>
+      <c r="V54">
+        <v>2.025</v>
+      </c>
+      <c r="W54">
+        <v>0.75</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA54">
         <v>-0.5</v>
       </c>
-      <c r="R54">
-        <v>1.925</v>
-      </c>
-      <c r="S54">
-        <v>1.925</v>
-      </c>
-      <c r="T54">
-        <v>2.25</v>
-      </c>
-      <c r="U54">
-        <v>2.025</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.2</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
-      <c r="AA54">
-        <v>0.925</v>
-      </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6183377</v>
+        <v>6183671</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
+        <v>2.025</v>
+      </c>
+      <c r="V55">
         <v>1.825</v>
       </c>
-      <c r="V55">
-        <v>2.025</v>
-      </c>
       <c r="W55">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB55">
+        <v>-1</v>
+      </c>
+      <c r="AC55">
         <v>0.825</v>
-      </c>
-      <c r="AC55">
-        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183375</v>
+        <v>6183376</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L56">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,16 +5482,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183376</v>
+        <v>6183375</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P57">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183381</v>
+        <v>6183380</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,76 +5689,76 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>41</v>
       </c>
       <c r="K59">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L59">
         <v>3.8</v>
       </c>
       <c r="M59">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="N59">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
+        <v>0.5125</v>
+      </c>
+      <c r="AA59">
         <v>-0.5</v>
       </c>
-      <c r="AA59">
-        <v>0.4</v>
-      </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183380</v>
+        <v>6183381</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L60">
         <v>3.8</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N60">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O60">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z60">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.5</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>1.5</v>
@@ -6134,7 +6134,7 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.444</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>2.6</v>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183388</v>
+        <v>6183387</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,10 +6401,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6413,46 +6413,46 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L67">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N67">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W67">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6461,16 +6461,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183386</v>
+        <v>6183904</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,7 +6490,7 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6502,44 +6502,44 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L68">
         <v>3.3</v>
       </c>
       <c r="M68">
+        <v>1.909</v>
+      </c>
+      <c r="N68">
+        <v>3.3</v>
+      </c>
+      <c r="O68">
+        <v>3.1</v>
+      </c>
+      <c r="P68">
+        <v>2.1</v>
+      </c>
+      <c r="Q68">
+        <v>0.25</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
         <v>1.85</v>
-      </c>
-      <c r="N68">
-        <v>3.8</v>
-      </c>
-      <c r="O68">
-        <v>3.3</v>
-      </c>
-      <c r="P68">
-        <v>1.909</v>
-      </c>
-      <c r="Q68">
-        <v>0.5</v>
-      </c>
-      <c r="R68">
-        <v>1.85</v>
-      </c>
-      <c r="S68">
-        <v>2</v>
       </c>
       <c r="T68">
         <v>2.25</v>
       </c>
       <c r="U68">
+        <v>1.825</v>
+      </c>
+      <c r="V68">
         <v>2.025</v>
       </c>
-      <c r="V68">
-        <v>1.825</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6547,19 +6547,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
         <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6183387</v>
+        <v>6183386</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69">
+        <v>4</v>
+      </c>
+      <c r="L69">
+        <v>3.3</v>
+      </c>
+      <c r="M69">
+        <v>1.85</v>
+      </c>
+      <c r="N69">
+        <v>3.8</v>
+      </c>
+      <c r="O69">
+        <v>3.3</v>
+      </c>
+      <c r="P69">
+        <v>1.909</v>
+      </c>
+      <c r="Q69">
+        <v>0.5</v>
+      </c>
+      <c r="R69">
+        <v>1.85</v>
+      </c>
+      <c r="S69">
+        <v>2</v>
+      </c>
+      <c r="T69">
+        <v>2.25</v>
+      </c>
+      <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
+        <v>1.825</v>
+      </c>
+      <c r="W69">
+        <v>-1</v>
+      </c>
+      <c r="X69">
+        <v>-1</v>
+      </c>
+      <c r="Y69">
+        <v>0.909</v>
+      </c>
+      <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
         <v>1</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-      <c r="K69">
-        <v>1.333</v>
-      </c>
-      <c r="L69">
-        <v>5</v>
-      </c>
-      <c r="M69">
-        <v>7</v>
-      </c>
-      <c r="N69">
-        <v>1.333</v>
-      </c>
-      <c r="O69">
-        <v>5</v>
-      </c>
-      <c r="P69">
-        <v>7.5</v>
-      </c>
-      <c r="Q69">
-        <v>-1.5</v>
-      </c>
-      <c r="R69">
-        <v>2.025</v>
-      </c>
-      <c r="S69">
-        <v>1.825</v>
-      </c>
-      <c r="T69">
-        <v>2.75</v>
-      </c>
-      <c r="U69">
-        <v>1.825</v>
-      </c>
-      <c r="V69">
-        <v>2.025</v>
-      </c>
-      <c r="W69">
-        <v>0.333</v>
-      </c>
-      <c r="X69">
-        <v>-1</v>
-      </c>
-      <c r="Y69">
-        <v>-1</v>
-      </c>
-      <c r="Z69">
-        <v>-1</v>
-      </c>
-      <c r="AA69">
-        <v>0.825</v>
-      </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L70">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S70">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183389</v>
+        <v>6183393</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N71">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O71">
         <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
         <v>1.95</v>
-      </c>
-      <c r="S71">
-        <v>1.9</v>
       </c>
       <c r="T71">
         <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183390</v>
+        <v>6183672</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
         <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y72">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183392</v>
+        <v>6183391</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
+        <v>1.9</v>
+      </c>
+      <c r="V73">
         <v>1.95</v>
       </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183393</v>
+        <v>6183390</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183672</v>
+        <v>6183389</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,76 +7113,76 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L75">
+        <v>3.5</v>
+      </c>
+      <c r="M75">
+        <v>3.8</v>
+      </c>
+      <c r="N75">
+        <v>2.15</v>
+      </c>
+      <c r="O75">
         <v>3.4</v>
       </c>
-      <c r="M75">
+      <c r="P75">
+        <v>3.1</v>
+      </c>
+      <c r="Q75">
+        <v>-0.25</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>1.9</v>
+      </c>
+      <c r="T75">
+        <v>2.25</v>
+      </c>
+      <c r="U75">
         <v>1.8</v>
       </c>
-      <c r="N75">
-        <v>4</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>1.727</v>
-      </c>
-      <c r="Q75">
-        <v>0.75</v>
-      </c>
-      <c r="R75">
-        <v>1.825</v>
-      </c>
-      <c r="S75">
-        <v>2.025</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.9</v>
-      </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183391</v>
+        <v>6183392</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,76 +7202,76 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>41</v>
       </c>
       <c r="K76">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.95</v>
+      </c>
+      <c r="V76">
         <v>1.9</v>
       </c>
-      <c r="S76">
-        <v>1.95</v>
-      </c>
-      <c r="T76">
-        <v>2.5</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
+        <v>-1</v>
+      </c>
+      <c r="AC76">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC76">
-        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183394</v>
+        <v>6183396</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3.1</v>
+      </c>
+      <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>2.3</v>
+      </c>
+      <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
+        <v>2.75</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>1.775</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+      <c r="V78">
+        <v>1.85</v>
+      </c>
+      <c r="W78">
+        <v>1.3</v>
+      </c>
+      <c r="X78">
+        <v>-1</v>
+      </c>
+      <c r="Y78">
+        <v>-1</v>
+      </c>
+      <c r="Z78">
+        <v>1.1</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>42</v>
-      </c>
-      <c r="K78">
-        <v>2.625</v>
-      </c>
-      <c r="L78">
-        <v>3</v>
-      </c>
-      <c r="M78">
-        <v>2.5</v>
-      </c>
-      <c r="N78">
-        <v>2.625</v>
-      </c>
-      <c r="O78">
-        <v>3.2</v>
-      </c>
-      <c r="P78">
-        <v>2.5</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>1.975</v>
-      </c>
-      <c r="S78">
-        <v>1.875</v>
-      </c>
-      <c r="T78">
-        <v>2.25</v>
-      </c>
-      <c r="U78">
-        <v>1.9</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>-1</v>
-      </c>
-      <c r="X78">
-        <v>2.2</v>
-      </c>
-      <c r="Y78">
-        <v>-1</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>-0</v>
-      </c>
-      <c r="AB78">
-        <v>-0.5</v>
-      </c>
       <c r="AC78">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7481,46 +7481,46 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183395</v>
+        <v>6183394</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
+        <v>2.625</v>
+      </c>
+      <c r="L80">
         <v>3</v>
       </c>
-      <c r="L80">
-        <v>3.1</v>
-      </c>
       <c r="M80">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N80">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P80">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
+        <v>1.9</v>
+      </c>
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="V80">
-        <v>1.9</v>
-      </c>
       <c r="W80">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.333</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183402</v>
+        <v>6183401</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,19 +7914,19 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>2.9</v>
@@ -7938,31 +7938,31 @@
         <v>2.3</v>
       </c>
       <c r="N84">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
         <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.875</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7974,16 +7974,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183400</v>
+        <v>6183402</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
+        <v>2.025</v>
+      </c>
+      <c r="T85">
+        <v>2.5</v>
+      </c>
+      <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
+        <v>1.875</v>
+      </c>
+      <c r="W85">
+        <v>-1</v>
+      </c>
+      <c r="X85">
+        <v>2.2</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>0.4125</v>
+      </c>
+      <c r="AA85">
         <v>-0.5</v>
       </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>2</v>
-      </c>
-      <c r="V85">
-        <v>1.85</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>3.2</v>
-      </c>
-      <c r="Z85">
-        <v>-1</v>
-      </c>
-      <c r="AA85">
-        <v>0.95</v>
-      </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
       </c>
       <c r="K87">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
         <v>3.2</v>
       </c>
       <c r="P87">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
+        <v>1.9</v>
+      </c>
+      <c r="S87">
+        <v>1.95</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>2</v>
+      </c>
+      <c r="V87">
         <v>1.85</v>
       </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>1.975</v>
-      </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8371,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>2.55</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,76 +8804,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M94">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N94">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O94">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z94">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>1.727</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>41</v>
       </c>
       <c r="K96">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9261,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.6</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9350,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
         <v>2.55</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102">
+        <v>1.5</v>
+      </c>
+      <c r="L102">
         <v>4</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>1.909</v>
-      </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
+        <v>5.75</v>
+      </c>
+      <c r="N102">
+        <v>1.5</v>
+      </c>
+      <c r="O102">
         <v>4</v>
       </c>
-      <c r="N102">
-        <v>1.909</v>
-      </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
       <c r="P102">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.9</v>
+      </c>
+      <c r="V102">
         <v>1.95</v>
       </c>
-      <c r="S102">
-        <v>1.9</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
-      <c r="V102">
-        <v>2</v>
-      </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
+        <v>0.875</v>
+      </c>
+      <c r="AA102">
+        <v>-1</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.95</v>
-      </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
-      <c r="AB102">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
         <v>4</v>
       </c>
-      <c r="M103">
-        <v>5.75</v>
-      </c>
       <c r="N103">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
         <v>1.363</v>
@@ -9973,7 +9973,7 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
         <v>4.5</v>
@@ -10142,7 +10142,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
-      </c>
-      <c r="I112">
-        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
         <v>1.85</v>
       </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>3.6</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3.1</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.25</v>
+      </c>
+      <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.25</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113">
-        <v>2.1</v>
-      </c>
-      <c r="L113">
-        <v>3.25</v>
-      </c>
-      <c r="M113">
-        <v>3.25</v>
-      </c>
-      <c r="N113">
-        <v>1.95</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>2.025</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
-      <c r="W113">
-        <v>0.95</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>30</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>3.4</v>
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10952,7 +10952,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>3</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
         <v>29</v>
-      </c>
-      <c r="G119" t="s">
-        <v>32</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>2.5</v>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K121">
         <v>1.7</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,7 +11385,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -11397,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K123">
         <v>1.55</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11566,7 +11566,7 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>3.75</v>
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>3.5</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183437</v>
+        <v>6183909</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,46 +11830,46 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T128">
         <v>2.75</v>
@@ -11881,7 +11881,7 @@
         <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11890,16 +11890,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183438</v>
+        <v>6183441</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,73 +11919,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
         <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N129">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB129">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12020,7 +12020,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
         <v>3.6</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183441</v>
+        <v>6183438</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -12112,58 +12112,58 @@
         <v>41</v>
       </c>
       <c r="K131">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183909</v>
+        <v>6183437</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,46 +12186,46 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
         <v>1</v>
       </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.75</v>
@@ -12237,7 +12237,7 @@
         <v>1.825</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12287,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.05</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12465,7 +12465,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12554,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K136">
         <v>1.95</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,76 +12631,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>42</v>
+      </c>
+      <c r="K137">
+        <v>2.5</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>2.75</v>
+      </c>
+      <c r="N137">
+        <v>2.5</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>2.75</v>
+      </c>
+      <c r="Q137">
         <v>0</v>
       </c>
-      <c r="J137" t="s">
-        <v>43</v>
-      </c>
-      <c r="K137">
-        <v>1.615</v>
-      </c>
-      <c r="L137">
-        <v>4</v>
-      </c>
-      <c r="M137">
-        <v>4.5</v>
-      </c>
-      <c r="N137">
+      <c r="R137">
         <v>1.8</v>
       </c>
-      <c r="O137">
-        <v>3.6</v>
-      </c>
-      <c r="P137">
-        <v>3.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
+      <c r="S137">
+        <v>2.05</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.85</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.9</v>
-      </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>1.05</v>
+      </c>
+      <c r="AB137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
-      <c r="AB137">
-        <v>-1</v>
-      </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183902</v>
+        <v>7183413</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>41</v>
       </c>
       <c r="K138">
+        <v>1.615</v>
+      </c>
+      <c r="L138">
+        <v>4</v>
+      </c>
+      <c r="M138">
+        <v>4.5</v>
+      </c>
+      <c r="N138">
+        <v>1.8</v>
+      </c>
+      <c r="O138">
+        <v>3.6</v>
+      </c>
+      <c r="P138">
+        <v>3.8</v>
+      </c>
+      <c r="Q138">
+        <v>-0.5</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
-        <v>2.75</v>
-      </c>
-      <c r="N138">
-        <v>2.5</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.75</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>1.8</v>
-      </c>
-      <c r="S138">
-        <v>2.05</v>
-      </c>
-      <c r="T138">
-        <v>2.25</v>
-      </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.727</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7183919</v>
+        <v>7183920</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,73 +12898,73 @@
         <v>45191.5</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>41</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA140">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12999,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>1.909</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,73 +13076,73 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K142">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N142">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P142">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T142">
         <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K144">
         <v>2.875</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13355,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2.875</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45196.5</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>4.333</v>
+      </c>
+      <c r="N146">
+        <v>1.909</v>
+      </c>
+      <c r="O146">
         <v>3.5</v>
       </c>
-      <c r="M146">
-        <v>4.2</v>
-      </c>
-      <c r="N146">
-        <v>1.8</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
       <c r="P146">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,13 +13492,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45196.5</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
+        <v>1.85</v>
+      </c>
+      <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>4.2</v>
+      </c>
+      <c r="N147">
         <v>1.8</v>
       </c>
-      <c r="L147">
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>4.333</v>
       </c>
-      <c r="N147">
-        <v>1.909</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>4</v>
-      </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,13 +13581,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K150">
         <v>1.95</v>
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" t="s">
         <v>29</v>
-      </c>
-      <c r="G151" t="s">
-        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K152">
         <v>1.909</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K153">
         <v>2.3</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14334,7 +14334,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K156">
         <v>2.875</v>
@@ -14411,7 +14411,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14423,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K157">
         <v>1.833</v>
@@ -14512,7 +14512,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K158">
         <v>2.15</v>
@@ -14601,7 +14601,7 @@
         <v>5</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K159">
         <v>2.75</v>
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.15</v>
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7183918</v>
+        <v>7183916</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,55 +14767,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" t="s">
         <v>32</v>
       </c>
-      <c r="G161" t="s">
-        <v>31</v>
-      </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N161">
+        <v>2.2</v>
+      </c>
+      <c r="O161">
+        <v>3.3</v>
+      </c>
+      <c r="P161">
+        <v>3</v>
+      </c>
+      <c r="Q161">
+        <v>-0.25</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>1.875</v>
+      </c>
+      <c r="T161">
         <v>2.5</v>
       </c>
-      <c r="O161">
-        <v>3.6</v>
-      </c>
-      <c r="P161">
-        <v>2.4</v>
-      </c>
-      <c r="Q161">
-        <v>0</v>
-      </c>
-      <c r="R161">
-        <v>2.025</v>
-      </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
-      <c r="T161">
-        <v>3</v>
-      </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
         <v>-1</v>
@@ -14824,19 +14824,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7183916</v>
+        <v>7183918</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,56 +14945,56 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L163">
         <v>3.4</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
+        <v>2.4</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>2.025</v>
+      </c>
+      <c r="S163">
+        <v>1.825</v>
+      </c>
+      <c r="T163">
         <v>3</v>
       </c>
-      <c r="Q163">
-        <v>-0.25</v>
-      </c>
-      <c r="R163">
+      <c r="U163">
         <v>1.975</v>
       </c>
-      <c r="S163">
+      <c r="V163">
         <v>1.875</v>
       </c>
-      <c r="T163">
-        <v>2.5</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
         <v>-1</v>
       </c>
@@ -15002,19 +15002,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
+        <v>0.825</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.875</v>
-      </c>
-      <c r="AB163">
-        <v>0.95</v>
-      </c>
-      <c r="AC163">
-        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,73 +15034,73 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K164">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N164">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W164">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45224.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I165">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>41</v>
       </c>
       <c r="K165">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L165">
         <v>3.25</v>
       </c>
       <c r="M165">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N165">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O165">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K166">
         <v>1.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K167">
         <v>2.4</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K168">
         <v>2.15</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,19 +103,19 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>SJK</t>
+    <t>IFK Mariehamn</t>
+  </si>
+  <si>
+    <t>KuPS Kuopio</t>
+  </si>
+  <si>
+    <t>VPS Vaasa</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
-  </si>
-  <si>
-    <t>KuPS Kuopio</t>
-  </si>
-  <si>
-    <t>IFK Mariehamn</t>
+    <t>SJK</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -139,13 +139,13 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183898</v>
+        <v>6183331</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,10 +619,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -631,25 +631,25 @@
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N2">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O2">
         <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -661,31 +661,31 @@
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W2">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183333</v>
+        <v>6183330</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -720,40 +720,40 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>2.05</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183330</v>
+        <v>6183333</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -898,40 +898,40 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -940,19 +940,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183331</v>
+        <v>6183898</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,10 +975,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -987,25 +987,25 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
         <v>3.2</v>
       </c>
       <c r="P6">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1017,31 +1017,31 @@
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>1.7</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1239,10 +1239,10 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.8</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1595,7 +1595,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>1.4</v>
@@ -1773,7 +1773,7 @@
         <v>45035.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183342</v>
+        <v>6183341</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N16">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X16">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183341</v>
+        <v>6183342</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>1.75</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.5</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183348</v>
+        <v>6183346</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
+        <v>3.5</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.3</v>
       </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183347</v>
+        <v>6183348</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O23">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>2.025</v>
+      </c>
+      <c r="S23">
         <v>1.825</v>
       </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
+        <v>-1</v>
+      </c>
+      <c r="AA23">
         <v>0.825</v>
       </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183346</v>
+        <v>6183347</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,13 +2574,13 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2589,61 +2589,61 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N24">
+        <v>1.85</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
       </c>
-      <c r="O24">
-        <v>3.3</v>
-      </c>
       <c r="P24">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183352</v>
+        <v>6183353</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>1.909</v>
+      </c>
+      <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>3.4</v>
+      </c>
+      <c r="N26">
+        <v>1.666</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>4.333</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
+        <v>1.875</v>
+      </c>
+      <c r="W26">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26">
-        <v>2.2</v>
-      </c>
-      <c r="L26">
-        <v>3.25</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>2.2</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>3.1</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
-      <c r="S26">
-        <v>1.9</v>
-      </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.925</v>
-      </c>
-      <c r="W26">
-        <v>1.2</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.95</v>
-      </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183350</v>
+        <v>6183354</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,73 +2841,73 @@
         <v>45051.5</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183353</v>
+        <v>6183355</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O28">
+        <v>3.1</v>
+      </c>
+      <c r="P28">
         <v>3.5</v>
       </c>
-      <c r="P28">
-        <v>4.333</v>
-      </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
+        <v>2.05</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
         <v>1.85</v>
       </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.975</v>
-      </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>0.6659999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183354</v>
+        <v>6183352</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,58 +3019,58 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>2.2</v>
+      </c>
+      <c r="L29">
+        <v>3.25</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29">
-        <v>1.5</v>
-      </c>
-      <c r="L29">
-        <v>3.8</v>
-      </c>
-      <c r="M29">
-        <v>5.5</v>
-      </c>
       <c r="N29">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,13 +3079,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183355</v>
+        <v>6183350</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183357</v>
+        <v>6183356</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
+        <v>4.75</v>
+      </c>
+      <c r="L32">
         <v>3.8</v>
       </c>
-      <c r="L32">
-        <v>3.4</v>
-      </c>
       <c r="M32">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N32">
+        <v>5.75</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>1.533</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
+        <v>1.975</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>3.2</v>
       </c>
-      <c r="O32">
-        <v>3.25</v>
-      </c>
-      <c r="P32">
-        <v>2.15</v>
-      </c>
-      <c r="Q32">
-        <v>0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.925</v>
-      </c>
-      <c r="S32">
-        <v>1.925</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
       <c r="Y32">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183356</v>
+        <v>6183357</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
       <c r="H34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6183362</v>
+        <v>6183360</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,58 +3731,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,16 +3791,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6183361</v>
+        <v>6183362</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,46 +3820,46 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L38">
         <v>3.3</v>
       </c>
       <c r="M38">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O38">
         <v>3.3</v>
       </c>
       <c r="P38">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q38">
         <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>2.025</v>
-      </c>
-      <c r="S38">
-        <v>1.825</v>
       </c>
       <c r="T38">
         <v>2.25</v>
@@ -3871,7 +3871,7 @@
         <v>1.925</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3880,16 +3880,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.925</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6183360</v>
+        <v>6183361</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,58 +3909,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,13 +3969,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4010,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>2.45</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.363</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183366</v>
+        <v>6183367</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O43">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y43">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183367</v>
+        <v>6183366</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
+        <v>2.05</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
         <v>1.9</v>
       </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>3.5</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183368</v>
+        <v>6183365</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
         <v>3.8</v>
       </c>
-      <c r="O46">
-        <v>3.75</v>
-      </c>
-      <c r="P46">
-        <v>1.85</v>
-      </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,10 +4621,10 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.45</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6183369</v>
+        <v>6183371</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,55 +4710,55 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
       </c>
       <c r="K48">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P48">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4767,19 +4767,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.4</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6183371</v>
+        <v>6183369</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,55 +4888,55 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N50">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4945,19 +4945,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.45</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6183377</v>
+        <v>6183375</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,58 +5244,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M54">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q54">
         <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W54">
-        <v>0.75</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6183671</v>
+        <v>6183377</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
+        <v>1.7</v>
+      </c>
+      <c r="L55">
+        <v>3.5</v>
+      </c>
+      <c r="M55">
+        <v>4.5</v>
+      </c>
+      <c r="N55">
+        <v>1.75</v>
+      </c>
+      <c r="O55">
+        <v>3.4</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>-0.75</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
         <v>1.8</v>
       </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>4.333</v>
-      </c>
-      <c r="N55">
-        <v>1.85</v>
-      </c>
-      <c r="O55">
-        <v>3.2</v>
-      </c>
-      <c r="P55">
-        <v>4.2</v>
-      </c>
-      <c r="Q55">
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
+        <v>1.825</v>
+      </c>
+      <c r="V55">
+        <v>2.025</v>
+      </c>
+      <c r="W55">
+        <v>0.75</v>
+      </c>
+      <c r="X55">
+        <v>-1</v>
+      </c>
+      <c r="Y55">
+        <v>-1</v>
+      </c>
+      <c r="Z55">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA55">
         <v>-0.5</v>
       </c>
-      <c r="R55">
-        <v>1.925</v>
-      </c>
-      <c r="S55">
-        <v>1.925</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
-      <c r="U55">
-        <v>2.025</v>
-      </c>
-      <c r="V55">
-        <v>1.825</v>
-      </c>
-      <c r="W55">
-        <v>-1</v>
-      </c>
-      <c r="X55">
-        <v>2.2</v>
-      </c>
-      <c r="Y55">
-        <v>-1</v>
-      </c>
-      <c r="Z55">
-        <v>-1</v>
-      </c>
-      <c r="AA55">
-        <v>0.925</v>
-      </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183376</v>
+        <v>6183671</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,13 +5422,13 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5437,25 +5437,25 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
         <v>1.925</v>
@@ -5464,34 +5464,34 @@
         <v>1.925</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
         <v>0.925</v>
       </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
       <c r="AB56">
         <v>-1</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183375</v>
+        <v>6183376</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,55 +5514,55 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L57">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N57">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O57">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P57">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183380</v>
+        <v>6183379</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,58 +5689,58 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
         <v>32</v>
       </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
       <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>1.5</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N59">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="O59">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R59">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S59">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W59">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,73 +5778,73 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>2</v>
-      </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>5.5</v>
+      </c>
+      <c r="N60">
+        <v>1.5</v>
+      </c>
+      <c r="O60">
         <v>3.8</v>
       </c>
-      <c r="M60">
-        <v>1.533</v>
-      </c>
-      <c r="N60">
-        <v>5.25</v>
-      </c>
-      <c r="O60">
-        <v>3.5</v>
-      </c>
       <c r="P60">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183379</v>
+        <v>6183382</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,13 +5867,13 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -5882,46 +5882,46 @@
         <v>41</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
         <v>1.9</v>
       </c>
-      <c r="S61">
-        <v>1.95</v>
-      </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y61">
         <v>-1</v>
@@ -5933,10 +5933,10 @@
         <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183382</v>
+        <v>6183381</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183903</v>
+        <v>6183380</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,58 +6045,58 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>1.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
+        <v>1.825</v>
+      </c>
+      <c r="V63">
         <v>2.025</v>
       </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,16 +6105,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>1.025</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.444</v>
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
         <v>2.6</v>
@@ -6324,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183387</v>
+        <v>6183904</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N67">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q67">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6452,25 +6452,25 @@
         <v>2.025</v>
       </c>
       <c r="W67">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
         <v>0</v>
       </c>
-      <c r="I68">
-        <v>2</v>
-      </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N68">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P68">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T68">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V68">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183388</v>
+        <v>6183387</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,10 +6668,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6680,46 +6680,46 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M70">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N70">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R70">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183393</v>
+        <v>6183672</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,67 +6757,67 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
       </c>
       <c r="K71">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
+        <v>1.825</v>
+      </c>
+      <c r="S71">
+        <v>2.025</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
         <v>1.9</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6826,7 +6826,7 @@
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183672</v>
+        <v>6183392</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,40 +6846,40 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>43</v>
       </c>
       <c r="K72">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q72">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R72">
         <v>1.825</v>
@@ -6888,19 +6888,19 @@
         <v>2.025</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
+        <v>1.95</v>
+      </c>
+      <c r="V72">
         <v>1.9</v>
       </c>
-      <c r="V72">
-        <v>1.95</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X72">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
@@ -6915,7 +6915,7 @@
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>38</v>
@@ -7024,10 +7024,10 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183389</v>
+        <v>6183393</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,58 +7113,58 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L75">
         <v>3.5</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O75">
         <v>3.4</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
+        <v>1.9</v>
+      </c>
+      <c r="S75">
         <v>1.95</v>
-      </c>
-      <c r="S75">
-        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7173,16 +7173,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183392</v>
+        <v>6183389</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,58 +7202,58 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
+        <v>1.85</v>
+      </c>
+      <c r="L76">
+        <v>3.5</v>
+      </c>
+      <c r="M76">
+        <v>3.8</v>
+      </c>
+      <c r="N76">
         <v>2.15</v>
       </c>
-      <c r="L76">
-        <v>3.25</v>
-      </c>
-      <c r="M76">
+      <c r="O76">
+        <v>3.4</v>
+      </c>
+      <c r="P76">
         <v>3.1</v>
       </c>
-      <c r="N76">
-        <v>2.375</v>
-      </c>
-      <c r="O76">
-        <v>3.3</v>
-      </c>
-      <c r="P76">
-        <v>2.7</v>
-      </c>
       <c r="Q76">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S76">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7262,16 +7262,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7392,46 +7392,46 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>3.1</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
         <v>3.1</v>
       </c>
       <c r="P78">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,13 +7440,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7481,46 +7481,46 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7561,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
         <v>2.625</v>
@@ -7647,10 +7647,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7926,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>2.9</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183402</v>
+        <v>6183400</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M85">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>37</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.375</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183400</v>
+        <v>6183402</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,73 +8184,73 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O87">
         <v>3.2</v>
       </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q87">
+        <v>0.25</v>
+      </c>
+      <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>2.025</v>
+      </c>
+      <c r="T87">
+        <v>2.5</v>
+      </c>
+      <c r="U87">
+        <v>1.975</v>
+      </c>
+      <c r="V87">
+        <v>1.875</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
+        <v>2.2</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>0.4125</v>
+      </c>
+      <c r="AA87">
         <v>-0.5</v>
       </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.95</v>
-      </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>1.85</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>3.2</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>0.95</v>
-      </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8451,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>2.55</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8807,7 +8807,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q95">
         <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,16 +8953,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>4.333</v>
+      </c>
+      <c r="N96">
+        <v>1.75</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
         <v>4</v>
-      </c>
-      <c r="M96">
-        <v>6.5</v>
-      </c>
-      <c r="N96">
-        <v>1.7</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
-      <c r="P96">
-        <v>4.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,16 +9042,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.727</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9516,10 +9516,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
         <v>32</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.5</v>
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9694,7 +9694,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9875,7 +9875,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9884,7 +9884,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.363</v>
@@ -9961,7 +9961,7 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>4.5</v>
@@ -10142,7 +10142,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10151,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+      <c r="K112">
+        <v>3.6</v>
+      </c>
+      <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3.1</v>
+      </c>
+      <c r="O112">
+        <v>3.2</v>
+      </c>
+      <c r="P112">
+        <v>2.25</v>
+      </c>
+      <c r="Q112">
+        <v>0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>2.05</v>
+      </c>
+      <c r="V112">
+        <v>1.8</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.25</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112">
-        <v>2.1</v>
-      </c>
-      <c r="L112">
-        <v>3.25</v>
-      </c>
-      <c r="M112">
-        <v>3.25</v>
-      </c>
-      <c r="N112">
-        <v>1.95</v>
-      </c>
-      <c r="O112">
-        <v>3.5</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.85</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>2.025</v>
-      </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
-      <c r="W112">
-        <v>0.95</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
         <v>1.85</v>
       </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,10 +10584,10 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10762,7 +10762,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>2</v>
@@ -11118,7 +11118,7 @@
         <v>45159.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11210,7 +11210,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11219,7 +11219,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.7</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>1.666</v>
@@ -11385,10 +11385,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
         <v>29</v>
-      </c>
-      <c r="G123" t="s">
-        <v>33</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11397,7 +11397,7 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.55</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>1.8</v>
@@ -11566,7 +11566,7 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
         <v>3.75</v>
@@ -11833,7 +11833,7 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11842,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>2.8</v>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183441</v>
+        <v>6183440</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,10 +11919,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11934,40 +11934,40 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M129">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O129">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11976,16 +11976,16 @@
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183440</v>
+        <v>6183441</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,10 +12008,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12023,40 +12023,40 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
+        <v>1.909</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <v>3.3</v>
+      </c>
+      <c r="P130">
+        <v>2.2</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
         <v>1.85</v>
       </c>
-      <c r="N130">
-        <v>3.6</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
-      <c r="P130">
-        <v>1.85</v>
-      </c>
-      <c r="Q130">
-        <v>0.5</v>
-      </c>
-      <c r="R130">
-        <v>1.975</v>
-      </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -12065,16 +12065,16 @@
         <v>-1</v>
       </c>
       <c r="Y130">
+        <v>1.2</v>
+      </c>
+      <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>1</v>
+      </c>
+      <c r="AB130">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.875</v>
-      </c>
-      <c r="AB130">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183438</v>
+        <v>6183439</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -12112,58 +12112,58 @@
         <v>41</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
         <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
+        <v>2.025</v>
+      </c>
+      <c r="V131">
         <v>1.825</v>
       </c>
-      <c r="V131">
-        <v>2.025</v>
-      </c>
       <c r="W131">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183437</v>
+        <v>6183438</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,40 +12186,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
+        <v>2.3</v>
+      </c>
+      <c r="N132">
+        <v>2.7</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="N132">
-        <v>1.727</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12228,16 +12228,16 @@
         <v>1.875</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
         <v>2.025</v>
       </c>
-      <c r="V132">
-        <v>1.825</v>
-      </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,49 +12275,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
       </c>
       <c r="K133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
         <v>2.025</v>
@@ -12326,25 +12326,25 @@
         <v>1.825</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
+        <v>0.4875</v>
+      </c>
+      <c r="AA133">
         <v>-0.5</v>
       </c>
-      <c r="AA133">
-        <v>0.4625</v>
-      </c>
       <c r="AB133">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12367,7 +12367,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12376,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>2.1</v>
@@ -12465,7 +12465,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K135">
         <v>2</v>
@@ -12530,7 +12530,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12542,58 +12542,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12602,16 +12602,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,40 +12631,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" t="s">
         <v>29</v>
       </c>
-      <c r="G137" t="s">
-        <v>37</v>
-      </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
         <v>1.8</v>
@@ -12673,7 +12673,7 @@
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
         <v>1.85</v>
@@ -12682,19 +12682,19 @@
         <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>0.8500000000000001</v>
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,76 +12720,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>42</v>
+      </c>
+      <c r="K138">
+        <v>2.5</v>
+      </c>
+      <c r="L138">
+        <v>3.2</v>
+      </c>
+      <c r="M138">
+        <v>2.75</v>
+      </c>
+      <c r="N138">
+        <v>2.5</v>
+      </c>
+      <c r="O138">
+        <v>3.1</v>
+      </c>
+      <c r="P138">
+        <v>2.75</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>41</v>
-      </c>
-      <c r="K138">
-        <v>1.615</v>
-      </c>
-      <c r="L138">
-        <v>4</v>
-      </c>
-      <c r="M138">
-        <v>4.5</v>
-      </c>
-      <c r="N138">
+      <c r="R138">
         <v>1.8</v>
       </c>
-      <c r="O138">
-        <v>3.6</v>
-      </c>
-      <c r="P138">
-        <v>3.8</v>
-      </c>
-      <c r="Q138">
-        <v>-0.5</v>
-      </c>
-      <c r="R138">
+      <c r="S138">
+        <v>2.05</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
         <v>1.85</v>
       </c>
-      <c r="S138">
-        <v>2</v>
-      </c>
-      <c r="T138">
-        <v>2.5</v>
-      </c>
-      <c r="U138">
-        <v>1.9</v>
-      </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>1.05</v>
+      </c>
+      <c r="AB138">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12910,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>2.45</v>
@@ -13076,7 +13076,7 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>36</v>
@@ -13165,7 +13165,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13177,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>2.6</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45196.5</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
+        <v>1.85</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
+        <v>4.2</v>
+      </c>
+      <c r="N146">
         <v>1.8</v>
       </c>
-      <c r="L146">
+      <c r="O146">
         <v>3.6</v>
       </c>
-      <c r="M146">
+      <c r="P146">
         <v>4.333</v>
       </c>
-      <c r="N146">
-        <v>1.909</v>
-      </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>4</v>
-      </c>
       <c r="Q146">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R146">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S146">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V146">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,13 +13492,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45196.5</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K147">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
+        <v>3.6</v>
+      </c>
+      <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.909</v>
+      </c>
+      <c r="O147">
         <v>3.5</v>
       </c>
-      <c r="M147">
-        <v>4.2</v>
-      </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
       <c r="P147">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q147">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W147">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,13 +13581,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13702,7 +13702,7 @@
         <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13800,7 +13800,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.95</v>
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -13978,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.909</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14233,7 +14233,7 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,13 +14382,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K158">
         <v>2.15</v>
       </c>
       <c r="L158">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
+        <v>2.9</v>
+      </c>
+      <c r="N158">
         <v>3</v>
-      </c>
-      <c r="N158">
-        <v>2.25</v>
       </c>
       <c r="O158">
         <v>3.6</v>
       </c>
       <c r="P158">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA158">
+        <v>-0.5</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183930</v>
+        <v>7183928</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K160">
         <v>2.15</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z160">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7183916</v>
+        <v>7183918</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,13 +14767,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -14782,41 +14782,41 @@
         <v>42</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
         <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N161">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
+        <v>2.4</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>2.025</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
         <v>3</v>
       </c>
-      <c r="Q161">
-        <v>-0.25</v>
-      </c>
-      <c r="R161">
+      <c r="U161">
         <v>1.975</v>
       </c>
-      <c r="S161">
+      <c r="V161">
         <v>1.875</v>
       </c>
-      <c r="T161">
-        <v>2.5</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
@@ -14824,19 +14824,19 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
+        <v>0.825</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.875</v>
-      </c>
-      <c r="AB161">
-        <v>0.95</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7183918</v>
+        <v>7183916</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,13 +14945,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -14960,40 +14960,40 @@
         <v>42</v>
       </c>
       <c r="K163">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L163">
         <v>3.4</v>
       </c>
       <c r="M163">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N163">
+        <v>2.2</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
+        <v>3</v>
+      </c>
+      <c r="Q163">
+        <v>-0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.975</v>
+      </c>
+      <c r="S163">
+        <v>1.875</v>
+      </c>
+      <c r="T163">
         <v>2.5</v>
       </c>
-      <c r="O163">
-        <v>3.6</v>
-      </c>
-      <c r="P163">
-        <v>2.4</v>
-      </c>
-      <c r="Q163">
-        <v>0</v>
-      </c>
-      <c r="R163">
-        <v>2.025</v>
-      </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>3</v>
-      </c>
       <c r="U163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15002,19 +15002,19 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15034,7 +15034,7 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>38</v>
@@ -15135,7 +15135,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2</v>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>1.8</v>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>2.15</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,12 +103,6 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
-  </si>
-  <si>
-    <t>KuPS Kuopio</t>
-  </si>
-  <si>
     <t>VPS Vaasa</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>SJK</t>
+  </si>
+  <si>
+    <t>KuPS Kuopio</t>
+  </si>
+  <si>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183331</v>
+        <v>6183332</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,52 +619,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N2">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="O2">
         <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,16 +676,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-0.5</v>
+        <v>0.4875</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.5125</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183330</v>
+        <v>6183333</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -720,40 +720,40 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183332</v>
+        <v>6183898</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183333</v>
+        <v>6183330</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -898,40 +898,40 @@
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L5">
         <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -940,19 +940,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183898</v>
+        <v>6183331</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,37 +975,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O6">
         <v>3.2</v>
       </c>
       <c r="P6">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1017,31 +1017,31 @@
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1239,10 +1239,10 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1595,7 +1595,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>45035.5</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1862,10 +1862,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>39</v>
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183346</v>
+        <v>6183348</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
         <v>31</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P22">
+        <v>3.1</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.025</v>
+      </c>
+      <c r="S22">
+        <v>1.825</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.925</v>
+      </c>
+      <c r="V22">
+        <v>1.925</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
         <v>2.1</v>
       </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>2.05</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.875</v>
-      </c>
-      <c r="V22">
-        <v>1.975</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>2.3</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
       <c r="Z22">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183348</v>
+        <v>6183346</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
         <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N23">
+        <v>3.5</v>
+      </c>
+      <c r="O23">
+        <v>3.3</v>
+      </c>
+      <c r="P23">
+        <v>2.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>1.875</v>
+      </c>
+      <c r="V23">
+        <v>1.975</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>2.3</v>
       </c>
-      <c r="O23">
-        <v>3.1</v>
-      </c>
-      <c r="P23">
-        <v>3.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.25</v>
-      </c>
-      <c r="R23">
-        <v>2.025</v>
-      </c>
-      <c r="S23">
-        <v>1.825</v>
-      </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.925</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183353</v>
+        <v>6183350</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,40 +2752,40 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
+        <v>2.2</v>
+      </c>
+      <c r="L26">
+        <v>3.2</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
         <v>1.909</v>
       </c>
-      <c r="L26">
-        <v>3.4</v>
-      </c>
-      <c r="M26">
-        <v>3.4</v>
-      </c>
-      <c r="N26">
-        <v>1.666</v>
-      </c>
       <c r="O26">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2794,31 +2794,31 @@
         <v>1.85</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183355</v>
+        <v>6183353</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45051.5</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>1.05</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3019,7 +3019,7 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183350</v>
+        <v>6183355</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
+        <v>-1</v>
+      </c>
+      <c r="AB30">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB30">
-        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183356</v>
+        <v>6183357</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>32</v>
       </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183901</v>
+        <v>6183356</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>5.75</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y33">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183357</v>
+        <v>6183901</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3479,40 +3479,40 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>4.333</v>
+      </c>
+      <c r="N34">
+        <v>1.8</v>
+      </c>
+      <c r="O34">
         <v>3.4</v>
       </c>
-      <c r="M34">
-        <v>1.909</v>
-      </c>
-      <c r="N34">
-        <v>3.2</v>
-      </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
       <c r="P34">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.15</v>
+        <v>3.5</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.4625</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6183360</v>
+        <v>6183361</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3746,43 +3746,43 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L37">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N37">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O37">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P37">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,13 +3791,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6183362</v>
+        <v>6183360</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,58 +3820,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
         <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="K38">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L38">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0.8</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3880,16 +3880,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6183361</v>
+        <v>6183362</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,46 +3909,46 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q39">
         <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>2.025</v>
-      </c>
-      <c r="S39">
-        <v>1.825</v>
       </c>
       <c r="T39">
         <v>2.25</v>
@@ -3960,7 +3960,7 @@
         <v>1.925</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.925</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183367</v>
+        <v>6183368</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K43">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P43">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
+        <v>1.9</v>
+      </c>
+      <c r="V43">
         <v>1.95</v>
       </c>
-      <c r="V43">
-        <v>1.9</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183366</v>
+        <v>6183367</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L44">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N44">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y44">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183368</v>
+        <v>6183366</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="N45">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P45">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
+        <v>2.05</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>1.9</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183373</v>
+        <v>6183372</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,13 +4621,13 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4636,43 +4636,43 @@
         <v>43</v>
       </c>
       <c r="K47">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L47">
         <v>3.4</v>
       </c>
       <c r="M47">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N47">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4681,16 +4681,16 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>36</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183372</v>
+        <v>6183370</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6183369</v>
+        <v>6183373</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="O50">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V50">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183370</v>
+        <v>6183369</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,46 +4977,46 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P51">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
         <v>2.25</v>
@@ -5034,19 +5034,19 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.375</v>
+        <v>6</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5244,7 +5244,7 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6183377</v>
+        <v>6183376</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183671</v>
+        <v>6183377</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
+        <v>1.7</v>
+      </c>
+      <c r="L56">
+        <v>3.5</v>
+      </c>
+      <c r="M56">
+        <v>4.5</v>
+      </c>
+      <c r="N56">
+        <v>1.75</v>
+      </c>
+      <c r="O56">
+        <v>3.4</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>-0.75</v>
+      </c>
+      <c r="R56">
+        <v>2.05</v>
+      </c>
+      <c r="S56">
         <v>1.8</v>
       </c>
-      <c r="L56">
-        <v>3.2</v>
-      </c>
-      <c r="M56">
-        <v>4.333</v>
-      </c>
-      <c r="N56">
-        <v>1.85</v>
-      </c>
-      <c r="O56">
-        <v>3.2</v>
-      </c>
-      <c r="P56">
-        <v>4.2</v>
-      </c>
-      <c r="Q56">
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
+        <v>1.825</v>
+      </c>
+      <c r="V56">
+        <v>2.025</v>
+      </c>
+      <c r="W56">
+        <v>0.75</v>
+      </c>
+      <c r="X56">
+        <v>-1</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA56">
         <v>-0.5</v>
       </c>
-      <c r="R56">
-        <v>1.925</v>
-      </c>
-      <c r="S56">
-        <v>1.925</v>
-      </c>
-      <c r="T56">
-        <v>2.25</v>
-      </c>
-      <c r="U56">
-        <v>2.025</v>
-      </c>
-      <c r="V56">
-        <v>1.825</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
-      <c r="X56">
-        <v>2.2</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>-1</v>
-      </c>
-      <c r="AA56">
-        <v>0.925</v>
-      </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183376</v>
+        <v>6183671</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,40 +5511,40 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N57">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O57">
         <v>3.2</v>
       </c>
       <c r="P57">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
         <v>1.925</v>
@@ -5553,34 +5553,34 @@
         <v>1.925</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>0.925</v>
       </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6183379</v>
+        <v>6183380</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,16 +5689,16 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
@@ -5707,40 +5707,40 @@
         <v>1.5</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N59">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W59">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5749,16 +5749,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183903</v>
+        <v>6183379</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,10 +5778,10 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5802,34 +5802,34 @@
         <v>5.5</v>
       </c>
       <c r="N60">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O60">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
         <v>1.95</v>
       </c>
-      <c r="S60">
-        <v>1.9</v>
-      </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,10 +5844,10 @@
         <v>-0</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183382</v>
+        <v>6183381</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L61">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N61">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R61">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S61">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183381</v>
+        <v>6183382</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N62">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-0</v>
+      </c>
+      <c r="AB62">
         <v>-0.5</v>
       </c>
-      <c r="AA62">
-        <v>0.4</v>
-      </c>
-      <c r="AB62">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183380</v>
+        <v>6183903</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,16 +6045,16 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>43</v>
@@ -6063,40 +6063,40 @@
         <v>1.5</v>
       </c>
       <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>5.5</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
         <v>3.8</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>6</v>
       </c>
-      <c r="N63">
-        <v>1.75</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>4.5</v>
-      </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
         <v>2.025</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
-      </c>
       <c r="W63">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,16 +6105,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6238,19 +6238,19 @@
         <v>41</v>
       </c>
       <c r="K65">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
         <v>2.55</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,10 +6289,10 @@
         <v>-0</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,10 +6312,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6327,19 +6327,19 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O66">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
         <v>2.55</v>
@@ -6348,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6183904</v>
+        <v>6183387</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,49 +6401,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>2</v>
-      </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
         <v>1.825</v>
@@ -6452,25 +6452,25 @@
         <v>2.025</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6579,10 +6579,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6183387</v>
+        <v>6183904</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,49 +6668,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N70">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
         <v>1.825</v>
@@ -6719,25 +6719,25 @@
         <v>2.025</v>
       </c>
       <c r="W70">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183672</v>
+        <v>6183391</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,46 +6757,46 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
         <v>3.4</v>
       </c>
       <c r="M71">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="N71">
+        <v>1.85</v>
+      </c>
+      <c r="O71">
+        <v>3.5</v>
+      </c>
+      <c r="P71">
         <v>4</v>
       </c>
-      <c r="O71">
-        <v>3.6</v>
-      </c>
-      <c r="P71">
-        <v>1.727</v>
-      </c>
       <c r="Q71">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6811,22 +6811,22 @@
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183392</v>
+        <v>6183389</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,58 +6846,58 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>43</v>
       </c>
       <c r="K72">
+        <v>1.85</v>
+      </c>
+      <c r="L72">
+        <v>3.5</v>
+      </c>
+      <c r="M72">
+        <v>3.8</v>
+      </c>
+      <c r="N72">
         <v>2.15</v>
       </c>
-      <c r="L72">
-        <v>3.25</v>
-      </c>
-      <c r="M72">
+      <c r="O72">
+        <v>3.4</v>
+      </c>
+      <c r="P72">
         <v>3.1</v>
       </c>
-      <c r="N72">
-        <v>2.375</v>
-      </c>
-      <c r="O72">
-        <v>3.3</v>
-      </c>
-      <c r="P72">
-        <v>2.7</v>
-      </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183391</v>
+        <v>6183390</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,55 +6935,55 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
         <v>33</v>
       </c>
-      <c r="G73" t="s">
-        <v>38</v>
-      </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>42</v>
       </c>
       <c r="K73">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
+        <v>1.363</v>
+      </c>
+      <c r="O73">
+        <v>4.333</v>
+      </c>
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>-1.25</v>
+      </c>
+      <c r="R73">
         <v>1.85</v>
       </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>4</v>
-      </c>
-      <c r="Q73">
-        <v>-0.5</v>
-      </c>
-      <c r="R73">
-        <v>1.9</v>
-      </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -6992,19 +6992,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183390</v>
+        <v>6183393</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>29</v>
       </c>
       <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>0</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N74">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183393</v>
+        <v>6183672</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L75">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.9</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.95</v>
       </c>
-      <c r="T75">
-        <v>2.25</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
-      <c r="V75">
-        <v>1.925</v>
-      </c>
       <c r="W75">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183389</v>
+        <v>6183392</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,58 +7202,58 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H76">
         <v>2</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>43</v>
       </c>
       <c r="K76">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
+        <v>1.825</v>
+      </c>
+      <c r="S76">
+        <v>2.025</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
         <v>1.95</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.9</v>
       </c>
-      <c r="T76">
-        <v>2.25</v>
-      </c>
-      <c r="U76">
-        <v>1.8</v>
-      </c>
-      <c r="V76">
-        <v>2.05</v>
-      </c>
       <c r="W76">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7262,16 +7262,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7395,43 +7395,43 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L78">
         <v>3.1</v>
       </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O78">
         <v>3.1</v>
       </c>
       <c r="P78">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,13 +7440,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7484,43 +7484,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7561,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7647,10 +7647,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183401</v>
+        <v>6183905</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
+        <v>2.375</v>
+      </c>
+      <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
         <v>2.9</v>
       </c>
-      <c r="L84">
-        <v>3.2</v>
-      </c>
-      <c r="M84">
-        <v>2.3</v>
-      </c>
       <c r="N84">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X84">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183400</v>
+        <v>6183401</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N85">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183905</v>
+        <v>6183402</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183402</v>
+        <v>6183400</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,73 +8184,73 @@
         <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="O87">
         <v>3.2</v>
       </c>
       <c r="P87">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z87">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183411</v>
+        <v>6183409</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K94">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
+        <v>1.75</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>2.05</v>
+      </c>
+      <c r="S94">
+        <v>1.8</v>
+      </c>
+      <c r="T94">
         <v>2.75</v>
       </c>
-      <c r="O94">
-        <v>3.25</v>
-      </c>
-      <c r="P94">
-        <v>2.3</v>
-      </c>
-      <c r="Q94">
-        <v>0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.775</v>
-      </c>
-      <c r="S94">
-        <v>2.1</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
       <c r="U94">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N95">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,16 +9042,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,58 +9516,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L102">
+        <v>3.2</v>
+      </c>
+      <c r="M102">
         <v>4</v>
       </c>
-      <c r="M102">
-        <v>5.75</v>
-      </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W102">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9576,16 +9576,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,58 +9605,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M103">
+        <v>5.75</v>
+      </c>
+      <c r="N103">
+        <v>1.5</v>
+      </c>
+      <c r="O103">
         <v>4</v>
       </c>
-      <c r="N103">
-        <v>1.909</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
         <v>1.95</v>
       </c>
-      <c r="S103">
-        <v>1.9</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.85</v>
-      </c>
-      <c r="V103">
-        <v>2</v>
-      </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9665,16 +9665,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>0.875</v>
+      </c>
+      <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.95</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
-      <c r="AB103">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9875,7 +9875,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9961,7 +9961,7 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10139,10 +10139,10 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
         <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>3</v>
-      </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O112">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
         <v>1.85</v>
       </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+      <c r="K113">
+        <v>3.6</v>
+      </c>
+      <c r="L113">
+        <v>3.2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3.1</v>
+      </c>
+      <c r="O113">
+        <v>3.2</v>
+      </c>
+      <c r="P113">
+        <v>2.25</v>
+      </c>
+      <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.25</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>1</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113">
-        <v>2.1</v>
-      </c>
-      <c r="L113">
-        <v>3.25</v>
-      </c>
-      <c r="M113">
-        <v>3.25</v>
-      </c>
-      <c r="N113">
-        <v>1.95</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>3.5</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.85</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>2.025</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
-      <c r="W113">
-        <v>0.95</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>1</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10584,10 +10584,10 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10762,7 +10762,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>45159.5</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11207,10 +11207,10 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11385,10 +11385,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" t="s">
         <v>33</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11566,7 +11566,7 @@
         <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183909</v>
+        <v>6183438</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,58 +11830,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
         <v>2.3</v>
       </c>
       <c r="N128">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P128">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.825</v>
+      </c>
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="V128">
-        <v>1.825</v>
-      </c>
       <c r="W128">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11890,16 +11890,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183440</v>
+        <v>6183439</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,73 +11919,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" t="s">
         <v>32</v>
       </c>
-      <c r="G129" t="s">
-        <v>37</v>
-      </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12008,10 +12008,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
         <v>29</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183439</v>
+        <v>6183909</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,49 +12097,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L131">
+        <v>3.3</v>
+      </c>
+      <c r="M131">
+        <v>2.3</v>
+      </c>
+      <c r="N131">
+        <v>2.9</v>
+      </c>
+      <c r="O131">
         <v>3.4</v>
       </c>
-      <c r="M131">
-        <v>3.2</v>
-      </c>
-      <c r="N131">
-        <v>2.15</v>
-      </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
         <v>2.025</v>
@@ -12148,25 +12148,25 @@
         <v>1.825</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X131">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183438</v>
+        <v>6183440</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,40 +12186,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
         <v>1.975</v>
@@ -12228,31 +12228,31 @@
         <v>1.875</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,46 +12364,46 @@
         <v>45184.5</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K134">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N134">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O134">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T134">
         <v>2.5</v>
@@ -12415,19 +12415,19 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
         <v>1.05</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,46 +12453,46 @@
         <v>45184.5</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P135">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12504,19 +12504,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>1.05</v>
@@ -12634,7 +12634,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12720,7 +12720,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183907</v>
+        <v>7183919</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13002,41 +13002,41 @@
         <v>42</v>
       </c>
       <c r="K141">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L141">
+        <v>3.4</v>
+      </c>
+      <c r="M141">
+        <v>2.55</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
         <v>3.5</v>
       </c>
-      <c r="M141">
-        <v>3.9</v>
-      </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>3.3</v>
-      </c>
       <c r="P141">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
         <v>1.925</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.925</v>
       </c>
-      <c r="T141">
-        <v>2.25</v>
-      </c>
-      <c r="U141">
-        <v>1.875</v>
-      </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
         <v>-1</v>
       </c>
@@ -13044,16 +13044,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
+        <v>1.025</v>
+      </c>
+      <c r="AB141">
         <v>0.925</v>
-      </c>
-      <c r="AB141">
-        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,10 +13076,10 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13091,40 +13091,40 @@
         <v>42</v>
       </c>
       <c r="K142">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O142">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -13133,16 +13133,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13165,7 +13165,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,58 +13432,58 @@
         <v>45196.5</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
+        <v>3.6</v>
+      </c>
+      <c r="M146">
+        <v>4.333</v>
+      </c>
+      <c r="N146">
+        <v>1.909</v>
+      </c>
+      <c r="O146">
         <v>3.5</v>
       </c>
-      <c r="M146">
-        <v>4.2</v>
-      </c>
-      <c r="N146">
-        <v>1.8</v>
-      </c>
-      <c r="O146">
-        <v>3.6</v>
-      </c>
       <c r="P146">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q146">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W146">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13492,13 +13492,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,58 +13521,58 @@
         <v>45196.5</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>43</v>
       </c>
       <c r="K147">
+        <v>1.85</v>
+      </c>
+      <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>4.2</v>
+      </c>
+      <c r="N147">
         <v>1.8</v>
       </c>
-      <c r="L147">
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="M147">
+      <c r="P147">
         <v>4.333</v>
       </c>
-      <c r="N147">
-        <v>1.909</v>
-      </c>
-      <c r="O147">
-        <v>3.5</v>
-      </c>
-      <c r="P147">
-        <v>4</v>
-      </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
         <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13581,13 +13581,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13598,7 +13598,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13610,40 +13610,40 @@
         <v>45198.5</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
       </c>
       <c r="L148">
+        <v>3.8</v>
+      </c>
+      <c r="M148">
+        <v>4</v>
+      </c>
+      <c r="N148">
+        <v>1.95</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="M148">
-        <v>4.2</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.8</v>
-      </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q148">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -13655,31 +13655,31 @@
         <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X148">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13687,7 +13687,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13699,40 +13699,40 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>1.8</v>
       </c>
       <c r="L149">
+        <v>3.75</v>
+      </c>
+      <c r="M149">
+        <v>4.2</v>
+      </c>
+      <c r="N149">
+        <v>1.75</v>
+      </c>
+      <c r="O149">
         <v>3.8</v>
       </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>1.95</v>
-      </c>
-      <c r="O149">
-        <v>3.75</v>
-      </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -13744,31 +13744,31 @@
         <v>2.75</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>1</v>
-      </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>1.025</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14233,7 +14233,7 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>43</v>
       </c>
       <c r="K156">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N156">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O156">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,13 +14382,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,58 +14411,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>43</v>
       </c>
       <c r="K157">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L157">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M157">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N157">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O157">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45220.375</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L158">
+        <v>3.2</v>
+      </c>
+      <c r="M158">
+        <v>2.4</v>
+      </c>
+      <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
         <v>3.5</v>
       </c>
-      <c r="M158">
-        <v>2.9</v>
-      </c>
-      <c r="N158">
-        <v>3</v>
-      </c>
-      <c r="O158">
-        <v>3.6</v>
-      </c>
       <c r="P158">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q158">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z158">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,55 +14589,55 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>42</v>
       </c>
       <c r="K159">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14646,19 +14646,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K160">
         <v>2.15</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M160">
+        <v>2.9</v>
+      </c>
+      <c r="N160">
         <v>3</v>
-      </c>
-      <c r="N160">
-        <v>2.25</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
-      <c r="AC160">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,10 +14767,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,76 +14856,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>42</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>3.4</v>
+      </c>
+      <c r="M162">
+        <v>3.3</v>
+      </c>
+      <c r="N162">
+        <v>2.2</v>
+      </c>
+      <c r="O162">
+        <v>3.3</v>
+      </c>
+      <c r="P162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162" t="s">
-        <v>43</v>
-      </c>
-      <c r="K162">
-        <v>2</v>
-      </c>
-      <c r="L162">
-        <v>3.5</v>
-      </c>
-      <c r="M162">
-        <v>3.2</v>
-      </c>
-      <c r="N162">
-        <v>1.6</v>
-      </c>
-      <c r="O162">
-        <v>4</v>
-      </c>
-      <c r="P162">
-        <v>4.5</v>
-      </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB162">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>2</v>
       </c>
       <c r="L163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M163">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
+        <v>1.8</v>
+      </c>
+      <c r="S163">
+        <v>2.05</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
+        <v>1.875</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.875</v>
-      </c>
-      <c r="T163">
-        <v>2.5</v>
-      </c>
-      <c r="U163">
-        <v>1.95</v>
-      </c>
-      <c r="V163">
-        <v>1.9</v>
-      </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15022,7 +15022,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,73 +15034,73 @@
         <v>45224.5</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H164">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L164">
         <v>3.25</v>
       </c>
       <c r="M164">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N164">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T164">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15111,7 +15111,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15123,73 +15123,73 @@
         <v>45224.5</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L165">
         <v>3.25</v>
       </c>
       <c r="M165">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N165">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P165">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W165">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,6 +103,9 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
+    <t>KuPS Kuopio</t>
+  </si>
+  <si>
     <t>VPS Vaasa</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>SJK</t>
-  </si>
-  <si>
-    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>IFK Mariehamn</t>
@@ -139,10 +139,10 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183332</v>
+        <v>6183330</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183333</v>
+        <v>6183332</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>3.25</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183898</v>
+        <v>6183333</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M4">
+        <v>2.625</v>
+      </c>
+      <c r="N4">
+        <v>2.55</v>
+      </c>
+      <c r="O4">
         <v>3.1</v>
       </c>
-      <c r="N4">
-        <v>2.4</v>
-      </c>
-      <c r="O4">
-        <v>3.2</v>
-      </c>
       <c r="P4">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183330</v>
+        <v>6183898</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,70 +886,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>2.375</v>
@@ -1162,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2.3</v>
@@ -1239,10 +1239,10 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1420,7 +1420,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>45035.5</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183341</v>
+        <v>6183342</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M16">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
         <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183342</v>
+        <v>6183341</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,73 +1954,73 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>2.5</v>
+      </c>
+      <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>2.55</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>3.3</v>
+      </c>
+      <c r="P17">
+        <v>2.7</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>1.727</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>4.2</v>
-      </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>4.5</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X17">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2399,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.25</v>
@@ -2485,7 +2485,7 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>37</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>3.25</v>
@@ -2577,7 +2577,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
         <v>3.75</v>
@@ -2764,7 +2764,7 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>2.2</v>
@@ -2933,7 +2933,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3019,7 +3019,7 @@
         <v>45051.5</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
         <v>40</v>
@@ -3108,7 +3108,7 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183357</v>
+        <v>6183356</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
+        <v>4.75</v>
+      </c>
+      <c r="L32">
         <v>3.8</v>
       </c>
-      <c r="L32">
-        <v>3.4</v>
-      </c>
       <c r="M32">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N32">
+        <v>5.75</v>
+      </c>
+      <c r="O32">
+        <v>4.2</v>
+      </c>
+      <c r="P32">
+        <v>1.533</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>1.9</v>
+      </c>
+      <c r="S32">
+        <v>1.95</v>
+      </c>
+      <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
+        <v>1.975</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>3.2</v>
       </c>
-      <c r="O32">
-        <v>3.25</v>
-      </c>
-      <c r="P32">
-        <v>2.15</v>
-      </c>
-      <c r="Q32">
-        <v>0.25</v>
-      </c>
-      <c r="R32">
-        <v>1.925</v>
-      </c>
-      <c r="S32">
-        <v>1.925</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
       <c r="Y32">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183356</v>
+        <v>6183901</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>41</v>
       </c>
       <c r="K33">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N33">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
+        <v>-0.5</v>
+      </c>
+      <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>1.85</v>
+      </c>
+      <c r="W33">
+        <v>-1</v>
+      </c>
+      <c r="X33">
+        <v>-1</v>
+      </c>
+      <c r="Y33">
+        <v>3.5</v>
+      </c>
+      <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>1</v>
       </c>
-      <c r="R33">
-        <v>1.9</v>
-      </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>1.875</v>
-      </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
-      <c r="W33">
-        <v>-1</v>
-      </c>
-      <c r="X33">
-        <v>3.2</v>
-      </c>
-      <c r="Y33">
-        <v>-1</v>
-      </c>
-      <c r="Z33">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183901</v>
+        <v>6183357</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,10 +3464,10 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3476,43 +3476,43 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T34">
         <v>2.25</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3521,19 +3521,19 @@
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB34">
         <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3734,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3909,7 +3909,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183368</v>
+        <v>6183365</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,13 +4265,13 @@
         <v>45068.5</v>
       </c>
       <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" t="s">
         <v>30</v>
       </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -4280,61 +4280,61 @@
         <v>42</v>
       </c>
       <c r="K43">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>3.3</v>
+      </c>
+      <c r="P43">
         <v>3.8</v>
       </c>
-      <c r="O43">
-        <v>3.75</v>
-      </c>
-      <c r="P43">
-        <v>1.85</v>
-      </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
         <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.65</v>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
         <v>3.3</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6183365</v>
+        <v>6183368</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,13 +4532,13 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4547,61 +4547,61 @@
         <v>41</v>
       </c>
       <c r="K46">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183372</v>
+        <v>6183371</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47">
+        <v>2.25</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>2.9</v>
+      </c>
+      <c r="N47">
+        <v>2.3</v>
+      </c>
+      <c r="O47">
+        <v>3.1</v>
+      </c>
+      <c r="P47">
         <v>3</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47">
-        <v>2.4</v>
-      </c>
-      <c r="L47">
-        <v>3.4</v>
-      </c>
-      <c r="M47">
-        <v>2.7</v>
-      </c>
-      <c r="N47">
-        <v>2.25</v>
-      </c>
-      <c r="O47">
-        <v>3.25</v>
-      </c>
-      <c r="P47">
-        <v>3.1</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z47">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB47">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6183371</v>
+        <v>6183370</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4710,55 +4710,55 @@
         <v>45072.5</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="N48">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="O48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4767,19 +4767,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>2</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183370</v>
+        <v>6183372</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4888,10 +4888,10 @@
         <v>45072.5</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4980,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>1.615</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5244,7 +5244,7 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>35</v>
@@ -5333,10 +5333,10 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5514,7 +5514,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>1.8</v>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5689,7 +5689,7 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5781,7 +5781,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,73 +5867,73 @@
         <v>45084.5</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>2</v>
-      </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>5.5</v>
+      </c>
+      <c r="N61">
+        <v>1.5</v>
+      </c>
+      <c r="O61">
         <v>3.8</v>
       </c>
-      <c r="M61">
-        <v>1.533</v>
-      </c>
-      <c r="N61">
-        <v>5.25</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
       <c r="P61">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q61">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB61">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC61">
         <v>-1</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183382</v>
+        <v>6183381</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N62">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R62">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183903</v>
+        <v>6183382</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,40 +6045,40 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>1.95</v>
@@ -6087,19 +6087,19 @@
         <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>-0</v>
       </c>
       <c r="AB63">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45085.51041666666</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6235,22 +6235,22 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N65">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
         <v>2.55</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V65">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,10 +6289,10 @@
         <v>-0</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,10 +6312,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6324,22 +6324,22 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N66">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O66">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P66">
         <v>2.55</v>
@@ -6348,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>32</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>4</v>
@@ -6671,7 +6671,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6680,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>3.75</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6183391</v>
+        <v>6183393</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,34 +6757,34 @@
         <v>45104.5</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K71">
+        <v>1.65</v>
+      </c>
+      <c r="L71">
+        <v>3.5</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
         <v>1.833</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>3.4</v>
-      </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
-      <c r="N71">
-        <v>1.85</v>
-      </c>
-      <c r="O71">
-        <v>3.5</v>
       </c>
       <c r="P71">
         <v>4</v>
@@ -6799,34 +6799,34 @@
         <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183389</v>
+        <v>6183390</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
+        <v>1.45</v>
+      </c>
+      <c r="L72">
+        <v>4.2</v>
+      </c>
+      <c r="M72">
+        <v>6.5</v>
+      </c>
+      <c r="N72">
+        <v>1.363</v>
+      </c>
+      <c r="O72">
+        <v>4.333</v>
+      </c>
+      <c r="P72">
+        <v>9</v>
+      </c>
+      <c r="Q72">
+        <v>-1.25</v>
+      </c>
+      <c r="R72">
         <v>1.85</v>
       </c>
-      <c r="L72">
-        <v>3.5</v>
-      </c>
-      <c r="M72">
-        <v>3.8</v>
-      </c>
-      <c r="N72">
-        <v>2.15</v>
-      </c>
-      <c r="O72">
-        <v>3.4</v>
-      </c>
-      <c r="P72">
-        <v>3.1</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183390</v>
+        <v>6183389</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="L73">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N73">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183393</v>
+        <v>6183391</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,34 +7024,34 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>1.85</v>
+      </c>
+      <c r="O74">
         <v>3.5</v>
-      </c>
-      <c r="M74">
-        <v>5</v>
-      </c>
-      <c r="N74">
-        <v>1.833</v>
-      </c>
-      <c r="O74">
-        <v>3.4</v>
       </c>
       <c r="P74">
         <v>4</v>
@@ -7066,34 +7066,34 @@
         <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
+        <v>0.95</v>
+      </c>
+      <c r="AB74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
         <v>4.2</v>
@@ -7202,7 +7202,7 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7395,43 +7395,43 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>3.1</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
         <v>3.1</v>
       </c>
       <c r="P78">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,13 +7440,13 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7484,43 +7484,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7561,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2.625</v>
@@ -7650,7 +7650,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.333</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,76 +7914,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K84">
+        <v>2.9</v>
+      </c>
+      <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.3</v>
+      </c>
+      <c r="N84">
+        <v>2.45</v>
+      </c>
+      <c r="O84">
+        <v>3.2</v>
+      </c>
+      <c r="P84">
+        <v>2.7</v>
+      </c>
+      <c r="Q84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>43</v>
-      </c>
-      <c r="K84">
-        <v>2.375</v>
-      </c>
-      <c r="L84">
-        <v>3.1</v>
-      </c>
-      <c r="M84">
-        <v>2.9</v>
-      </c>
-      <c r="N84">
-        <v>2.15</v>
-      </c>
-      <c r="O84">
-        <v>3.4</v>
-      </c>
-      <c r="P84">
-        <v>3.1</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183401</v>
+        <v>6183402</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,19 +8003,19 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K85">
         <v>2.9</v>
@@ -8027,31 +8027,31 @@
         <v>2.3</v>
       </c>
       <c r="N85">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q85">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.975</v>
+      </c>
+      <c r="V85">
         <v>1.875</v>
-      </c>
-      <c r="V85">
-        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>0.875</v>
-      </c>
-      <c r="AC85">
-        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
+        <v>2.375</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
         <v>2.9</v>
       </c>
-      <c r="L86">
-        <v>3.2</v>
-      </c>
-      <c r="M86">
-        <v>2.3</v>
-      </c>
       <c r="N86">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O86">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X86">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,10 +8181,10 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>1.5</v>
@@ -8282,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8896,7 +8896,7 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>2.45</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>2.6</v>
@@ -9338,7 +9338,7 @@
         <v>45136.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>34</v>
@@ -9350,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>2.55</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9605,10 +9605,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9706,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9961,7 +9961,7 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -9973,7 +9973,7 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -10139,10 +10139,10 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10498,7 +10498,7 @@
         <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>3.6</v>
@@ -10584,10 +10584,10 @@
         <v>45153.5</v>
       </c>
       <c r="F114" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
         <v>31</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>3.4</v>
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10952,7 +10952,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K118">
         <v>3</v>
@@ -11029,10 +11029,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s">
         <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>45159.5</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K120">
         <v>2.5</v>
@@ -11207,10 +11207,10 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11385,7 +11385,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
         <v>33</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L124">
+        <v>3.3</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
         <v>3.4</v>
       </c>
-      <c r="M124">
-        <v>4.2</v>
-      </c>
-      <c r="N124">
-        <v>1.909</v>
-      </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
+        <v>1.9</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.5</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5125</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.95</v>
-      </c>
-      <c r="S124">
-        <v>1.9</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.875</v>
-      </c>
-      <c r="V124">
-        <v>1.975</v>
-      </c>
-      <c r="W124">
-        <v>0.909</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
+      <c r="AB124">
         <v>0.95</v>
       </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>-0.5</v>
-      </c>
       <c r="AC124">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K125">
+        <v>1.8</v>
+      </c>
+      <c r="L125">
+        <v>3.4</v>
+      </c>
+      <c r="M125">
+        <v>4.2</v>
+      </c>
+      <c r="N125">
+        <v>1.909</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>3.75</v>
       </c>
-      <c r="L125">
-        <v>3.3</v>
-      </c>
-      <c r="M125">
-        <v>2</v>
-      </c>
-      <c r="N125">
-        <v>3.4</v>
-      </c>
-      <c r="O125">
-        <v>3.5</v>
-      </c>
-      <c r="P125">
-        <v>2.05</v>
-      </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X125">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>0.95</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K126">
         <v>3.5</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183438</v>
+        <v>6183437</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,40 +11830,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
       </c>
       <c r="K128">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N128">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
         <v>1.975</v>
@@ -11872,16 +11872,16 @@
         <v>1.875</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
+        <v>2.025</v>
+      </c>
+      <c r="V128">
         <v>1.825</v>
       </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
-        <v>1.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11890,16 +11890,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AC128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6183439</v>
+        <v>6183438</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,73 +11919,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L129">
         <v>3.4</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N129">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O129">
         <v>3.25</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.825</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="V129">
-        <v>1.825</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X129">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183441</v>
+        <v>6183439</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
         <v>29</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -12023,58 +12023,58 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
         <v>3.4</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y130">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6183909</v>
+        <v>6183441</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,34 +12097,34 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>1.909</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
         <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>2.3</v>
-      </c>
-      <c r="N131">
-        <v>2.9</v>
-      </c>
-      <c r="O131">
-        <v>3.4</v>
       </c>
       <c r="P131">
         <v>2.2</v>
@@ -12133,40 +12133,40 @@
         <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183440</v>
+        <v>6183909</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
+        <v>2.025</v>
+      </c>
+      <c r="V132">
+        <v>1.825</v>
+      </c>
+      <c r="W132">
         <v>1.9</v>
       </c>
-      <c r="V132">
-        <v>1.95</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183437</v>
+        <v>6183440</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,40 +12275,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O133">
         <v>3.6</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
         <v>1.975</v>
@@ -12317,34 +12317,34 @@
         <v>1.875</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z133">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB133">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>2</v>
@@ -12456,7 +12456,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12732,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K139">
         <v>1.727</v>
@@ -12987,7 +12987,7 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
         <v>36</v>
@@ -12999,7 +12999,7 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K141">
         <v>2.625</v>
@@ -13079,7 +13079,7 @@
         <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13088,7 +13088,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K142">
         <v>1.909</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K144">
         <v>2.875</v>
@@ -13343,7 +13343,7 @@
         <v>45193.47916666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>34</v>
@@ -13355,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K145">
         <v>2.875</v>
@@ -13613,7 +13613,7 @@
         <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13699,7 +13699,7 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13877,10 +13877,10 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s">
         <v>32</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -14058,7 +14058,7 @@
         <v>40</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K153">
         <v>2.3</v>
@@ -14147,7 +14147,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14322,7 +14322,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
         <v>34</v>
@@ -14411,7 +14411,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
         <v>37</v>
@@ -14512,7 +14512,7 @@
         <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K158">
         <v>2.75</v>
@@ -14589,7 +14589,7 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>33</v>
@@ -14601,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K159">
         <v>2.15</v>
@@ -14690,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K160">
         <v>2.15</v>
@@ -14767,10 +14767,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K161">
         <v>2.3</v>
@@ -14859,7 +14859,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>45224.5</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>38</v>
@@ -15135,7 +15135,7 @@
         <v>7</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K165">
         <v>2.5</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K167">
         <v>2.4</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -103,19 +103,19 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>KuPS Kuopio</t>
-  </si>
-  <si>
     <t>VPS Vaasa</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
+    <t>IFK Mariehamn</t>
+  </si>
+  <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>HJK Helsinki</t>
@@ -139,10 +139,10 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6183330</v>
+        <v>6183332</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L2">
         <v>3.4</v>
       </c>
       <c r="M2">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N2">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O2">
+        <v>3.2</v>
+      </c>
+      <c r="P2">
         <v>3.3</v>
       </c>
-      <c r="P2">
-        <v>3.8</v>
-      </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y2">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183332</v>
+        <v>6183333</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>0.95</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.4875</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183333</v>
+        <v>6183331</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,13 +797,13 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -818,52 +818,52 @@
         <v>2.625</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
         <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>0.4625</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183331</v>
+        <v>6183330</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L6">
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P6">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z6">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183335</v>
+        <v>6183334</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>45030.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N8">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183334</v>
+        <v>6183335</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,76 +1239,76 @@
         <v>45030.5</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,7 +1506,7 @@
         <v>45031.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1595,7 +1595,7 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>39</v>
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1773,7 +1773,7 @@
         <v>45035.5</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>2.25</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>1.727</v>
@@ -1951,10 +1951,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2040,7 +2040,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>1.444</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>2.7</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183348</v>
+        <v>6183346</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="L22">
         <v>3.3</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N22">
+        <v>3.5</v>
+      </c>
+      <c r="O22">
+        <v>3.3</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
+        <v>1.975</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.3</v>
       </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.825</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183346</v>
+        <v>6183347</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="N23">
+        <v>1.85</v>
+      </c>
+      <c r="O23">
         <v>3.5</v>
       </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
       <c r="P23">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183347</v>
+        <v>6183348</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>2.025</v>
+      </c>
+      <c r="S24">
         <v>1.825</v>
       </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.825</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,10 +2663,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
         <v>3.75</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6183350</v>
+        <v>6183355</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45051.5</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB26">
-        <v>0.925</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2933,7 +2933,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6183355</v>
+        <v>6183350</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,73 +3108,73 @@
         <v>45051.5</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3197,7 +3197,7 @@
         <v>45051.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6183356</v>
+        <v>6183901</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45055.5</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="N32">
-        <v>5.75</v>
+        <v>1.8</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>1.533</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
+        <v>-0.5</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2.25</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.85</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>3.5</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>1</v>
       </c>
-      <c r="R32">
-        <v>1.9</v>
-      </c>
-      <c r="S32">
-        <v>1.95</v>
-      </c>
-      <c r="T32">
-        <v>2.5</v>
-      </c>
-      <c r="U32">
-        <v>1.875</v>
-      </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>3.2</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183901</v>
+        <v>6183357</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,10 +3375,10 @@
         <v>45055.5</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3387,43 +3387,43 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.25</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3432,19 +3432,19 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3.5</v>
+        <v>1.15</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
         <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>0.425</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183357</v>
+        <v>6183356</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45055.5</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>41</v>
       </c>
       <c r="K34">
+        <v>4.75</v>
+      </c>
+      <c r="L34">
         <v>3.8</v>
       </c>
-      <c r="L34">
-        <v>3.4</v>
-      </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N34">
+        <v>5.75</v>
+      </c>
+      <c r="O34">
+        <v>4.2</v>
+      </c>
+      <c r="P34">
+        <v>1.533</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.875</v>
+      </c>
+      <c r="V34">
+        <v>1.975</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
         <v>3.2</v>
       </c>
-      <c r="O34">
-        <v>3.25</v>
-      </c>
-      <c r="P34">
-        <v>2.15</v>
-      </c>
-      <c r="Q34">
-        <v>0.25</v>
-      </c>
-      <c r="R34">
-        <v>1.925</v>
-      </c>
-      <c r="S34">
-        <v>1.925</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.925</v>
-      </c>
-      <c r="V34">
-        <v>1.925</v>
-      </c>
-      <c r="W34">
-        <v>-1</v>
-      </c>
-      <c r="X34">
-        <v>-1</v>
-      </c>
       <c r="Y34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>2.05</v>
@@ -3645,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>2.25</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6183361</v>
+        <v>6183360</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3746,43 +3746,43 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M37">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P37">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3791,13 +3791,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6183360</v>
+        <v>6183362</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,58 +3820,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>43</v>
       </c>
       <c r="K38">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L38">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3880,16 +3880,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6183362</v>
+        <v>6183361</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,46 +3909,46 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O39">
         <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q39">
         <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>2.025</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
-      </c>
-      <c r="S39">
-        <v>2.025</v>
       </c>
       <c r="T39">
         <v>2.25</v>
@@ -3960,7 +3960,7 @@
         <v>1.925</v>
       </c>
       <c r="W39">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3969,16 +3969,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4087,7 +4087,7 @@
         <v>45066.33333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>39</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4268,7 +4268,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183367</v>
+        <v>6183366</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45068.5</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M44">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="N44">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V44">
+        <v>2.05</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
         <v>1.9</v>
       </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>3.5</v>
-      </c>
-      <c r="Y44">
-        <v>-1</v>
-      </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183366</v>
+        <v>6183367</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45068.5</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
       </c>
       <c r="K45">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="N45">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P45">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y45">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45068.5</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>3.6</v>
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6183371</v>
+        <v>6183369</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,55 +4621,55 @@
         <v>45072.5</v>
       </c>
       <c r="F47" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s">
         <v>30</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M47">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="N47">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4678,19 +4678,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>2.45</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6183372</v>
+        <v>6183371</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45072.5</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49">
+        <v>2.25</v>
+      </c>
+      <c r="L49">
+        <v>3.3</v>
+      </c>
+      <c r="M49">
+        <v>2.9</v>
+      </c>
+      <c r="N49">
+        <v>2.3</v>
+      </c>
+      <c r="O49">
+        <v>3.1</v>
+      </c>
+      <c r="P49">
         <v>3</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49">
-        <v>2.4</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>2.7</v>
-      </c>
-      <c r="N49">
-        <v>2.25</v>
-      </c>
-      <c r="O49">
-        <v>3.25</v>
-      </c>
-      <c r="P49">
-        <v>3.1</v>
       </c>
       <c r="Q49">
         <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB49">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183369</v>
+        <v>6183372</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45072.5</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O51">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52">
         <v>4.5</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6183375</v>
+        <v>6183671</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F55" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
       </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>43</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N55">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O55">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183377</v>
+        <v>6183376</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>43</v>
       </c>
       <c r="K56">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N56">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T56">
         <v>2.5</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,16 +5482,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183671</v>
+        <v>6183375</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45080.45833333334</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M57">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N57">
+        <v>1.6</v>
+      </c>
+      <c r="O57">
+        <v>3.75</v>
+      </c>
+      <c r="P57">
+        <v>5</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
         <v>1.85</v>
       </c>
-      <c r="O57">
-        <v>3.2</v>
-      </c>
-      <c r="P57">
-        <v>4.2</v>
-      </c>
-      <c r="Q57">
-        <v>-0.5</v>
-      </c>
-      <c r="R57">
-        <v>1.925</v>
-      </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X57">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K58">
         <v>1.8</v>
@@ -5689,7 +5689,7 @@
         <v>45084.5</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>38</v>
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6183379</v>
+        <v>6183381</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,76 +5778,76 @@
         <v>45084.5</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N60">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R60">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183381</v>
+        <v>6183382</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45084.5</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
       </c>
       <c r="K62">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N62">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>-0</v>
+      </c>
+      <c r="AB62">
         <v>-0.5</v>
       </c>
-      <c r="AA62">
-        <v>0.4</v>
-      </c>
-      <c r="AB62">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6183382</v>
+        <v>6183379</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,61 +6045,61 @@
         <v>45084.5</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O63">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R63">
+        <v>1.9</v>
+      </c>
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.9</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X63">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6111,10 +6111,10 @@
         <v>-0</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6235,22 +6235,22 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
         <v>2.55</v>
@@ -6259,25 +6259,25 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6289,10 +6289,10 @@
         <v>-0</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,10 +6312,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6324,22 +6324,22 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N66">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O66">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P66">
         <v>2.55</v>
@@ -6348,25 +6348,25 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6378,10 +6378,10 @@
         <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6183388</v>
+        <v>6183386</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3.3</v>
+      </c>
+      <c r="M68">
+        <v>1.85</v>
+      </c>
+      <c r="N68">
+        <v>3.8</v>
+      </c>
+      <c r="O68">
+        <v>3.3</v>
+      </c>
+      <c r="P68">
+        <v>1.909</v>
+      </c>
+      <c r="Q68">
+        <v>0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
+        <v>2.25</v>
+      </c>
+      <c r="U68">
+        <v>2.025</v>
+      </c>
+      <c r="V68">
+        <v>1.825</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
+        <v>0.909</v>
+      </c>
+      <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>1</v>
       </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" t="s">
-        <v>43</v>
-      </c>
-      <c r="K68">
-        <v>2.6</v>
-      </c>
-      <c r="L68">
-        <v>3.2</v>
-      </c>
-      <c r="M68">
-        <v>2.5</v>
-      </c>
-      <c r="N68">
-        <v>2.8</v>
-      </c>
-      <c r="O68">
-        <v>3.2</v>
-      </c>
-      <c r="P68">
-        <v>2.3</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>2.125</v>
-      </c>
-      <c r="S68">
-        <v>1.75</v>
-      </c>
-      <c r="T68">
-        <v>2.5</v>
-      </c>
-      <c r="U68">
-        <v>2.05</v>
-      </c>
-      <c r="V68">
-        <v>1.8</v>
-      </c>
-      <c r="W68">
-        <v>1.8</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>-1</v>
-      </c>
-      <c r="Z68">
-        <v>1.125</v>
-      </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6183386</v>
+        <v>6183388</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N69">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="O69">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6680,7 +6680,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K70">
         <v>3.75</v>
@@ -6760,7 +6760,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6183390</v>
+        <v>6183392</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45104.5</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="L72">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
         <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183389</v>
+        <v>6183391</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,73 +6935,73 @@
         <v>45104.5</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
+        <v>1.833</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
         <v>1.85</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>3.5</v>
       </c>
-      <c r="M73">
-        <v>3.8</v>
-      </c>
-      <c r="N73">
-        <v>2.15</v>
-      </c>
-      <c r="O73">
-        <v>3.4</v>
-      </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
+        <v>1.9</v>
+      </c>
+      <c r="S73">
         <v>1.95</v>
       </c>
-      <c r="S73">
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>1.9</v>
       </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.8</v>
-      </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>0.95</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183391</v>
+        <v>6183389</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,73 +7024,73 @@
         <v>45104.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>4</v>
-      </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
+        <v>3.5</v>
+      </c>
+      <c r="M74">
+        <v>3.8</v>
+      </c>
+      <c r="N74">
+        <v>2.15</v>
+      </c>
+      <c r="O74">
         <v>3.4</v>
       </c>
-      <c r="M74">
-        <v>4</v>
-      </c>
-      <c r="N74">
-        <v>1.85</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
       <c r="P74">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.95</v>
+      </c>
+      <c r="S74">
         <v>1.9</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6183672</v>
+        <v>6183390</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45104.5</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7128,61 +7128,61 @@
         <v>42</v>
       </c>
       <c r="K75">
+        <v>1.45</v>
+      </c>
+      <c r="L75">
         <v>4.2</v>
       </c>
-      <c r="L75">
-        <v>3.4</v>
-      </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6183392</v>
+        <v>6183672</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,40 +7202,40 @@
         <v>45104.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N76">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
         <v>1.825</v>
@@ -7244,19 +7244,19 @@
         <v>2.025</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
+        <v>1.9</v>
+      </c>
+      <c r="V76">
         <v>1.95</v>
       </c>
-      <c r="V76">
-        <v>1.9</v>
-      </c>
       <c r="W76">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7303,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183395</v>
+        <v>6183394</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78">
+        <v>2.625</v>
+      </c>
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>43</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>3.1</v>
-      </c>
       <c r="M78">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P78">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
+        <v>1.9</v>
+      </c>
+      <c r="V78">
         <v>1.95</v>
       </c>
-      <c r="V78">
-        <v>1.9</v>
-      </c>
       <c r="W78">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7484,43 +7484,43 @@
         <v>43</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79">
         <v>3.1</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,13 +7529,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183394</v>
+        <v>6183396</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>3.1</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>2.3</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
+        <v>2.75</v>
+      </c>
+      <c r="Q80">
+        <v>-0.25</v>
+      </c>
+      <c r="R80">
+        <v>2.1</v>
+      </c>
+      <c r="S80">
+        <v>1.775</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
+        <v>1.85</v>
+      </c>
+      <c r="W80">
+        <v>1.3</v>
+      </c>
+      <c r="X80">
+        <v>-1</v>
+      </c>
+      <c r="Y80">
+        <v>-1</v>
+      </c>
+      <c r="Z80">
+        <v>1.1</v>
+      </c>
+      <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>42</v>
-      </c>
-      <c r="K80">
-        <v>2.625</v>
-      </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80">
-        <v>2.5</v>
-      </c>
-      <c r="N80">
-        <v>2.625</v>
-      </c>
-      <c r="O80">
-        <v>3.2</v>
-      </c>
-      <c r="P80">
-        <v>2.5</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>1.975</v>
-      </c>
-      <c r="S80">
-        <v>1.875</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.9</v>
-      </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
-      <c r="X80">
-        <v>2.2</v>
-      </c>
-      <c r="Y80">
-        <v>-1</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>-0</v>
-      </c>
-      <c r="AB80">
-        <v>-0.5</v>
-      </c>
       <c r="AC80">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,10 +7647,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
         <v>2.3</v>
@@ -7739,7 +7739,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>3</v>
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.333</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6183401</v>
+        <v>6183402</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,19 +7914,19 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>2.9</v>
@@ -7938,31 +7938,31 @@
         <v>2.3</v>
       </c>
       <c r="N84">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O84">
         <v>3.2</v>
       </c>
       <c r="P84">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T84">
         <v>2.5</v>
       </c>
       <c r="U84">
+        <v>1.975</v>
+      </c>
+      <c r="V84">
         <v>1.875</v>
-      </c>
-      <c r="V84">
-        <v>1.975</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7974,16 +7974,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.875</v>
-      </c>
-      <c r="AC84">
-        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6183402</v>
+        <v>6183401</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,19 +8003,19 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>2.9</v>
@@ -8027,31 +8027,31 @@
         <v>2.3</v>
       </c>
       <c r="N85">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O85">
         <v>3.2</v>
       </c>
       <c r="P85">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
+        <v>1.875</v>
+      </c>
+      <c r="V85">
         <v>1.975</v>
-      </c>
-      <c r="V85">
-        <v>1.875</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC85">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6183905</v>
+        <v>6183400</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
         <v>1</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N86">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P86">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8137,31 +8137,31 @@
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6183400</v>
+        <v>6183905</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,40 +8181,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M87">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O87">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
         <v>1.9</v>
@@ -8226,31 +8226,31 @@
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8282,7 +8282,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8362,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>1.909</v>
@@ -8451,7 +8451,7 @@
         <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
         <v>1.65</v>
@@ -8537,7 +8537,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8718,7 +8718,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8727,7 +8727,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K93">
         <v>2.8</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,58 +8804,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>43</v>
       </c>
       <c r="K94">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q94">
         <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8864,16 +8864,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>2.45</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>4.333</v>
+      </c>
+      <c r="N96">
+        <v>1.75</v>
+      </c>
+      <c r="O96">
+        <v>3.6</v>
+      </c>
+      <c r="P96">
         <v>4</v>
-      </c>
-      <c r="M96">
-        <v>6.5</v>
-      </c>
-      <c r="N96">
-        <v>1.7</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
-      <c r="P96">
-        <v>4.75</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,16 +9042,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9074,7 +9074,7 @@
         <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9083,7 +9083,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>2.05</v>
@@ -9160,7 +9160,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
         <v>35</v>
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.6</v>
@@ -9350,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K100">
         <v>2.55</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
         <v>1.85</v>
@@ -9605,10 +9605,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9694,7 +9694,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -9706,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9795,7 +9795,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>2.2</v>
@@ -9875,7 +9875,7 @@
         <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9961,7 +9961,7 @@
         <v>45145.5</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -9973,7 +9973,7 @@
         <v>4</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -10139,7 +10139,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>32</v>
@@ -10231,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10240,7 +10240,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>1.727</v>
@@ -10329,7 +10329,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
         <v>1.666</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+      <c r="K112">
+        <v>3.6</v>
+      </c>
+      <c r="L112">
+        <v>3.2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3.1</v>
+      </c>
+      <c r="O112">
+        <v>3.2</v>
+      </c>
+      <c r="P112">
+        <v>2.25</v>
+      </c>
+      <c r="Q112">
+        <v>0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>2.05</v>
+      </c>
+      <c r="V112">
+        <v>1.8</v>
+      </c>
+      <c r="W112">
+        <v>-1</v>
+      </c>
+      <c r="X112">
+        <v>-1</v>
+      </c>
+      <c r="Y112">
+        <v>1.25</v>
+      </c>
+      <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
         <v>1</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112">
-        <v>2.1</v>
-      </c>
-      <c r="L112">
-        <v>3.25</v>
-      </c>
-      <c r="M112">
-        <v>3.25</v>
-      </c>
-      <c r="N112">
-        <v>1.95</v>
-      </c>
-      <c r="O112">
-        <v>3.5</v>
-      </c>
-      <c r="P112">
-        <v>3.5</v>
-      </c>
-      <c r="Q112">
-        <v>-0.5</v>
-      </c>
-      <c r="R112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>1.85</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>2.025</v>
-      </c>
-      <c r="V112">
-        <v>1.825</v>
-      </c>
-      <c r="W112">
-        <v>0.95</v>
-      </c>
-      <c r="X112">
-        <v>-1</v>
-      </c>
-      <c r="Y112">
-        <v>-1</v>
-      </c>
-      <c r="Z112">
-        <v>1</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>3</v>
-      </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N113">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
         <v>1.85</v>
       </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10587,7 +10587,7 @@
         <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K114">
         <v>1.4</v>
@@ -10676,7 +10676,7 @@
         <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
         <v>3.2</v>
@@ -10762,7 +10762,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>3.4</v>
@@ -10863,7 +10863,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>1.95</v>
@@ -10952,7 +10952,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>3</v>
@@ -11029,7 +11029,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11118,7 +11118,7 @@
         <v>45159.5</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11130,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K120">
         <v>2.5</v>
@@ -11207,10 +11207,10 @@
         <v>45163.5</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11388,7 +11388,7 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,76 +11474,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
+        <v>1.8</v>
+      </c>
+      <c r="L124">
+        <v>3.4</v>
+      </c>
+      <c r="M124">
+        <v>4.2</v>
+      </c>
+      <c r="N124">
+        <v>1.909</v>
+      </c>
+      <c r="O124">
+        <v>3.4</v>
+      </c>
+      <c r="P124">
         <v>3.75</v>
       </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>2</v>
-      </c>
-      <c r="N124">
-        <v>3.4</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>2.05</v>
-      </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>0.95</v>
-      </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,76 +11563,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L125">
+        <v>3.3</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
         <v>3.4</v>
       </c>
-      <c r="M125">
-        <v>4.2</v>
-      </c>
-      <c r="N125">
-        <v>1.909</v>
-      </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
+        <v>1.9</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.5</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.5125</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.95</v>
-      </c>
-      <c r="S125">
-        <v>1.9</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.875</v>
-      </c>
-      <c r="V125">
-        <v>1.975</v>
-      </c>
-      <c r="W125">
-        <v>0.909</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
-      <c r="Y125">
-        <v>-1</v>
-      </c>
-      <c r="Z125">
+      <c r="AB125">
         <v>0.95</v>
       </c>
-      <c r="AA125">
-        <v>-1</v>
-      </c>
-      <c r="AB125">
-        <v>-0.5</v>
-      </c>
       <c r="AC125">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11664,7 +11664,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>3.5</v>
@@ -11753,7 +11753,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>3</v>
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6183437</v>
+        <v>6183439</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,49 +11830,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
+        <v>3.2</v>
+      </c>
+      <c r="N128">
+        <v>2.15</v>
+      </c>
+      <c r="O128">
         <v>3.25</v>
       </c>
-      <c r="N128">
-        <v>1.727</v>
-      </c>
-      <c r="O128">
-        <v>3.6</v>
-      </c>
       <c r="P128">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
         <v>2.025</v>
@@ -11881,25 +11881,25 @@
         <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB128">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC128">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6183439</v>
+        <v>6183440</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>2</v>
@@ -12023,58 +12023,58 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N130">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12097,10 +12097,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12109,7 +12109,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
         <v>3.5</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6183909</v>
+        <v>6183437</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,46 +12186,46 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
         <v>1</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.75</v>
@@ -12237,7 +12237,7 @@
         <v>1.825</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC132">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6183440</v>
+        <v>6183909</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,76 +12275,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N133">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
+        <v>2.025</v>
+      </c>
+      <c r="V133">
+        <v>1.825</v>
+      </c>
+      <c r="W133">
         <v>1.9</v>
       </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,46 +12364,46 @@
         <v>45184.5</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N134">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O134">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P134">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>2.5</v>
@@ -12415,19 +12415,19 @@
         <v>1.8</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X134">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>1.05</v>
@@ -12441,7 +12441,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12453,46 +12453,46 @@
         <v>45184.5</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N135">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q135">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T135">
         <v>2.5</v>
@@ -12504,19 +12504,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
         <v>1.05</v>
@@ -12619,7 +12619,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7183906</v>
+        <v>7183902</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12631,40 +12631,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
         <v>1.8</v>
@@ -12673,7 +12673,7 @@
         <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
         <v>1.85</v>
@@ -12682,19 +12682,19 @@
         <v>2</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
         <v>0.8500000000000001</v>
@@ -12708,7 +12708,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12720,40 +12720,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K138">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
         <v>1.8</v>
@@ -12762,7 +12762,7 @@
         <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
         <v>1.85</v>
@@ -12771,19 +12771,19 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>0.8500000000000001</v>
@@ -12809,10 +12809,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F139" t="s">
+        <v>33</v>
+      </c>
+      <c r="G139" t="s">
         <v>29</v>
-      </c>
-      <c r="G139" t="s">
-        <v>30</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12821,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>1.727</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,73 +12898,73 @@
         <v>45191.5</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K140">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L140">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45191.5</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -12999,43 +12999,43 @@
         <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M141">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N141">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V141">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -13044,16 +13044,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB141">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC141">
         <v>-1</v>
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7183907</v>
+        <v>7183920</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,73 +13076,73 @@
         <v>45191.5</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G142" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O142">
         <v>3.3</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13165,7 +13165,7 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13257,7 +13257,7 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K144">
         <v>2.875</v>
@@ -13355,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="J145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2.875</v>
@@ -13435,7 +13435,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13613,7 +13613,7 @@
         <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -13699,7 +13699,7 @@
         <v>45198.5</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
@@ -13711,7 +13711,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K149">
         <v>1.8</v>
@@ -13877,7 +13877,7 @@
         <v>45200.5</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G151" t="s">
         <v>32</v>
@@ -13889,7 +13889,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K151">
         <v>1.833</v>
@@ -14067,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K153">
         <v>2.3</v>
@@ -14147,7 +14147,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14233,7 +14233,7 @@
         <v>45207.375</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
         <v>39</v>
@@ -14245,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K155">
         <v>2.25</v>
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,58 +14322,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
         <v>43</v>
       </c>
       <c r="K156">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N156">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W156">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14382,13 +14382,13 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14414,55 +14414,55 @@
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M157">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N157">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P157">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,13 +14471,13 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14512,7 +14512,7 @@
         <v>5</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K158">
         <v>2.75</v>
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,16 +14589,16 @@
         <v>45220.375</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>41</v>
@@ -14607,58 +14607,58 @@
         <v>2.15</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
+        <v>2.9</v>
+      </c>
+      <c r="N159">
         <v>3</v>
-      </c>
-      <c r="N159">
-        <v>2.25</v>
       </c>
       <c r="O159">
         <v>3.6</v>
       </c>
       <c r="P159">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q159">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S159">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA159">
+        <v>-0.5</v>
+      </c>
+      <c r="AB159">
+        <v>-1</v>
+      </c>
+      <c r="AC159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB159">
-        <v>-1</v>
-      </c>
-      <c r="AC159">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7183930</v>
+        <v>7183928</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,16 +14678,16 @@
         <v>45220.375</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>42</v>
@@ -14696,58 +14696,58 @@
         <v>2.15</v>
       </c>
       <c r="L160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N160">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O160">
         <v>3.6</v>
       </c>
       <c r="P160">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>3</v>
       </c>
       <c r="U160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z160">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14770,7 +14770,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K161">
         <v>2.3</v>
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,76 +14856,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>2</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2.05</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.875</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="S162">
-        <v>1.875</v>
-      </c>
-      <c r="T162">
-        <v>2.5</v>
-      </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>1.9</v>
-      </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,76 +14945,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163" t="s">
+        <v>42</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>3.4</v>
+      </c>
+      <c r="M163">
+        <v>3.3</v>
+      </c>
+      <c r="N163">
+        <v>2.2</v>
+      </c>
+      <c r="O163">
+        <v>3.3</v>
+      </c>
+      <c r="P163">
         <v>3</v>
       </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163" t="s">
-        <v>43</v>
-      </c>
-      <c r="K163">
-        <v>2</v>
-      </c>
-      <c r="L163">
-        <v>3.5</v>
-      </c>
-      <c r="M163">
-        <v>3.2</v>
-      </c>
-      <c r="N163">
-        <v>1.6</v>
-      </c>
-      <c r="O163">
-        <v>4</v>
-      </c>
-      <c r="P163">
-        <v>4.5</v>
-      </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>7</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K165">
         <v>2.5</v>
@@ -15304,7 +15304,7 @@
         <v>37</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K167">
         <v>2.4</v>
@@ -15390,7 +15390,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
         <v>37</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,6 +106,9 @@
     <t>FC Inter</t>
   </si>
   <si>
+    <t>HJK Helsinki</t>
+  </si>
+  <si>
     <t>AC Oulu</t>
   </si>
   <si>
@@ -115,28 +118,25 @@
     <t>KuPS Kuopio</t>
   </si>
   <si>
-    <t>HJK Helsinki</t>
-  </si>
-  <si>
     <t>FC Ilves</t>
   </si>
   <si>
     <t>FC Lahti</t>
   </si>
   <si>
-    <t>FC Honka</t>
+    <t>FC Haka</t>
   </si>
   <si>
-    <t>FC Haka</t>
+    <t>FC Honka</t>
   </si>
   <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
     <t>H</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183377</v>
+        <v>6183671</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>2.025</v>
-      </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.825</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,52 +800,52 @@
         <v>39</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183375</v>
+        <v>6183376</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,10 +886,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -898,43 +898,43 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>1.571</v>
+        <v>2.55</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183671</v>
+        <v>6183375</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N6">
+        <v>1.6</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
         <v>1.85</v>
       </c>
-      <c r="O6">
-        <v>3.2</v>
-      </c>
-      <c r="P6">
-        <v>4.2</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.925</v>
-      </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183381</v>
+        <v>6183380</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>45084.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
         <v>3.8</v>
       </c>
       <c r="M8">
-        <v>1.533</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.5125</v>
+      </c>
+      <c r="AA8">
         <v>-0.5</v>
       </c>
-      <c r="AA8">
-        <v>0.4</v>
-      </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183903</v>
+        <v>6183381</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,73 +1239,73 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB9">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1328,7 +1328,7 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
@@ -1420,7 +1420,7 @@
         <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183380</v>
+        <v>6183903</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,16 +1506,16 @@
         <v>45084.5</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -1524,40 +1524,40 @@
         <v>1.5</v>
       </c>
       <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="N12">
-        <v>1.75</v>
-      </c>
-      <c r="O12">
-        <v>3.3</v>
-      </c>
-      <c r="P12">
-        <v>4.5</v>
-      </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
+        <v>1.9</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
         <v>2.025</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>1.825</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1566,16 +1566,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1699,19 +1699,19 @@
         <v>42</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
         <v>2.55</v>
@@ -1720,25 +1720,25 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
@@ -1750,10 +1750,10 @@
         <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1788,19 +1788,19 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P15">
         <v>2.55</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183387</v>
+        <v>6183904</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,49 +1862,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
         <v>1.825</v>
@@ -1913,25 +1913,25 @@
         <v>2.025</v>
       </c>
       <c r="W16">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183386</v>
+        <v>6183388</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183904</v>
+        <v>6183386</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,7 +2043,7 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2055,41 +2055,41 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>3.3</v>
       </c>
       <c r="M18">
+        <v>1.85</v>
+      </c>
+      <c r="N18">
+        <v>3.8</v>
+      </c>
+      <c r="O18">
+        <v>3.3</v>
+      </c>
+      <c r="P18">
         <v>1.909</v>
       </c>
-      <c r="N18">
-        <v>3.3</v>
-      </c>
-      <c r="O18">
-        <v>3.1</v>
-      </c>
-      <c r="P18">
-        <v>2.1</v>
-      </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
+        <v>2.025</v>
+      </c>
+      <c r="V18">
         <v>1.825</v>
       </c>
-      <c r="V18">
-        <v>2.025</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2097,19 +2097,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183388</v>
+        <v>6183387</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,10 +2129,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R19">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183390</v>
+        <v>6183392</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,73 +2221,73 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T20">
         <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183389</v>
+        <v>6183391</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
+        <v>1.833</v>
+      </c>
+      <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
         <v>1.85</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>3.5</v>
       </c>
-      <c r="M21">
-        <v>3.8</v>
-      </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.9</v>
       </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.8</v>
-      </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
         <v>0.95</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183393</v>
+        <v>6183672</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,64 +2399,64 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
+        <v>1.825</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
         <v>1.9</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.925</v>
-      </c>
-      <c r="V22">
-        <v>1.925</v>
-      </c>
       <c r="W22">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2465,7 +2465,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183392</v>
+        <v>6183389</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,58 +2485,58 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
+        <v>1.85</v>
+      </c>
+      <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
         <v>2.15</v>
       </c>
-      <c r="L23">
-        <v>3.25</v>
-      </c>
-      <c r="M23">
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>3.1</v>
       </c>
-      <c r="N23">
-        <v>2.375</v>
-      </c>
-      <c r="O23">
-        <v>3.3</v>
-      </c>
-      <c r="P23">
-        <v>2.7</v>
-      </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W23">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2545,16 +2545,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183672</v>
+        <v>6183393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,64 +2577,64 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="L24">
+        <v>3.5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>1.833</v>
+      </c>
+      <c r="O24">
         <v>3.4</v>
       </c>
-      <c r="M24">
-        <v>1.8</v>
-      </c>
-      <c r="N24">
+      <c r="P24">
         <v>4</v>
       </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
-        <v>1.727</v>
-      </c>
       <c r="Q24">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2643,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183391</v>
+        <v>6183390</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,55 +2663,55 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
-      </c>
-      <c r="I25">
-        <v>4</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
+        <v>1.363</v>
+      </c>
+      <c r="O25">
+        <v>4.333</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>-1.25</v>
+      </c>
+      <c r="R25">
         <v>1.85</v>
       </c>
-      <c r="O25">
-        <v>3.5</v>
-      </c>
-      <c r="P25">
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.9</v>
-      </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2720,19 +2720,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183396</v>
+        <v>6183394</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>2.625</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="I27">
+      <c r="M27">
+        <v>2.5</v>
+      </c>
+      <c r="N27">
+        <v>2.625</v>
+      </c>
+      <c r="O27">
+        <v>3.2</v>
+      </c>
+      <c r="P27">
+        <v>2.5</v>
+      </c>
+      <c r="Q27">
         <v>0</v>
       </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>3.1</v>
-      </c>
-      <c r="M27">
-        <v>3.4</v>
-      </c>
-      <c r="N27">
-        <v>2.3</v>
-      </c>
-      <c r="O27">
-        <v>3.1</v>
-      </c>
-      <c r="P27">
-        <v>2.75</v>
-      </c>
-      <c r="Q27">
-        <v>-0.25</v>
-      </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,10 +2930,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2945,43 +2945,43 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O28">
         <v>3.1</v>
       </c>
       <c r="P28">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,13 +2990,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183394</v>
+        <v>6183395</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N29">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.95</v>
+      </c>
+      <c r="V29">
         <v>1.9</v>
       </c>
-      <c r="V29">
-        <v>1.95</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X29">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC29">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,10 +3108,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3286,7 +3286,7 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3375,7 +3375,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3464,10 +3464,10 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>2.9</v>
+      </c>
+      <c r="L35">
+        <v>3.2</v>
+      </c>
+      <c r="M35">
+        <v>2.3</v>
+      </c>
+      <c r="N35">
+        <v>2.45</v>
+      </c>
+      <c r="O35">
+        <v>3.2</v>
+      </c>
+      <c r="P35">
+        <v>2.7</v>
+      </c>
+      <c r="Q35">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35">
-        <v>2.375</v>
-      </c>
-      <c r="L35">
-        <v>3.1</v>
-      </c>
-      <c r="M35">
-        <v>2.9</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
-      <c r="P35">
-        <v>3.1</v>
-      </c>
-      <c r="Q35">
-        <v>-0.25</v>
-      </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6183401</v>
+        <v>6183905</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
       </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
+        <v>2.375</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
         <v>2.9</v>
       </c>
-      <c r="L36">
-        <v>3.2</v>
-      </c>
-      <c r="M36">
-        <v>2.3</v>
-      </c>
       <c r="N36">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,10 +3731,10 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4179,7 +4179,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4268,55 +4268,55 @@
         <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N43">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
         <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4325,16 +4325,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,58 +4354,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
+        <v>3.6</v>
+      </c>
+      <c r="M44">
+        <v>4.333</v>
+      </c>
+      <c r="N44">
+        <v>1.75</v>
+      </c>
+      <c r="O44">
+        <v>3.6</v>
+      </c>
+      <c r="P44">
         <v>4</v>
-      </c>
-      <c r="M44">
-        <v>6.5</v>
-      </c>
-      <c r="N44">
-        <v>1.7</v>
-      </c>
-      <c r="O44">
-        <v>3.5</v>
-      </c>
-      <c r="P44">
-        <v>4.75</v>
       </c>
       <c r="Q44">
         <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4977,10 +4977,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5066,10 +5066,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
         <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5511,7 +5511,7 @@
         <v>45145.5</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5600,7 +5600,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5689,10 +5689,10 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5855,7 +5855,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6183424</v>
+        <v>6183425</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5867,76 +5867,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61">
+        <v>3.6</v>
+      </c>
+      <c r="L61">
+        <v>3.2</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3.1</v>
+      </c>
+      <c r="O61">
+        <v>3.2</v>
+      </c>
+      <c r="P61">
+        <v>2.25</v>
+      </c>
+      <c r="Q61">
+        <v>0.25</v>
+      </c>
+      <c r="R61">
+        <v>1.85</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>2.25</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
+        <v>1.8</v>
+      </c>
+      <c r="W61">
+        <v>-1</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>1.25</v>
+      </c>
+      <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61">
-        <v>2.1</v>
-      </c>
-      <c r="L61">
-        <v>3.25</v>
-      </c>
-      <c r="M61">
-        <v>3.25</v>
-      </c>
-      <c r="N61">
-        <v>1.95</v>
-      </c>
-      <c r="O61">
-        <v>3.5</v>
-      </c>
-      <c r="P61">
-        <v>3.5</v>
-      </c>
-      <c r="Q61">
-        <v>-0.5</v>
-      </c>
-      <c r="R61">
-        <v>2</v>
-      </c>
-      <c r="S61">
-        <v>1.85</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
-      </c>
-      <c r="U61">
-        <v>2.025</v>
-      </c>
-      <c r="V61">
-        <v>1.825</v>
-      </c>
-      <c r="W61">
-        <v>0.95</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>-1</v>
-      </c>
-      <c r="Z61">
-        <v>1</v>
-      </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6183425</v>
+        <v>6183424</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K62">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M62">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
         <v>1.85</v>
       </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6579,10 +6579,10 @@
         <v>45159.5</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,10 +6668,10 @@
         <v>45163.5</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
+        <v>1.8</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>4.2</v>
+      </c>
+      <c r="N73">
+        <v>1.909</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
         <v>3.75</v>
       </c>
-      <c r="L73">
-        <v>3.3</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>3.4</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>2.05</v>
-      </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>-0.5</v>
       </c>
-      <c r="AB73">
-        <v>0.95</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,73 +7027,73 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
+        <v>3.3</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
         <v>3.4</v>
       </c>
-      <c r="M74">
-        <v>4.2</v>
-      </c>
-      <c r="N74">
-        <v>1.909</v>
-      </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>2.025</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
+        <v>1.9</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>2.5</v>
+      </c>
+      <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
+        <v>0.5125</v>
+      </c>
+      <c r="AA74">
         <v>-0.5</v>
       </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
-      <c r="W74">
-        <v>0.909</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-0.5</v>
-      </c>
       <c r="AC74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,10 +7113,10 @@
         <v>45165.5</v>
       </c>
       <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
         <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6183909</v>
+        <v>6183439</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,49 +7291,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N77">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
         <v>2.025</v>
@@ -7342,25 +7342,25 @@
         <v>1.825</v>
       </c>
       <c r="W77">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183441</v>
+        <v>6183440</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7395,40 +7395,40 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7437,16 +7437,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N79">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
         <v>2.025</v>
@@ -7520,25 +7520,25 @@
         <v>1.825</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X79">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
+        <v>0.4875</v>
+      </c>
+      <c r="AA79">
         <v>-0.5</v>
       </c>
-      <c r="AA79">
-        <v>0.4625</v>
-      </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183438</v>
+        <v>6183441</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,73 +7558,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N80">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P80">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6183437</v>
+        <v>6183438</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,40 +7647,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>41</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
+        <v>2.3</v>
+      </c>
+      <c r="N81">
+        <v>2.7</v>
+      </c>
+      <c r="O81">
         <v>3.25</v>
       </c>
-      <c r="N81">
-        <v>1.727</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
       <c r="P81">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>1.975</v>
@@ -7689,16 +7689,16 @@
         <v>1.875</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U81">
+        <v>1.825</v>
+      </c>
+      <c r="V81">
         <v>2.025</v>
       </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7707,16 +7707,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183440</v>
+        <v>6183909</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
+        <v>2.025</v>
+      </c>
+      <c r="V82">
+        <v>1.825</v>
+      </c>
+      <c r="W82">
         <v>1.9</v>
       </c>
-      <c r="V82">
-        <v>1.95</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7828,7 +7828,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7914,7 +7914,7 @@
         <v>45184.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,55 +8006,55 @@
         <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8134,7 +8134,7 @@
         <v>2.05</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
         <v>1.85</v>
@@ -8143,19 +8143,19 @@
         <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>0.8500000000000001</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87">
+        <v>2.5</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.5</v>
+      </c>
+      <c r="O87">
+        <v>3.1</v>
+      </c>
+      <c r="P87">
+        <v>2.75</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>41</v>
-      </c>
-      <c r="K87">
-        <v>1.615</v>
-      </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>4.5</v>
-      </c>
-      <c r="N87">
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="S87">
+        <v>2.05</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
         <v>1.85</v>
       </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>1.05</v>
+      </c>
+      <c r="AB87">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,10 +8270,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,10 +8359,10 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8374,40 +8374,40 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7183907</v>
+        <v>7183920</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,73 +8448,73 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O90">
         <v>3.3</v>
       </c>
       <c r="P90">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,73 +8537,73 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,10 +8626,10 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8982,10 +8982,10 @@
         <v>45196.5</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9071,7 +9071,7 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
         <v>29</v>
@@ -9160,10 +9160,10 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9249,7 +9249,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9338,7 +9338,7 @@
         <v>45200.5</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>38</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9605,10 +9605,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9694,7 +9694,7 @@
         <v>45207.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>35</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N106">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>2.4</v>
+      </c>
+      <c r="N107">
+        <v>2.5</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2.9</v>
-      </c>
-      <c r="N107">
-        <v>3</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,73 +10053,73 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
+        <v>2.9</v>
+      </c>
+      <c r="N108">
         <v>3</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
       </c>
       <c r="O108">
         <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
+        <v>-0.5</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,55 +10139,55 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10196,19 +10196,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10231,7 +10231,7 @@
         <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>3.3</v>
+      </c>
+      <c r="N111">
+        <v>2.2</v>
+      </c>
+      <c r="O111">
+        <v>3.3</v>
+      </c>
+      <c r="P111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.5</v>
-      </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>1.6</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
-      <c r="P111">
-        <v>4.5</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K112">
         <v>2</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
+        <v>1.8</v>
+      </c>
+      <c r="S112">
+        <v>2.05</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.975</v>
       </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.95</v>
-      </c>
-      <c r="V112">
-        <v>1.9</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10498,7 +10498,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>6</v>
@@ -10584,7 +10584,7 @@
         <v>45224.5</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>29</v>
@@ -10673,10 +10673,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10762,10 +10762,10 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -124,19 +124,19 @@
     <t>FC Lahti</t>
   </si>
   <si>
-    <t>FC Haka</t>
+    <t>FC Honka</t>
   </si>
   <si>
-    <t>FC Honka</t>
+    <t>FC Haka</t>
   </si>
   <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
     <t>H</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183380</v>
+        <v>6183381</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>45084.5</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L8">
         <v>3.8</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>1.533</v>
       </c>
       <c r="N8">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="O8">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.5125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,73 +1239,73 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5.5</v>
+      </c>
+      <c r="N9">
+        <v>1.5</v>
+      </c>
+      <c r="O9">
         <v>3.8</v>
       </c>
-      <c r="M9">
-        <v>1.533</v>
-      </c>
-      <c r="N9">
-        <v>5.25</v>
-      </c>
-      <c r="O9">
-        <v>3.5</v>
-      </c>
       <c r="P9">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183382</v>
+        <v>6183379</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,61 +1328,61 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
         <v>1.95</v>
       </c>
-      <c r="S10">
-        <v>1.9</v>
-      </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-0</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183379</v>
+        <v>6183380</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,16 +1417,16 @@
         <v>45084.5</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -1435,40 +1435,40 @@
         <v>1.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1477,16 +1477,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183903</v>
+        <v>6183382</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,37 +1509,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1.95</v>
@@ -1548,19 +1548,19 @@
         <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1572,10 +1572,10 @@
         <v>-0</v>
       </c>
       <c r="AB12">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1699,19 +1699,19 @@
         <v>42</v>
       </c>
       <c r="K14">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N14">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P14">
         <v>2.55</v>
@@ -1720,25 +1720,25 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y14">
         <v>-1</v>
@@ -1750,10 +1750,10 @@
         <v>-0</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1788,19 +1788,19 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L15">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O15">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
         <v>2.55</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183904</v>
+        <v>6183386</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,7 +1865,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1877,41 +1877,41 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L16">
         <v>3.3</v>
       </c>
       <c r="M16">
+        <v>1.85</v>
+      </c>
+      <c r="N16">
+        <v>3.8</v>
+      </c>
+      <c r="O16">
+        <v>3.3</v>
+      </c>
+      <c r="P16">
         <v>1.909</v>
       </c>
-      <c r="N16">
-        <v>3.3</v>
-      </c>
-      <c r="O16">
-        <v>3.1</v>
-      </c>
-      <c r="P16">
-        <v>2.1</v>
-      </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
+        <v>2.025</v>
+      </c>
+      <c r="V16">
         <v>1.825</v>
       </c>
-      <c r="V16">
-        <v>2.025</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.5125</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183388</v>
+        <v>6183387</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,10 +1951,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1966,43 +1966,43 @@
         <v>41</v>
       </c>
       <c r="K17">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M17">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N17">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R17">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S17">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183386</v>
+        <v>6183904</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,7 +2043,7 @@
         <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2055,41 +2055,41 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
         <v>3.3</v>
       </c>
       <c r="M18">
+        <v>1.909</v>
+      </c>
+      <c r="N18">
+        <v>3.3</v>
+      </c>
+      <c r="O18">
+        <v>3.1</v>
+      </c>
+      <c r="P18">
+        <v>2.1</v>
+      </c>
+      <c r="Q18">
+        <v>0.25</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
-      </c>
-      <c r="N18">
-        <v>3.8</v>
-      </c>
-      <c r="O18">
-        <v>3.3</v>
-      </c>
-      <c r="P18">
-        <v>1.909</v>
-      </c>
-      <c r="Q18">
-        <v>0.5</v>
-      </c>
-      <c r="R18">
-        <v>1.85</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
+        <v>1.825</v>
+      </c>
+      <c r="V18">
         <v>2.025</v>
       </c>
-      <c r="V18">
-        <v>1.825</v>
-      </c>
       <c r="W18">
         <v>-1</v>
       </c>
@@ -2097,19 +2097,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
         <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183387</v>
+        <v>6183388</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,10 +2129,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q19">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183392</v>
+        <v>6183393</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45104.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,7 +2278,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2287,7 +2287,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183391</v>
+        <v>6183389</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,73 +2307,73 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>3.8</v>
+      </c>
+      <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
         <v>3.4</v>
       </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>1.85</v>
-      </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
       <c r="P21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
         <v>1.9</v>
       </c>
-      <c r="S21">
-        <v>1.95</v>
-      </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183389</v>
+        <v>6183390</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
+        <v>1.45</v>
+      </c>
+      <c r="L23">
+        <v>4.2</v>
+      </c>
+      <c r="M23">
+        <v>6.5</v>
+      </c>
+      <c r="N23">
+        <v>1.363</v>
+      </c>
+      <c r="O23">
+        <v>4.333</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>-1.25</v>
+      </c>
+      <c r="R23">
         <v>1.85</v>
       </c>
-      <c r="L23">
-        <v>3.5</v>
-      </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>3.1</v>
-      </c>
-      <c r="Q23">
-        <v>-0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.95</v>
-      </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183393</v>
+        <v>6183391</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,34 +2574,34 @@
         <v>45104.5</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1.85</v>
+      </c>
+      <c r="O24">
         <v>3.5</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24">
-        <v>1.833</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
       </c>
       <c r="P24">
         <v>4</v>
@@ -2616,34 +2616,34 @@
         <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.95</v>
+      </c>
+      <c r="AB24">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183390</v>
+        <v>6183392</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N25">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183394</v>
+        <v>6183396</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>3.4</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
+        <v>3.1</v>
+      </c>
+      <c r="P27">
+        <v>2.75</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>1.775</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.85</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27">
-        <v>2.625</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>2.5</v>
-      </c>
-      <c r="N27">
-        <v>2.625</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
-      </c>
-      <c r="P27">
-        <v>2.5</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>1.875</v>
-      </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.9</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2.2</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>-0</v>
-      </c>
-      <c r="AB27">
-        <v>-0.5</v>
-      </c>
       <c r="AC27">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183396</v>
+        <v>6183394</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>2.625</v>
+      </c>
+      <c r="L28">
         <v>3</v>
       </c>
-      <c r="I28">
+      <c r="M28">
+        <v>2.5</v>
+      </c>
+      <c r="N28">
+        <v>2.625</v>
+      </c>
+      <c r="O28">
+        <v>3.2</v>
+      </c>
+      <c r="P28">
+        <v>2.5</v>
+      </c>
+      <c r="Q28">
         <v>0</v>
       </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>3.1</v>
-      </c>
-      <c r="M28">
-        <v>3.4</v>
-      </c>
-      <c r="N28">
-        <v>2.3</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
-      </c>
-      <c r="P28">
-        <v>2.75</v>
-      </c>
-      <c r="Q28">
-        <v>-0.25</v>
-      </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
         <v>29</v>
@@ -3108,7 +3108,7 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
+        <v>2.375</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
         <v>2.9</v>
       </c>
-      <c r="L33">
-        <v>3.2</v>
-      </c>
-      <c r="M33">
-        <v>2.3</v>
-      </c>
       <c r="N33">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183400</v>
+        <v>6183401</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
+        <v>1.9</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>2.25</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6183905</v>
+        <v>6183402</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,58 +4265,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
+        <v>3.6</v>
+      </c>
+      <c r="M43">
+        <v>4.333</v>
+      </c>
+      <c r="N43">
+        <v>1.75</v>
+      </c>
+      <c r="O43">
+        <v>3.6</v>
+      </c>
+      <c r="P43">
         <v>4</v>
-      </c>
-      <c r="M43">
-        <v>6.5</v>
-      </c>
-      <c r="N43">
-        <v>1.7</v>
-      </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>4.75</v>
       </c>
       <c r="Q43">
         <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4325,16 +4325,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183409</v>
+        <v>6183410</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,58 +4354,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
         <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4888,7 +4888,7 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4977,7 +4977,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>31</v>
@@ -5155,7 +5155,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5425,7 +5425,7 @@
         <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5689,10 +5689,10 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,7 +6668,7 @@
         <v>45163.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6849,7 +6849,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
         <v>34</v>
@@ -7024,7 +7024,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,49 +7291,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>2</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
         <v>2.025</v>
@@ -7342,25 +7342,25 @@
         <v>1.825</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
+        <v>0.4875</v>
+      </c>
+      <c r="AA77">
         <v>-0.5</v>
       </c>
-      <c r="AA77">
-        <v>0.4625</v>
-      </c>
       <c r="AB77">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183440</v>
+        <v>6183441</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7395,40 +7395,40 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
+        <v>1.909</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78">
+        <v>3.3</v>
+      </c>
+      <c r="P78">
+        <v>2.2</v>
+      </c>
+      <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
         <v>1.85</v>
       </c>
-      <c r="N78">
-        <v>3.6</v>
-      </c>
-      <c r="O78">
-        <v>3.6</v>
-      </c>
-      <c r="P78">
-        <v>1.85</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.975</v>
-      </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7437,16 +7437,16 @@
         <v>-1</v>
       </c>
       <c r="Y78">
+        <v>1.2</v>
+      </c>
+      <c r="Z78">
+        <v>-1</v>
+      </c>
+      <c r="AA78">
+        <v>1</v>
+      </c>
+      <c r="AB78">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z78">
-        <v>-1</v>
-      </c>
-      <c r="AA78">
-        <v>0.875</v>
-      </c>
-      <c r="AB78">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183437</v>
+        <v>6183909</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,46 +7469,46 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>41</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L79">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M79">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
         <v>2.75</v>
@@ -7520,7 +7520,7 @@
         <v>1.825</v>
       </c>
       <c r="W79">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7529,16 +7529,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183441</v>
+        <v>6183439</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,73 +7558,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O80">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB80">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183909</v>
+        <v>6183440</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
         <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
+        <v>1.875</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.9</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>2.025</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.875</v>
+      </c>
+      <c r="AB82">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7914,7 +7914,7 @@
         <v>45184.5</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
         <v>34</v>
@@ -8095,7 +8095,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,10 +8359,10 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,73 +8448,73 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S90">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7183919</v>
+        <v>7183920</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,73 +8537,73 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91">
+        <v>2.45</v>
+      </c>
+      <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
+        <v>2.875</v>
+      </c>
+      <c r="N91">
+        <v>2.5</v>
+      </c>
+      <c r="O91">
+        <v>3.3</v>
+      </c>
+      <c r="P91">
+        <v>2.8</v>
+      </c>
+      <c r="Q91">
         <v>0</v>
       </c>
-      <c r="I91">
-        <v>3</v>
-      </c>
-      <c r="J91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91">
-        <v>2.625</v>
-      </c>
-      <c r="L91">
-        <v>3.4</v>
-      </c>
-      <c r="M91">
-        <v>2.55</v>
-      </c>
-      <c r="N91">
-        <v>3</v>
-      </c>
-      <c r="O91">
-        <v>3.5</v>
-      </c>
-      <c r="P91">
-        <v>2.3</v>
-      </c>
-      <c r="Q91">
-        <v>0.25</v>
-      </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8626,10 +8626,10 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>1.8</v>
       </c>
       <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>1.95</v>
+      </c>
+      <c r="O97">
         <v>3.75</v>
       </c>
-      <c r="M97">
-        <v>4.2</v>
-      </c>
-      <c r="N97">
-        <v>1.75</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9116,31 +9116,31 @@
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,40 +9160,40 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.8</v>
       </c>
       <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
         <v>3.8</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9205,31 +9205,31 @@
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9605,7 +9605,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -9694,7 +9694,7 @@
         <v>45207.375</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>35</v>
@@ -9783,7 +9783,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
         <v>30</v>
@@ -9875,7 +9875,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,55 +9961,55 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10018,19 +10018,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45220.375</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.4</v>
+      </c>
+      <c r="N108">
+        <v>2.5</v>
+      </c>
+      <c r="O108">
         <v>3.5</v>
       </c>
-      <c r="M108">
-        <v>2.9</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
-      <c r="O108">
-        <v>3.6</v>
-      </c>
       <c r="P108">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>2.15</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
+        <v>2.9</v>
+      </c>
+      <c r="N109">
         <v>3</v>
-      </c>
-      <c r="N109">
-        <v>2.25</v>
       </c>
       <c r="O109">
         <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y109">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA109">
+        <v>-0.5</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183918</v>
+        <v>7183916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,13 +10228,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10243,40 +10243,40 @@
         <v>43</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L110">
         <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N110">
+        <v>2.2</v>
+      </c>
+      <c r="O110">
+        <v>3.3</v>
+      </c>
+      <c r="P110">
+        <v>3</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
+        <v>1.875</v>
+      </c>
+      <c r="T110">
         <v>2.5</v>
       </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.4</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10285,19 +10285,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K111">
         <v>2</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2.05</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.975</v>
       </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.95</v>
-      </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7183917</v>
+        <v>7183918</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,76 +10406,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
+      </c>
+      <c r="K112">
+        <v>2.3</v>
+      </c>
+      <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>2.75</v>
+      </c>
+      <c r="N112">
+        <v>2.5</v>
+      </c>
+      <c r="O112">
+        <v>3.6</v>
+      </c>
+      <c r="P112">
+        <v>2.4</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2.025</v>
+      </c>
+      <c r="S112">
+        <v>1.825</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
-        <v>41</v>
-      </c>
-      <c r="K112">
-        <v>2</v>
-      </c>
-      <c r="L112">
-        <v>3.5</v>
-      </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
-      <c r="N112">
-        <v>1.6</v>
-      </c>
-      <c r="O112">
-        <v>4</v>
-      </c>
-      <c r="P112">
-        <v>4.5</v>
-      </c>
-      <c r="Q112">
-        <v>-0.75</v>
-      </c>
-      <c r="R112">
-        <v>1.8</v>
-      </c>
-      <c r="S112">
-        <v>2.05</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
+        <v>1.975</v>
+      </c>
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB112">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,73 +10495,73 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,73 +10584,73 @@
         <v>45224.5</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10673,7 +10673,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>31</v>
@@ -10762,10 +10762,10 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,13 +106,13 @@
     <t>FC Inter</t>
   </si>
   <si>
+    <t>KTP</t>
+  </si>
+  <si>
     <t>HJK Helsinki</t>
   </si>
   <si>
     <t>AC Oulu</t>
-  </si>
-  <si>
-    <t>KTP</t>
   </si>
   <si>
     <t>KuPS Kuopio</t>
@@ -124,19 +124,19 @@
     <t>FC Lahti</t>
   </si>
   <si>
-    <t>FC Honka</t>
+    <t>FC Haka</t>
   </si>
   <si>
-    <t>FC Haka</t>
+    <t>FC Honka</t>
   </si>
   <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
     <t>H</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183671</v>
+        <v>6183376</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,37 +708,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N3">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
         <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>1.925</v>
@@ -747,34 +747,34 @@
         <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183377</v>
+        <v>6183671</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>2.025</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.825</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>39</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183903</v>
+        <v>6183380</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,16 +1239,16 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -1257,40 +1257,40 @@
         <v>1.5</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O9">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
+        <v>1.825</v>
+      </c>
+      <c r="V9">
         <v>2.025</v>
       </c>
-      <c r="V9">
-        <v>1.825</v>
-      </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1299,16 +1299,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>1.025</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183379</v>
+        <v>6183382</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,61 +1328,61 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
         <v>1.9</v>
       </c>
-      <c r="S10">
-        <v>1.95</v>
-      </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183380</v>
+        <v>6183903</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,16 +1417,16 @@
         <v>45084.5</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -1435,40 +1435,40 @@
         <v>1.5</v>
       </c>
       <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5.5</v>
+      </c>
+      <c r="N11">
+        <v>1.5</v>
+      </c>
+      <c r="O11">
         <v>3.8</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>6</v>
       </c>
-      <c r="N11">
-        <v>1.75</v>
-      </c>
-      <c r="O11">
-        <v>3.3</v>
-      </c>
-      <c r="P11">
-        <v>4.5</v>
-      </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
         <v>2.025</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="T11">
-        <v>2.25</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>2.025</v>
-      </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1477,16 +1477,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183382</v>
+        <v>6183379</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,61 +1506,61 @@
         <v>45084.5</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
+        <v>1.9</v>
+      </c>
+      <c r="S12">
         <v>1.95</v>
       </c>
-      <c r="S12">
-        <v>1.9</v>
-      </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1572,10 +1572,10 @@
         <v>-0</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1687,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183386</v>
+        <v>6183904</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,7 +1865,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1877,41 +1877,41 @@
         <v>43</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
         <v>3.3</v>
       </c>
       <c r="M16">
+        <v>1.909</v>
+      </c>
+      <c r="N16">
+        <v>3.3</v>
+      </c>
+      <c r="O16">
+        <v>3.1</v>
+      </c>
+      <c r="P16">
+        <v>2.1</v>
+      </c>
+      <c r="Q16">
+        <v>0.25</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>1.85</v>
-      </c>
-      <c r="N16">
-        <v>3.8</v>
-      </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
-      <c r="P16">
-        <v>1.909</v>
-      </c>
-      <c r="Q16">
-        <v>0.5</v>
-      </c>
-      <c r="R16">
-        <v>1.85</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
+        <v>1.825</v>
+      </c>
+      <c r="V16">
         <v>2.025</v>
       </c>
-      <c r="V16">
-        <v>1.825</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
@@ -1919,19 +1919,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,10 +1951,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183388</v>
+        <v>6183386</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>3.3</v>
+      </c>
+      <c r="M19">
+        <v>1.85</v>
+      </c>
+      <c r="N19">
+        <v>3.8</v>
+      </c>
+      <c r="O19">
+        <v>3.3</v>
+      </c>
+      <c r="P19">
+        <v>1.909</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2.025</v>
+      </c>
+      <c r="V19">
+        <v>1.825</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>0.909</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>2.6</v>
-      </c>
-      <c r="L19">
-        <v>3.2</v>
-      </c>
-      <c r="M19">
-        <v>2.5</v>
-      </c>
-      <c r="N19">
-        <v>2.8</v>
-      </c>
-      <c r="O19">
-        <v>3.2</v>
-      </c>
-      <c r="P19">
-        <v>2.3</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>2.125</v>
-      </c>
-      <c r="S19">
-        <v>1.75</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>2.05</v>
-      </c>
-      <c r="V19">
-        <v>1.8</v>
-      </c>
-      <c r="W19">
-        <v>1.8</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>1.125</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183393</v>
+        <v>6183672</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,64 +2221,64 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N20">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
         <v>1.9</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>1.95</v>
       </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.925</v>
-      </c>
-      <c r="V20">
-        <v>1.925</v>
-      </c>
       <c r="W20">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2287,7 +2287,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183389</v>
+        <v>6183393</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,58 +2307,58 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L21">
         <v>3.5</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
-      </c>
-      <c r="S21">
-        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V21">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183672</v>
+        <v>6183392</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,40 +2396,40 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O22">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P22">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>1.825</v>
@@ -2438,19 +2438,19 @@
         <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
+        <v>1.95</v>
+      </c>
+      <c r="V22">
         <v>1.9</v>
       </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X22">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
@@ -2465,7 +2465,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183390</v>
+        <v>6183389</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O23">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183391</v>
+        <v>6183390</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,55 +2574,55 @@
         <v>45104.5</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N24">
+        <v>1.363</v>
+      </c>
+      <c r="O24">
+        <v>4.333</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>-1.25</v>
+      </c>
+      <c r="R24">
         <v>1.85</v>
       </c>
-      <c r="O24">
-        <v>3.5</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.9</v>
-      </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2631,19 +2631,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183392</v>
+        <v>6183391</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
         <v>32</v>
       </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.9</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183396</v>
+        <v>6183395</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,10 +2841,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2856,43 +2856,43 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>3.1</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O27">
         <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,13 +2901,13 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183395</v>
+        <v>6183396</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,10 +3019,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3034,43 +3034,43 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>3.1</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O29">
         <v>3.1</v>
       </c>
       <c r="P29">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,13 +3079,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,10 +3108,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>2.9</v>
+      </c>
+      <c r="L33">
+        <v>3.2</v>
+      </c>
+      <c r="M33">
+        <v>2.3</v>
+      </c>
+      <c r="N33">
+        <v>2.45</v>
+      </c>
+      <c r="O33">
+        <v>3.2</v>
+      </c>
+      <c r="P33">
+        <v>2.7</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>2.375</v>
-      </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.9</v>
-      </c>
-      <c r="N33">
-        <v>2.15</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>3.1</v>
-      </c>
-      <c r="Q33">
-        <v>-0.25</v>
-      </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183401</v>
+        <v>6183402</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,16 +3464,16 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -3488,31 +3488,31 @@
         <v>2.3</v>
       </c>
       <c r="N34">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
+        <v>1.975</v>
+      </c>
+      <c r="V34">
         <v>1.875</v>
-      </c>
-      <c r="V34">
-        <v>1.975</v>
       </c>
       <c r="W34">
         <v>-1</v>
@@ -3524,16 +3524,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
         <v>0.875</v>
-      </c>
-      <c r="AC34">
-        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
+        <v>2.375</v>
+      </c>
+      <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
         <v>2.9</v>
       </c>
-      <c r="L36">
-        <v>3.2</v>
-      </c>
-      <c r="M36">
-        <v>2.3</v>
-      </c>
       <c r="N36">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q36">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,10 +3731,10 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4265,10 +4265,10 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W44">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA45">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4977,10 +4977,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5069,7 +5069,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183421</v>
+        <v>6183420</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45145.5</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P56">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z56">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183420</v>
+        <v>6183421</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45145.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L57">
         <v>3.5</v>
       </c>
       <c r="M57">
+        <v>1.8</v>
+      </c>
+      <c r="N57">
+        <v>3.75</v>
+      </c>
+      <c r="O57">
+        <v>3.3</v>
+      </c>
+      <c r="P57">
+        <v>2.05</v>
+      </c>
+      <c r="Q57">
+        <v>0.5</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
         <v>2.25</v>
       </c>
-      <c r="N57">
-        <v>3.1</v>
-      </c>
-      <c r="O57">
-        <v>3.6</v>
-      </c>
-      <c r="P57">
-        <v>2.25</v>
-      </c>
-      <c r="Q57">
-        <v>0.25</v>
-      </c>
-      <c r="R57">
-        <v>1.85</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
-      <c r="T57">
+      <c r="U57">
+        <v>1.95</v>
+      </c>
+      <c r="V57">
+        <v>1.9</v>
+      </c>
+      <c r="W57">
         <v>2.75</v>
       </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-      <c r="V57">
-        <v>1.85</v>
-      </c>
-      <c r="W57">
-        <v>-1</v>
-      </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5600,7 +5600,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5689,10 +5689,10 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>45159.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,10 +6668,10 @@
         <v>45163.5</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
+        <v>3.3</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
         <v>3.4</v>
       </c>
-      <c r="M73">
-        <v>4.2</v>
-      </c>
-      <c r="N73">
-        <v>1.909</v>
-      </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>2.025</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>1.9</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>2.5</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.5125</v>
+      </c>
+      <c r="AA73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.9</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>0.95</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-0.5</v>
-      </c>
       <c r="AC73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,73 +7027,73 @@
         <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
+        <v>1.8</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>4.2</v>
+      </c>
+      <c r="N74">
+        <v>1.909</v>
+      </c>
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3.75</v>
       </c>
-      <c r="L74">
-        <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>3.4</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>2.05</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>-0.5</v>
       </c>
-      <c r="AB74">
-        <v>0.95</v>
-      </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,10 +7113,10 @@
         <v>45165.5</v>
       </c>
       <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6183437</v>
+        <v>6183440</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,40 +7291,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L77">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="N77">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O77">
         <v>3.6</v>
       </c>
       <c r="P77">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
         <v>1.975</v>
@@ -7333,34 +7333,34 @@
         <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z77">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB77">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,10 +7380,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="s">
         <v>40</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>38</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183439</v>
+        <v>6183438</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,73 +7558,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O80">
         <v>3.25</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
+        <v>1.825</v>
+      </c>
+      <c r="V80">
         <v>2.025</v>
       </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X80">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA80">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6183438</v>
+        <v>6183439</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,73 +7647,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O81">
         <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
+        <v>2.025</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="V81">
-        <v>2.025</v>
-      </c>
       <c r="W81">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183440</v>
+        <v>6183437</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,40 +7736,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
         <v>32</v>
       </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
       <c r="H82">
+        <v>2</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O82">
         <v>3.6</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
         <v>1.975</v>
@@ -7778,34 +7778,34 @@
         <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,46 +7825,46 @@
         <v>45184.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7876,19 +7876,19 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
         <v>1.05</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,46 +7914,46 @@
         <v>45184.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7965,19 +7965,19 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>1.05</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183413</v>
+        <v>7183906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>3.3</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>1.8</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>3.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.85</v>
-      </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.8</v>
       </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7183906</v>
+        <v>7183902</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M86">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8134,7 +8134,7 @@
         <v>2.05</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
         <v>1.85</v>
@@ -8143,19 +8143,19 @@
         <v>2</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB86">
         <v>0.8500000000000001</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7183902</v>
+        <v>7183413</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
+        <v>1.615</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>4.5</v>
+      </c>
+      <c r="N87">
+        <v>1.8</v>
+      </c>
+      <c r="O87">
+        <v>3.6</v>
+      </c>
+      <c r="P87">
+        <v>3.8</v>
+      </c>
+      <c r="Q87">
+        <v>-0.5</v>
+      </c>
+      <c r="R87">
+        <v>1.85</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
         <v>2.5</v>
       </c>
-      <c r="L87">
-        <v>3.2</v>
-      </c>
-      <c r="M87">
-        <v>2.75</v>
-      </c>
-      <c r="N87">
-        <v>2.5</v>
-      </c>
-      <c r="O87">
-        <v>3.1</v>
-      </c>
-      <c r="P87">
-        <v>2.75</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2.05</v>
-      </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,10 +8359,10 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8448,7 +8448,7 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8540,7 +8540,7 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,10 +8626,10 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8982,10 +8982,10 @@
         <v>45196.5</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.8</v>
       </c>
       <c r="L97">
+        <v>3.75</v>
+      </c>
+      <c r="M97">
+        <v>4.2</v>
+      </c>
+      <c r="N97">
+        <v>1.75</v>
+      </c>
+      <c r="O97">
         <v>3.8</v>
       </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
-      <c r="N97">
-        <v>1.95</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9116,31 +9116,31 @@
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>1</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,40 +9160,40 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.8</v>
       </c>
       <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>1.95</v>
+      </c>
+      <c r="O98">
         <v>3.75</v>
       </c>
-      <c r="M98">
-        <v>4.2</v>
-      </c>
-      <c r="N98">
-        <v>1.75</v>
-      </c>
-      <c r="O98">
-        <v>3.8</v>
-      </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9205,31 +9205,31 @@
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X98">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>35</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9605,10 +9605,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9694,7 +9694,7 @@
         <v>45207.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>35</v>
@@ -9783,10 +9783,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9875,7 +9875,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183928</v>
+        <v>7183929</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,55 +9961,55 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10018,19 +10018,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,55 +10050,55 @@
         <v>45220.375</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10107,19 +10107,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,10 +10139,10 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
         <v>2</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.95</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>3.3</v>
+      </c>
+      <c r="N111">
+        <v>2.2</v>
+      </c>
+      <c r="O111">
+        <v>3.3</v>
+      </c>
+      <c r="P111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.5</v>
-      </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>1.6</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
-      <c r="P111">
-        <v>4.5</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10409,7 +10409,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10495,7 +10495,7 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10587,7 +10587,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>6</v>
@@ -10673,10 +10673,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10762,10 +10762,10 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,10 +106,10 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>KTP</t>
+    <t>HJK Helsinki</t>
   </si>
   <si>
-    <t>HJK Helsinki</t>
+    <t>KTP</t>
   </si>
   <si>
     <t>AC Oulu</t>
@@ -121,13 +121,13 @@
     <t>FC Ilves</t>
   </si>
   <si>
-    <t>FC Lahti</t>
+    <t>FC Honka</t>
   </si>
   <si>
     <t>FC Haka</t>
   </si>
   <si>
-    <t>FC Honka</t>
+    <t>FC Lahti</t>
   </si>
   <si>
     <t>SJK</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183376</v>
+        <v>6183671</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,37 +708,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
         <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
         <v>1.925</v>
@@ -747,34 +747,34 @@
         <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
         <v>0.925</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183671</v>
+        <v>6183376</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,37 +797,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.925</v>
@@ -836,34 +836,34 @@
         <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>5.5</v>
+      </c>
+      <c r="N8">
+        <v>1.5</v>
+      </c>
+      <c r="O8">
         <v>3.8</v>
       </c>
-      <c r="M8">
-        <v>1.533</v>
-      </c>
-      <c r="N8">
-        <v>5.25</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
       <c r="P8">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183382</v>
+        <v>6183379</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,61 +1328,61 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
         <v>1.95</v>
       </c>
-      <c r="S10">
-        <v>1.9</v>
-      </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X10">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
@@ -1394,10 +1394,10 @@
         <v>-0</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183903</v>
+        <v>6183382</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,40 +1417,40 @@
         <v>45084.5</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,19 +1459,19 @@
         <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1483,10 +1483,10 @@
         <v>-0</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183379</v>
+        <v>6183381</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45084.5</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N12">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6183384</v>
+        <v>6183385</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,10 +1684,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1699,19 +1699,19 @@
         <v>42</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O14">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
         <v>2.55</v>
@@ -1720,25 +1720,25 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
@@ -1750,10 +1750,10 @@
         <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6183385</v>
+        <v>6183384</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1788,19 +1788,19 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N15">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P15">
         <v>2.55</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -1839,10 +1839,10 @@
         <v>-0</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,10 +1951,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183672</v>
+        <v>6183389</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45104.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>3.8</v>
+      </c>
+      <c r="N20">
+        <v>2.15</v>
+      </c>
+      <c r="O20">
         <v>3.4</v>
       </c>
-      <c r="M20">
+      <c r="P20">
+        <v>3.1</v>
+      </c>
+      <c r="Q20">
+        <v>-0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
         <v>1.8</v>
       </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>3.6</v>
-      </c>
-      <c r="P20">
-        <v>1.727</v>
-      </c>
-      <c r="Q20">
-        <v>0.75</v>
-      </c>
-      <c r="R20">
-        <v>1.825</v>
-      </c>
-      <c r="S20">
-        <v>2.025</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X20">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183393</v>
+        <v>6183391</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,34 +2307,34 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>1.85</v>
+      </c>
+      <c r="O21">
         <v>3.5</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-      <c r="N21">
-        <v>1.833</v>
-      </c>
-      <c r="O21">
-        <v>3.4</v>
       </c>
       <c r="P21">
         <v>4</v>
@@ -2349,34 +2349,34 @@
         <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.95</v>
+      </c>
+      <c r="AB21">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,10 +2396,10 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183389</v>
+        <v>6183393</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,58 +2485,58 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="L23">
         <v>3.5</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O23">
         <v>3.4</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
         <v>1.95</v>
-      </c>
-      <c r="S23">
-        <v>1.9</v>
       </c>
       <c r="T23">
         <v>2.25</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V23">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2545,16 +2545,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183391</v>
+        <v>6183672</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,46 +2663,46 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
         <v>3.4</v>
       </c>
       <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
         <v>4</v>
       </c>
-      <c r="N25">
-        <v>1.85</v>
-      </c>
       <c r="O25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
         <v>2.5</v>
@@ -2717,22 +2717,22 @@
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.95</v>
-      </c>
-      <c r="AB25">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183395</v>
+        <v>6183394</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>2.625</v>
+      </c>
+      <c r="L27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>3.1</v>
-      </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.9</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
       <c r="W27">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6183394</v>
+        <v>6183395</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N28">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC28">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3286,10 +3286,10 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183401</v>
+        <v>6183402</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,16 +3375,16 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
@@ -3399,31 +3399,31 @@
         <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
         <v>2.5</v>
       </c>
       <c r="U33">
+        <v>1.975</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
-      </c>
-      <c r="V33">
-        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3435,16 +3435,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.875</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
+        <v>2.375</v>
+      </c>
+      <c r="L34">
+        <v>3.1</v>
+      </c>
+      <c r="M34">
         <v>2.9</v>
       </c>
-      <c r="L34">
-        <v>3.2</v>
-      </c>
-      <c r="M34">
-        <v>2.3</v>
-      </c>
       <c r="N34">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X34">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6183400</v>
+        <v>6183401</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6183905</v>
+        <v>6183400</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,40 +3642,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R36">
         <v>1.9</v>
@@ -3687,31 +3687,31 @@
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>45123.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4268,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA44">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183410</v>
+        <v>6183411</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45130.375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M51">
+        <v>5.75</v>
+      </c>
+      <c r="N51">
+        <v>1.5</v>
+      </c>
+      <c r="O51">
         <v>4</v>
       </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.25</v>
-      </c>
       <c r="P51">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R51">
+        <v>1.875</v>
+      </c>
+      <c r="S51">
+        <v>1.975</v>
+      </c>
+      <c r="T51">
+        <v>2.5</v>
+      </c>
+      <c r="U51">
+        <v>1.9</v>
+      </c>
+      <c r="V51">
         <v>1.95</v>
       </c>
-      <c r="S51">
-        <v>1.9</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.85</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5037,16 +5037,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
+        <v>0.875</v>
+      </c>
+      <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.95</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC51">
-        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,58 +5066,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
+        <v>3.2</v>
+      </c>
+      <c r="M52">
         <v>4</v>
       </c>
-      <c r="M52">
-        <v>5.75</v>
-      </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P52">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>39</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6183420</v>
+        <v>6183421</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,76 +5422,76 @@
         <v>45145.5</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="L56">
         <v>3.5</v>
       </c>
       <c r="M56">
+        <v>1.8</v>
+      </c>
+      <c r="N56">
+        <v>3.75</v>
+      </c>
+      <c r="O56">
+        <v>3.3</v>
+      </c>
+      <c r="P56">
+        <v>2.05</v>
+      </c>
+      <c r="Q56">
+        <v>0.5</v>
+      </c>
+      <c r="R56">
+        <v>1.825</v>
+      </c>
+      <c r="S56">
+        <v>2.025</v>
+      </c>
+      <c r="T56">
         <v>2.25</v>
       </c>
-      <c r="N56">
-        <v>3.1</v>
-      </c>
-      <c r="O56">
-        <v>3.6</v>
-      </c>
-      <c r="P56">
-        <v>2.25</v>
-      </c>
-      <c r="Q56">
-        <v>0.25</v>
-      </c>
-      <c r="R56">
-        <v>1.85</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
+      <c r="U56">
+        <v>1.95</v>
+      </c>
+      <c r="V56">
+        <v>1.9</v>
+      </c>
+      <c r="W56">
         <v>2.75</v>
       </c>
-      <c r="U56">
-        <v>2</v>
-      </c>
-      <c r="V56">
-        <v>1.85</v>
-      </c>
-      <c r="W56">
-        <v>-1</v>
-      </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6183421</v>
+        <v>6183420</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45145.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>3.5</v>
       </c>
       <c r="M57">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N57">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="Q57">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z57">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6134,7 +6134,7 @@
         <v>45156.5</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>40</v>
@@ -6226,7 +6226,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6579,7 +6579,7 @@
         <v>45159.5</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -6671,7 +6671,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
+        <v>1.8</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>4.2</v>
+      </c>
+      <c r="N73">
+        <v>1.909</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
         <v>3.75</v>
       </c>
-      <c r="L73">
-        <v>3.3</v>
-      </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>3.4</v>
-      </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>2.05</v>
-      </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X73">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>-0.5</v>
       </c>
-      <c r="AB73">
-        <v>0.95</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L74">
+        <v>3.3</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
         <v>3.4</v>
       </c>
-      <c r="M74">
-        <v>4.2</v>
-      </c>
-      <c r="N74">
-        <v>1.909</v>
-      </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
+        <v>0.25</v>
+      </c>
+      <c r="R74">
+        <v>2.025</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
+        <v>1.9</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>2.5</v>
+      </c>
+      <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
+        <v>0.5125</v>
+      </c>
+      <c r="AA74">
         <v>-0.5</v>
       </c>
-      <c r="R74">
-        <v>1.95</v>
-      </c>
-      <c r="S74">
-        <v>1.9</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
-      <c r="W74">
-        <v>0.909</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>-0.5</v>
-      </c>
       <c r="AC74">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>45168.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6183440</v>
+        <v>6183909</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,76 +7291,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M77">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q77">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
+        <v>2.025</v>
+      </c>
+      <c r="V77">
+        <v>1.825</v>
+      </c>
+      <c r="W77">
         <v>1.9</v>
       </c>
-      <c r="V77">
-        <v>1.95</v>
-      </c>
-      <c r="W77">
-        <v>-1</v>
-      </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA77">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183909</v>
+        <v>6183440</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N79">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
+        <v>1.975</v>
+      </c>
+      <c r="S79">
+        <v>1.875</v>
+      </c>
+      <c r="T79">
+        <v>2.5</v>
+      </c>
+      <c r="U79">
         <v>1.9</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>1.95</v>
       </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.825</v>
-      </c>
       <c r="W79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z79">
+        <v>-1</v>
+      </c>
+      <c r="AA79">
+        <v>0.875</v>
+      </c>
+      <c r="AB79">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA79">
-        <v>-1</v>
-      </c>
-      <c r="AB79">
-        <v>-1</v>
-      </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183438</v>
+        <v>6183439</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,73 +7558,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L80">
         <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N80">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O80">
         <v>3.25</v>
       </c>
       <c r="P80">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
+        <v>2.025</v>
+      </c>
+      <c r="V80">
         <v>1.825</v>
       </c>
-      <c r="V80">
-        <v>2.025</v>
-      </c>
       <c r="W80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6183439</v>
+        <v>6183437</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,49 +7647,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="O81">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P81">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
         <v>2.025</v>
@@ -7698,25 +7698,25 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X81">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.4875</v>
+      </c>
+      <c r="AA81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.4625</v>
-      </c>
       <c r="AB81">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183437</v>
+        <v>6183438</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,40 +7736,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
+        <v>2.3</v>
+      </c>
+      <c r="N82">
+        <v>2.7</v>
+      </c>
+      <c r="O82">
         <v>3.25</v>
       </c>
-      <c r="N82">
-        <v>1.727</v>
-      </c>
-      <c r="O82">
-        <v>3.6</v>
-      </c>
       <c r="P82">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>1.975</v>
@@ -7778,16 +7778,16 @@
         <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U82">
+        <v>1.825</v>
+      </c>
+      <c r="V82">
         <v>2.025</v>
       </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
-        <v>0.7270000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7796,16 +7796,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7914,10 +7914,10 @@
         <v>45184.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,58 +8003,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
         <v>1.8</v>
@@ -8134,7 +8134,7 @@
         <v>2.05</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
         <v>1.85</v>
@@ -8143,19 +8143,19 @@
         <v>2</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>0.8500000000000001</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,76 +8181,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87">
+        <v>2.5</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
+        <v>2.75</v>
+      </c>
+      <c r="N87">
+        <v>2.5</v>
+      </c>
+      <c r="O87">
+        <v>3.1</v>
+      </c>
+      <c r="P87">
+        <v>2.75</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
-      <c r="J87" t="s">
-        <v>41</v>
-      </c>
-      <c r="K87">
-        <v>1.615</v>
-      </c>
-      <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>4.5</v>
-      </c>
-      <c r="N87">
+      <c r="R87">
         <v>1.8</v>
       </c>
-      <c r="O87">
-        <v>3.6</v>
-      </c>
-      <c r="P87">
-        <v>3.8</v>
-      </c>
-      <c r="Q87">
-        <v>-0.5</v>
-      </c>
-      <c r="R87">
+      <c r="S87">
+        <v>2.05</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
         <v>1.85</v>
       </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <v>2.5</v>
-      </c>
-      <c r="U87">
-        <v>1.9</v>
-      </c>
       <c r="V87">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>1.05</v>
+      </c>
+      <c r="AB87">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
       <c r="AC87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8448,7 +8448,7 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>34</v>
@@ -8537,7 +8537,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
         <v>32</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45196.5</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
+        <v>1.85</v>
+      </c>
+      <c r="L95">
+        <v>3.5</v>
+      </c>
+      <c r="M95">
+        <v>4.2</v>
+      </c>
+      <c r="N95">
         <v>1.8</v>
       </c>
-      <c r="L95">
+      <c r="O95">
         <v>3.6</v>
       </c>
-      <c r="M95">
+      <c r="P95">
         <v>4.333</v>
       </c>
-      <c r="N95">
-        <v>1.909</v>
-      </c>
-      <c r="O95">
-        <v>3.5</v>
-      </c>
-      <c r="P95">
-        <v>4</v>
-      </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,13 +8953,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45196.5</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>41</v>
       </c>
       <c r="K96">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
+        <v>3.6</v>
+      </c>
+      <c r="M96">
+        <v>4.333</v>
+      </c>
+      <c r="N96">
+        <v>1.909</v>
+      </c>
+      <c r="O96">
         <v>3.5</v>
       </c>
-      <c r="M96">
-        <v>4.2</v>
-      </c>
-      <c r="N96">
-        <v>1.8</v>
-      </c>
-      <c r="O96">
-        <v>3.6</v>
-      </c>
       <c r="P96">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,13 +9042,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>1.8</v>
       </c>
       <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>1.95</v>
+      </c>
+      <c r="O97">
         <v>3.75</v>
       </c>
-      <c r="M97">
-        <v>4.2</v>
-      </c>
-      <c r="N97">
-        <v>1.75</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9116,31 +9116,31 @@
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,40 +9160,40 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.8</v>
       </c>
       <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
         <v>3.8</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9205,31 +9205,31 @@
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9252,7 +9252,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9608,7 +9608,7 @@
         <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9697,7 +9697,7 @@
         <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9786,7 +9786,7 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -9875,7 +9875,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,55 +9961,55 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10018,19 +10018,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,76 +10050,76 @@
         <v>45220.375</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
+        <v>2.9</v>
+      </c>
+      <c r="N108">
         <v>3</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
       </c>
       <c r="O108">
         <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA108">
+        <v>-0.5</v>
+      </c>
+      <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7183930</v>
+        <v>7183929</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,76 +10139,76 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
+        <v>3.2</v>
+      </c>
+      <c r="M109">
+        <v>2.4</v>
+      </c>
+      <c r="N109">
+        <v>2.5</v>
+      </c>
+      <c r="O109">
         <v>3.5</v>
       </c>
-      <c r="M109">
-        <v>2.9</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
-      <c r="O109">
-        <v>3.6</v>
-      </c>
       <c r="P109">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>3</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z109">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3.4</v>
+      </c>
+      <c r="M110">
+        <v>3.3</v>
+      </c>
+      <c r="N110">
+        <v>2.2</v>
+      </c>
+      <c r="O110">
+        <v>3.3</v>
+      </c>
+      <c r="P110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>3.5</v>
-      </c>
-      <c r="M110">
-        <v>3.2</v>
-      </c>
-      <c r="N110">
-        <v>1.6</v>
-      </c>
-      <c r="O110">
-        <v>4</v>
-      </c>
-      <c r="P110">
-        <v>4.5</v>
-      </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K111">
         <v>2</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2.05</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.975</v>
       </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.95</v>
-      </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,73 +10495,73 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,73 +10584,73 @@
         <v>45224.5</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10673,7 +10673,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
@@ -10762,7 +10762,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10854,7 +10854,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,19 +106,22 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>HJK Helsinki</t>
+    <t>KuPS Kuopio</t>
+  </si>
+  <si>
+    <t>AC Oulu</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>AC Oulu</t>
-  </si>
-  <si>
-    <t>KuPS Kuopio</t>
+    <t>HJK Helsinki</t>
   </si>
   <si>
     <t>FC Ilves</t>
+  </si>
+  <si>
+    <t>FC Lahti</t>
   </si>
   <si>
     <t>FC Honka</t>
@@ -127,16 +130,13 @@
     <t>FC Haka</t>
   </si>
   <si>
-    <t>FC Lahti</t>
-  </si>
-  <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
     <t>H</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183671</v>
+        <v>6183375</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M3">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N3">
+        <v>1.6</v>
+      </c>
+      <c r="O3">
+        <v>3.75</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>-0.75</v>
+      </c>
+      <c r="R3">
         <v>1.85</v>
       </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>4.2</v>
-      </c>
-      <c r="Q3">
-        <v>-0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,52 +800,52 @@
         <v>40</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W4">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -854,16 +854,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183377</v>
+        <v>6183376</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>39</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>0.75</v>
+        <v>1.55</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183375</v>
+        <v>6183671</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N6">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W6">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183903</v>
+        <v>6183379</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,10 +1150,10 @@
         <v>45084.5</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1174,34 +1174,34 @@
         <v>5.5</v>
       </c>
       <c r="N8">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <v>-1</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.9</v>
-      </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1216,10 +1216,10 @@
         <v>-0</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1239,10 +1239,10 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183379</v>
+        <v>6183381</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,76 +1328,76 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N10">
-        <v>1.533</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183382</v>
+        <v>6183903</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,19 +1459,19 @@
         <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1483,10 +1483,10 @@
         <v>-0</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC11">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183381</v>
+        <v>6183382</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="L12">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N12">
-        <v>5.25</v>
+        <v>2.55</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
         <v>1.85</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y12">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>-0</v>
+      </c>
+      <c r="AB12">
         <v>-0.5</v>
       </c>
-      <c r="AA12">
-        <v>0.4</v>
-      </c>
-      <c r="AB12">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183904</v>
+        <v>6183388</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.125</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T16">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6183387</v>
+        <v>6183386</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>3.3</v>
+      </c>
+      <c r="M17">
+        <v>1.85</v>
+      </c>
+      <c r="N17">
+        <v>3.8</v>
+      </c>
+      <c r="O17">
+        <v>3.3</v>
+      </c>
+      <c r="P17">
+        <v>1.909</v>
+      </c>
+      <c r="Q17">
+        <v>0.5</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
+        <v>1.825</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>0.909</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17">
-        <v>1.333</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-      <c r="M17">
-        <v>7</v>
-      </c>
-      <c r="N17">
-        <v>1.333</v>
-      </c>
-      <c r="O17">
-        <v>5</v>
-      </c>
-      <c r="P17">
-        <v>7.5</v>
-      </c>
-      <c r="Q17">
-        <v>-1.5</v>
-      </c>
-      <c r="R17">
-        <v>2.025</v>
-      </c>
-      <c r="S17">
-        <v>1.825</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
-      <c r="W17">
-        <v>0.333</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>0.825</v>
-      </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183388</v>
+        <v>6183387</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,10 +2040,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2055,43 +2055,43 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>2.6</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>2.8</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="S18">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>1.8</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183386</v>
+        <v>6183904</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,7 +2132,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2144,41 +2144,41 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
         <v>3.3</v>
       </c>
       <c r="M19">
+        <v>1.909</v>
+      </c>
+      <c r="N19">
+        <v>3.3</v>
+      </c>
+      <c r="O19">
+        <v>3.1</v>
+      </c>
+      <c r="P19">
+        <v>2.1</v>
+      </c>
+      <c r="Q19">
+        <v>0.25</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
-      </c>
-      <c r="N19">
-        <v>3.8</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>1.909</v>
-      </c>
-      <c r="Q19">
-        <v>0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>2.025</v>
       </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
@@ -2186,19 +2186,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB19">
         <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.4125</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183389</v>
+        <v>6183391</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45104.5</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
+        <v>1.833</v>
+      </c>
+      <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
         <v>1.85</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>3.5</v>
       </c>
-      <c r="M20">
-        <v>3.8</v>
-      </c>
-      <c r="N20">
-        <v>2.15</v>
-      </c>
-      <c r="O20">
-        <v>3.4</v>
-      </c>
       <c r="P20">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
+        <v>1.9</v>
+      </c>
+      <c r="S20">
         <v>1.95</v>
       </c>
-      <c r="S20">
+      <c r="T20">
+        <v>2.5</v>
+      </c>
+      <c r="U20">
         <v>1.9</v>
       </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.8</v>
-      </c>
       <c r="V20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
         <v>0.95</v>
       </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183391</v>
+        <v>6183390</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,55 +2307,55 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="I21">
-        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>43</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>1.45</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N21">
+        <v>1.363</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>-1.25</v>
+      </c>
+      <c r="R21">
         <v>1.85</v>
       </c>
-      <c r="O21">
-        <v>3.5</v>
-      </c>
-      <c r="P21">
-        <v>4</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.9</v>
-      </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2364,19 +2364,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183392</v>
+        <v>6183389</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,58 +2396,58 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
       </c>
       <c r="K22">
+        <v>1.85</v>
+      </c>
+      <c r="L22">
+        <v>3.5</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
         <v>2.15</v>
       </c>
-      <c r="L22">
-        <v>3.25</v>
-      </c>
-      <c r="M22">
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
         <v>3.1</v>
       </c>
-      <c r="N22">
-        <v>2.375</v>
-      </c>
-      <c r="O22">
-        <v>3.3</v>
-      </c>
-      <c r="P22">
-        <v>2.7</v>
-      </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W22">
-        <v>1.375</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2456,16 +2456,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183393</v>
+        <v>6183672</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,67 +2485,67 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N23">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
         <v>1.9</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.925</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2554,7 +2554,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183390</v>
+        <v>6183393</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45104.5</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="L24">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="O24">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183672</v>
+        <v>6183392</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,40 +2663,40 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L25">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>1.825</v>
@@ -2705,19 +2705,19 @@
         <v>2.025</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.9</v>
       </c>
-      <c r="V25">
-        <v>1.95</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3019,10 +3019,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3108,10 +3108,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3197,10 +3197,10 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3286,10 +3286,10 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
@@ -3467,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3642,10 +3642,10 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3731,10 +3731,10 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>45123.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4179,7 +4179,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183409</v>
+        <v>6183411</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,73 +4265,73 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P43">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
+        <v>1.775</v>
+      </c>
+      <c r="S43">
+        <v>2.1</v>
+      </c>
+      <c r="T43">
+        <v>2.5</v>
+      </c>
+      <c r="U43">
         <v>2.05</v>
       </c>
-      <c r="S43">
+      <c r="V43">
         <v>1.8</v>
       </c>
-      <c r="T43">
-        <v>2.75</v>
-      </c>
-      <c r="U43">
-        <v>2.025</v>
-      </c>
-      <c r="V43">
-        <v>1.825</v>
-      </c>
       <c r="W43">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>1.1</v>
+      </c>
+      <c r="AB43">
         <v>1.05</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>1.025</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,58 +4354,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L44">
+        <v>3.6</v>
+      </c>
+      <c r="M44">
+        <v>4.333</v>
+      </c>
+      <c r="N44">
+        <v>1.75</v>
+      </c>
+      <c r="O44">
+        <v>3.6</v>
+      </c>
+      <c r="P44">
         <v>4</v>
-      </c>
-      <c r="M44">
-        <v>6.5</v>
-      </c>
-      <c r="N44">
-        <v>1.7</v>
-      </c>
-      <c r="O44">
-        <v>3.5</v>
-      </c>
-      <c r="P44">
-        <v>4.75</v>
       </c>
       <c r="Q44">
         <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4414,16 +4414,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M45">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA45">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,10 +4532,10 @@
         <v>45130.375</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,10 +4888,10 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6183417</v>
+        <v>6183416</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>31</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
       </c>
       <c r="K51">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L51">
+        <v>3.2</v>
+      </c>
+      <c r="M51">
         <v>4</v>
       </c>
-      <c r="M51">
-        <v>5.75</v>
-      </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P51">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5037,16 +5037,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6183416</v>
+        <v>6183417</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,58 +5066,58 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
       </c>
       <c r="H52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M52">
+        <v>5.75</v>
+      </c>
+      <c r="N52">
+        <v>1.5</v>
+      </c>
+      <c r="O52">
         <v>4</v>
       </c>
-      <c r="N52">
-        <v>1.909</v>
-      </c>
-      <c r="O52">
-        <v>3.25</v>
-      </c>
       <c r="P52">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R52">
+        <v>1.875</v>
+      </c>
+      <c r="S52">
+        <v>1.975</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
         <v>1.95</v>
       </c>
-      <c r="S52">
-        <v>1.9</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
-      <c r="U52">
-        <v>1.85</v>
-      </c>
-      <c r="V52">
-        <v>2</v>
-      </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
+        <v>0.875</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.95</v>
-      </c>
-      <c r="AA52">
-        <v>-1</v>
-      </c>
-      <c r="AB52">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5422,10 +5422,10 @@
         <v>45145.5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5511,7 +5511,7 @@
         <v>45145.5</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5600,7 +5600,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5689,10 +5689,10 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,10 +5778,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6134,10 +6134,10 @@
         <v>45156.5</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6579,10 +6579,10 @@
         <v>45159.5</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,10 +6668,10 @@
         <v>45163.5</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6183435</v>
+        <v>6183436</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
+        <v>3.3</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
         <v>3.4</v>
       </c>
-      <c r="M73">
-        <v>4.2</v>
-      </c>
-      <c r="N73">
-        <v>1.909</v>
-      </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>2.025</v>
+      </c>
+      <c r="S73">
+        <v>1.825</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
+        <v>1.95</v>
+      </c>
+      <c r="V73">
+        <v>1.9</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>2.5</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.5125</v>
+      </c>
+      <c r="AA73">
         <v>-0.5</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.9</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.975</v>
-      </c>
-      <c r="W73">
-        <v>0.909</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>0.95</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-0.5</v>
-      </c>
       <c r="AC73">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6183436</v>
+        <v>6183435</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,73 +7027,73 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
+        <v>1.8</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>4.2</v>
+      </c>
+      <c r="N74">
+        <v>1.909</v>
+      </c>
+      <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3.75</v>
       </c>
-      <c r="L74">
-        <v>3.3</v>
-      </c>
-      <c r="M74">
-        <v>2</v>
-      </c>
-      <c r="N74">
-        <v>3.4</v>
-      </c>
-      <c r="O74">
-        <v>3.5</v>
-      </c>
-      <c r="P74">
-        <v>2.05</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X74">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>-0.5</v>
       </c>
-      <c r="AB74">
-        <v>0.95</v>
-      </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7113,10 +7113,10 @@
         <v>45165.5</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>45168.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7279,7 +7279,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6183909</v>
+        <v>6183437</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7291,46 +7291,46 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>41</v>
       </c>
       <c r="K77">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7342,7 +7342,7 @@
         <v>1.825</v>
       </c>
       <c r="W77">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7351,16 +7351,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC77">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183441</v>
+        <v>6183438</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,73 +7380,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L78">
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O78">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC78">
         <v>-1</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183440</v>
+        <v>6183439</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,73 +7469,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="N79">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P79">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183439</v>
+        <v>6183440</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,73 +7558,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="N80">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S80">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AB80">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6183437</v>
+        <v>6183441</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,76 +7647,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81">
+        <v>3.5</v>
+      </c>
+      <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81">
+        <v>1.909</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>3.3</v>
+      </c>
+      <c r="P81">
+        <v>2.2</v>
+      </c>
+      <c r="Q81">
+        <v>0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
+        <v>1.85</v>
+      </c>
+      <c r="V81">
+        <v>2</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>1.2</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>1</v>
       </c>
-      <c r="J81" t="s">
-        <v>41</v>
-      </c>
-      <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <v>3.5</v>
-      </c>
-      <c r="M81">
-        <v>3.25</v>
-      </c>
-      <c r="N81">
-        <v>1.727</v>
-      </c>
-      <c r="O81">
-        <v>3.6</v>
-      </c>
-      <c r="P81">
-        <v>4</v>
-      </c>
-      <c r="Q81">
-        <v>-0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.875</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>2.025</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
-      <c r="W81">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
-        <v>0.4875</v>
-      </c>
-      <c r="AA81">
-        <v>-0.5</v>
-      </c>
       <c r="AB81">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183438</v>
+        <v>6183909</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,55 +7739,55 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
       </c>
       <c r="K82">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
         <v>2.3</v>
       </c>
       <c r="N82">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
+        <v>2.025</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="V82">
-        <v>2.025</v>
-      </c>
       <c r="W82">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7796,16 +7796,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.825</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,46 +7825,46 @@
         <v>45184.5</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7876,19 +7876,19 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>1.05</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,43 +7917,43 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7965,19 +7965,19 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
         <v>1.05</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183413</v>
+        <v>7183906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>3.3</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>1.8</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>3.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.85</v>
-      </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.8</v>
       </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
       </c>
       <c r="K86">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P86">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S86">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA86">
         <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8270,10 +8270,10 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7183907</v>
+        <v>7183919</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,10 +8359,10 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8374,41 +8374,41 @@
         <v>43</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>2.55</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
         <v>3.5</v>
       </c>
-      <c r="M89">
-        <v>3.9</v>
-      </c>
-      <c r="N89">
-        <v>2.25</v>
-      </c>
-      <c r="O89">
-        <v>3.3</v>
-      </c>
       <c r="P89">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.875</v>
-      </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
       <c r="W89">
         <v>-1</v>
       </c>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>1.025</v>
+      </c>
+      <c r="AB89">
         <v>0.925</v>
-      </c>
-      <c r="AB89">
-        <v>0.875</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7183919</v>
+        <v>7183907</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,10 +8448,10 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8463,40 +8463,40 @@
         <v>43</v>
       </c>
       <c r="K90">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="N90">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8505,16 +8505,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,10 +8537,10 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,10 +8626,10 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8893,10 +8893,10 @@
         <v>45196.5</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>1.8</v>
       </c>
       <c r="L97">
+        <v>3.75</v>
+      </c>
+      <c r="M97">
+        <v>4.2</v>
+      </c>
+      <c r="N97">
+        <v>1.75</v>
+      </c>
+      <c r="O97">
         <v>3.8</v>
       </c>
-      <c r="M97">
-        <v>4</v>
-      </c>
-      <c r="N97">
-        <v>1.95</v>
-      </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9116,31 +9116,31 @@
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>1</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,40 +9160,40 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.8</v>
       </c>
       <c r="L98">
+        <v>3.8</v>
+      </c>
+      <c r="M98">
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>1.95</v>
+      </c>
+      <c r="O98">
         <v>3.75</v>
       </c>
-      <c r="M98">
-        <v>4.2</v>
-      </c>
-      <c r="N98">
-        <v>1.75</v>
-      </c>
-      <c r="O98">
-        <v>3.8</v>
-      </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9205,31 +9205,31 @@
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X98">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,10 +9249,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>45200.5</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>38</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9605,10 +9605,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9694,10 +9694,10 @@
         <v>45207.375</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F106" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" t="s">
         <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,73 +9964,73 @@
         <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
+        <v>2.9</v>
+      </c>
+      <c r="N107">
         <v>3</v>
-      </c>
-      <c r="N107">
-        <v>2.25</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S107">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA107">
+        <v>-0.5</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183930</v>
+        <v>7183928</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,73 +10053,73 @@
         <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>2.15</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N108">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
         <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z108">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
         <v>34</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183916</v>
+        <v>7183918</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,13 +10228,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -10243,41 +10243,41 @@
         <v>43</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L110">
         <v>3.4</v>
       </c>
       <c r="M110">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O110">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
+        <v>2.4</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>2.025</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
         <v>3</v>
       </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
+      <c r="U110">
         <v>1.975</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.875</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.95</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10285,19 +10285,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.825</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.875</v>
-      </c>
-      <c r="AB110">
-        <v>0.95</v>
-      </c>
-      <c r="AC110">
-        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>29</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7183918</v>
+        <v>7183916</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,13 +10406,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -10421,40 +10421,40 @@
         <v>43</v>
       </c>
       <c r="K112">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N112">
+        <v>2.2</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>3</v>
+      </c>
+      <c r="Q112">
+        <v>-0.25</v>
+      </c>
+      <c r="R112">
+        <v>1.975</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="O112">
-        <v>3.6</v>
-      </c>
-      <c r="P112">
-        <v>2.4</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>2.025</v>
-      </c>
-      <c r="S112">
-        <v>1.825</v>
-      </c>
-      <c r="T112">
-        <v>3</v>
-      </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10463,19 +10463,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,73 +10495,73 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,73 +10584,73 @@
         <v>45224.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N114">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W114">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10673,10 +10673,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10762,10 +10762,10 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,28 +106,28 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>KuPS Kuopio</t>
+    <t>AC Oulu</t>
   </si>
   <si>
-    <t>AC Oulu</t>
+    <t>HJK Helsinki</t>
   </si>
   <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>HJK Helsinki</t>
+    <t>KuPS Kuopio</t>
   </si>
   <si>
     <t>FC Ilves</t>
-  </si>
-  <si>
-    <t>FC Lahti</t>
   </si>
   <si>
     <t>FC Honka</t>
   </si>
   <si>
     <t>FC Haka</t>
+  </si>
+  <si>
+    <t>FC Lahti</t>
   </si>
   <si>
     <t>SJK</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183375</v>
+        <v>6183377</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,55 +708,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N3">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3">
         <v>-0.75</v>
       </c>
       <c r="R3">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>0.6000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -765,13 +765,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183377</v>
+        <v>6183671</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
+        <v>2.025</v>
+      </c>
+      <c r="V4">
         <v>1.825</v>
       </c>
-      <c r="V4">
-        <v>2.025</v>
-      </c>
       <c r="W4">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>0.825</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6183671</v>
+        <v>6183375</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M6">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N6">
+        <v>1.6</v>
+      </c>
+      <c r="O6">
+        <v>3.75</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>-0.75</v>
+      </c>
+      <c r="R6">
         <v>1.85</v>
       </c>
-      <c r="O6">
-        <v>3.2</v>
-      </c>
-      <c r="P6">
-        <v>4.2</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>1.925</v>
-      </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,70 +1331,70 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
+      <c r="N10">
+        <v>1.5</v>
+      </c>
+      <c r="O10">
         <v>3.8</v>
       </c>
-      <c r="M10">
-        <v>1.533</v>
-      </c>
-      <c r="N10">
-        <v>5.25</v>
-      </c>
-      <c r="O10">
-        <v>3.5</v>
-      </c>
       <c r="P10">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R10">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183903</v>
+        <v>6183382</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,37 +1420,37 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>1.95</v>
@@ -1459,19 +1459,19 @@
         <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1483,10 +1483,10 @@
         <v>-0</v>
       </c>
       <c r="AB11">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183382</v>
+        <v>6183381</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,73 +1509,73 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N12">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1862,10 +1862,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183387</v>
+        <v>6183904</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,49 +2040,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="N18">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2091,25 +2091,25 @@
         <v>2.025</v>
       </c>
       <c r="W18">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183904</v>
+        <v>6183387</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,49 +2129,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
         <v>1.825</v>
@@ -2180,25 +2180,25 @@
         <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183391</v>
+        <v>6183392</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45104.5</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.825</v>
+      </c>
+      <c r="S20">
+        <v>2.025</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.95</v>
+      </c>
+      <c r="V20">
         <v>1.9</v>
       </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.95</v>
-      </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
+        <v>-1</v>
+      </c>
+      <c r="AC20">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6183390</v>
+        <v>6183391</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,55 +2307,55 @@
         <v>45104.5</v>
       </c>
       <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>43</v>
       </c>
       <c r="K21">
-        <v>1.45</v>
+        <v>1.833</v>
       </c>
       <c r="L21">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2364,19 +2364,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183389</v>
+        <v>6183390</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22">
+        <v>1.45</v>
+      </c>
+      <c r="L22">
+        <v>4.2</v>
+      </c>
+      <c r="M22">
+        <v>6.5</v>
+      </c>
+      <c r="N22">
+        <v>1.363</v>
+      </c>
+      <c r="O22">
+        <v>4.333</v>
+      </c>
+      <c r="P22">
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <v>-1.25</v>
+      </c>
+      <c r="R22">
         <v>1.85</v>
       </c>
-      <c r="L22">
-        <v>3.5</v>
-      </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
-        <v>2.15</v>
-      </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183672</v>
+        <v>6183389</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L23">
+        <v>3.5</v>
+      </c>
+      <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
+        <v>2.15</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
+      <c r="P23">
+        <v>3.1</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.95</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.8</v>
       </c>
-      <c r="N23">
-        <v>4</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>1.727</v>
-      </c>
-      <c r="Q23">
-        <v>0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.825</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.9</v>
-      </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>45104.5</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>39</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183392</v>
+        <v>6183672</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,40 +2663,40 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="O25">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
         <v>1.825</v>
@@ -2705,19 +2705,19 @@
         <v>2.025</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
+        <v>1.9</v>
+      </c>
+      <c r="V25">
         <v>1.95</v>
       </c>
-      <c r="V25">
-        <v>1.9</v>
-      </c>
       <c r="W25">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -2732,7 +2732,7 @@
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6183394</v>
+        <v>6183396</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>3.4</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
+        <v>3.1</v>
+      </c>
+      <c r="P27">
+        <v>2.75</v>
+      </c>
+      <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>2.1</v>
+      </c>
+      <c r="S27">
+        <v>1.775</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.85</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>1.1</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27">
-        <v>2.625</v>
-      </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>2.5</v>
-      </c>
-      <c r="N27">
-        <v>2.625</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
-      </c>
-      <c r="P27">
-        <v>2.5</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>1.875</v>
-      </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>1.9</v>
-      </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2.2</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>-0</v>
-      </c>
-      <c r="AB27">
-        <v>-0.5</v>
-      </c>
       <c r="AC27">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6183396</v>
+        <v>6183394</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29">
+        <v>2.625</v>
+      </c>
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="I29">
+      <c r="M29">
+        <v>2.5</v>
+      </c>
+      <c r="N29">
+        <v>2.625</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.5</v>
+      </c>
+      <c r="Q29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>3.1</v>
-      </c>
-      <c r="M29">
-        <v>3.4</v>
-      </c>
-      <c r="N29">
-        <v>2.3</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
-      </c>
-      <c r="P29">
-        <v>2.75</v>
-      </c>
-      <c r="Q29">
-        <v>-0.25</v>
-      </c>
       <c r="R29">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3197,10 +3197,10 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3286,10 +3286,10 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183402</v>
+        <v>6183905</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
+        <v>2.375</v>
+      </c>
+      <c r="L33">
+        <v>3.1</v>
+      </c>
+      <c r="M33">
         <v>2.9</v>
       </c>
-      <c r="L33">
-        <v>3.2</v>
-      </c>
-      <c r="M33">
-        <v>2.3</v>
-      </c>
       <c r="N33">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X33">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>2.9</v>
+      </c>
+      <c r="L34">
+        <v>3.2</v>
+      </c>
+      <c r="M34">
+        <v>2.3</v>
+      </c>
+      <c r="N34">
+        <v>2.45</v>
+      </c>
+      <c r="O34">
+        <v>3.2</v>
+      </c>
+      <c r="P34">
+        <v>2.7</v>
+      </c>
+      <c r="Q34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34">
-        <v>2.375</v>
-      </c>
-      <c r="L34">
-        <v>3.1</v>
-      </c>
-      <c r="M34">
-        <v>2.9</v>
-      </c>
-      <c r="N34">
-        <v>2.15</v>
-      </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>3.1</v>
-      </c>
-      <c r="Q34">
-        <v>-0.25</v>
-      </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N35">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O35">
         <v>3.2</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
+        <v>1.9</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>2.25</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3630,7 +3630,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6183400</v>
+        <v>6183402</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3642,76 +3642,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="L36">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="O36">
         <v>3.2</v>
       </c>
       <c r="P36">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
+        <v>0.25</v>
+      </c>
+      <c r="R36">
+        <v>1.825</v>
+      </c>
+      <c r="S36">
+        <v>2.025</v>
+      </c>
+      <c r="T36">
+        <v>2.5</v>
+      </c>
+      <c r="U36">
+        <v>1.975</v>
+      </c>
+      <c r="V36">
+        <v>1.875</v>
+      </c>
+      <c r="W36">
+        <v>-1</v>
+      </c>
+      <c r="X36">
+        <v>2.2</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4125</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.9</v>
-      </c>
-      <c r="S36">
-        <v>1.95</v>
-      </c>
-      <c r="T36">
-        <v>2.25</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
-      </c>
-      <c r="V36">
-        <v>1.85</v>
-      </c>
-      <c r="W36">
-        <v>-1</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>3.2</v>
-      </c>
-      <c r="Z36">
-        <v>-1</v>
-      </c>
-      <c r="AA36">
-        <v>0.95</v>
-      </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,7 +3734,7 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>45123.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4179,7 +4179,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,76 +4265,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K43">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N43">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q43">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA43">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183409</v>
+        <v>6183411</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,73 +4354,73 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N44">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>1.775</v>
+      </c>
+      <c r="S44">
+        <v>2.1</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
         <v>2.05</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.8</v>
       </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
-      <c r="U44">
-        <v>2.025</v>
-      </c>
-      <c r="V44">
-        <v>1.825</v>
-      </c>
       <c r="W44">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
+        <v>1.1</v>
+      </c>
+      <c r="AB44">
         <v>1.05</v>
-      </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
-      <c r="AB44">
-        <v>1.025</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,58 +4443,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
         <v>1</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
       </c>
       <c r="K45">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L45">
+        <v>3.6</v>
+      </c>
+      <c r="M45">
+        <v>4.333</v>
+      </c>
+      <c r="N45">
+        <v>1.75</v>
+      </c>
+      <c r="O45">
+        <v>3.6</v>
+      </c>
+      <c r="P45">
         <v>4</v>
-      </c>
-      <c r="M45">
-        <v>6.5</v>
-      </c>
-      <c r="N45">
-        <v>1.7</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>4.75</v>
       </c>
       <c r="Q45">
         <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X45">
         <v>-1</v>
@@ -4503,16 +4503,16 @@
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45130.375</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -4624,7 +4624,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,10 +4888,10 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
         <v>37</v>
-      </c>
-      <c r="G50" t="s">
-        <v>35</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,10 +4977,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5066,7 +5066,7 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>40</v>
@@ -5422,10 +5422,10 @@
         <v>45145.5</v>
       </c>
       <c r="F56" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
         <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5689,7 +5689,7 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5778,10 +5778,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6134,7 +6134,7 @@
         <v>45156.5</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
         <v>39</v>
@@ -6226,7 +6226,7 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6490,7 +6490,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
         <v>38</v>
@@ -6582,7 +6582,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6935,10 +6935,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7024,7 +7024,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7113,10 +7113,10 @@
         <v>45165.5</v>
       </c>
       <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" t="s">
         <v>31</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>45168.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7380,7 +7380,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
         <v>34</v>
@@ -7469,10 +7469,10 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
         <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183440</v>
+        <v>6183909</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N80">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q80">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
+        <v>2.025</v>
+      </c>
+      <c r="V80">
+        <v>1.825</v>
+      </c>
+      <c r="W80">
         <v>1.9</v>
       </c>
-      <c r="V80">
-        <v>1.95</v>
-      </c>
-      <c r="W80">
-        <v>-1</v>
-      </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183909</v>
+        <v>6183440</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>1.975</v>
+      </c>
+      <c r="S82">
+        <v>1.875</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
         <v>1.9</v>
       </c>
-      <c r="S82">
+      <c r="V82">
         <v>1.95</v>
       </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>2.025</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
       <c r="W82">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.875</v>
+      </c>
+      <c r="AB82">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7825,46 +7825,46 @@
         <v>45184.5</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7876,19 +7876,19 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
         <v>1.05</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,43 +7917,43 @@
         <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M84">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N84">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7965,19 +7965,19 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X84">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>1.05</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,55 +8006,55 @@
         <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA85">
         <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>7183413</v>
+        <v>7183902</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,76 +8092,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86">
+        <v>2.5</v>
+      </c>
+      <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>2.75</v>
+      </c>
+      <c r="N86">
+        <v>2.5</v>
+      </c>
+      <c r="O86">
+        <v>3.1</v>
+      </c>
+      <c r="P86">
+        <v>2.75</v>
+      </c>
+      <c r="Q86">
         <v>0</v>
       </c>
-      <c r="J86" t="s">
-        <v>41</v>
-      </c>
-      <c r="K86">
-        <v>1.615</v>
-      </c>
-      <c r="L86">
-        <v>4</v>
-      </c>
-      <c r="M86">
-        <v>4.5</v>
-      </c>
-      <c r="N86">
+      <c r="R86">
         <v>1.8</v>
       </c>
-      <c r="O86">
-        <v>3.6</v>
-      </c>
-      <c r="P86">
-        <v>3.8</v>
-      </c>
-      <c r="Q86">
-        <v>-0.5</v>
-      </c>
-      <c r="R86">
+      <c r="S86">
+        <v>2.05</v>
+      </c>
+      <c r="T86">
+        <v>2.25</v>
+      </c>
+      <c r="U86">
         <v>1.85</v>
       </c>
-      <c r="S86">
-        <v>2</v>
-      </c>
-      <c r="T86">
-        <v>2.5</v>
-      </c>
-      <c r="U86">
-        <v>1.9</v>
-      </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>1.05</v>
+      </c>
+      <c r="AB86">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>-1</v>
-      </c>
       <c r="AC86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7183902</v>
+        <v>7183906</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8181,40 +8181,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L87">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N87">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q87">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8223,7 +8223,7 @@
         <v>2.05</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.85</v>
@@ -8232,19 +8232,19 @@
         <v>2</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA87">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>0.8500000000000001</v>
@@ -8270,7 +8270,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7183919</v>
+        <v>7183920</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8359,73 +8359,73 @@
         <v>45191.5</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89">
+        <v>2.45</v>
+      </c>
+      <c r="L89">
+        <v>3.2</v>
+      </c>
+      <c r="M89">
+        <v>2.875</v>
+      </c>
+      <c r="N89">
+        <v>2.5</v>
+      </c>
+      <c r="O89">
+        <v>3.3</v>
+      </c>
+      <c r="P89">
+        <v>2.8</v>
+      </c>
+      <c r="Q89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>3</v>
-      </c>
-      <c r="J89" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89">
-        <v>2.625</v>
-      </c>
-      <c r="L89">
-        <v>3.4</v>
-      </c>
-      <c r="M89">
-        <v>2.55</v>
-      </c>
-      <c r="N89">
-        <v>3</v>
-      </c>
-      <c r="O89">
-        <v>3.5</v>
-      </c>
-      <c r="P89">
-        <v>2.3</v>
-      </c>
-      <c r="Q89">
-        <v>0.25</v>
-      </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T89">
         <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7183920</v>
+        <v>7183919</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,73 +8537,73 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
         <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W91">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8629,7 +8629,7 @@
         <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8893,10 +8893,10 @@
         <v>45196.5</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7183911</v>
+        <v>7183923</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,40 +9071,40 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
         <v>1.8</v>
       </c>
       <c r="L97">
+        <v>3.8</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>1.95</v>
+      </c>
+      <c r="O97">
         <v>3.75</v>
       </c>
-      <c r="M97">
-        <v>4.2</v>
-      </c>
-      <c r="N97">
-        <v>1.75</v>
-      </c>
-      <c r="O97">
-        <v>3.8</v>
-      </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9116,31 +9116,31 @@
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7183923</v>
+        <v>7183911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,40 +9160,40 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.8</v>
       </c>
       <c r="L98">
+        <v>3.75</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
+        <v>1.75</v>
+      </c>
+      <c r="O98">
         <v>3.8</v>
       </c>
-      <c r="M98">
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.75</v>
-      </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9205,31 +9205,31 @@
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,10 +9249,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" t="s">
         <v>37</v>
-      </c>
-      <c r="G99" t="s">
-        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>45200.5</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>38</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9605,7 +9605,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -9697,7 +9697,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N106">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W106">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9961,10 +9961,10 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7183928</v>
+        <v>7183929</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,55 +10050,55 @@
         <v>45220.375</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10107,19 +10107,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7183929</v>
+        <v>7183928</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,55 +10139,55 @@
         <v>45220.375</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T109">
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10196,19 +10196,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183918</v>
+        <v>7183917</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
+        <v>3.2</v>
+      </c>
+      <c r="N110">
+        <v>1.6</v>
+      </c>
+      <c r="O110">
+        <v>4</v>
+      </c>
+      <c r="P110">
+        <v>4.5</v>
+      </c>
+      <c r="Q110">
+        <v>-0.75</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2.05</v>
+      </c>
+      <c r="T110">
         <v>2.75</v>
       </c>
-      <c r="N110">
-        <v>2.5</v>
-      </c>
-      <c r="O110">
-        <v>3.6</v>
-      </c>
-      <c r="P110">
-        <v>2.4</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>2.025</v>
-      </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
-      <c r="T110">
-        <v>3</v>
-      </c>
       <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>43</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>3.3</v>
+      </c>
+      <c r="N111">
+        <v>2.2</v>
+      </c>
+      <c r="O111">
+        <v>3.3</v>
+      </c>
+      <c r="P111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
-        <v>41</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.5</v>
-      </c>
-      <c r="M111">
-        <v>3.2</v>
-      </c>
-      <c r="N111">
-        <v>1.6</v>
-      </c>
-      <c r="O111">
-        <v>4</v>
-      </c>
-      <c r="P111">
-        <v>4.5</v>
-      </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z111">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7183916</v>
+        <v>7183918</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,13 +10406,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>2</v>
@@ -10421,41 +10421,41 @@
         <v>43</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L112">
         <v>3.4</v>
       </c>
       <c r="M112">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
+        <v>2.4</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>2.025</v>
+      </c>
+      <c r="S112">
+        <v>1.825</v>
+      </c>
+      <c r="T112">
         <v>3</v>
       </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
+      <c r="U112">
         <v>1.975</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.875</v>
       </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.95</v>
-      </c>
-      <c r="V112">
-        <v>1.9</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10463,19 +10463,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
+        <v>0.825</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.875</v>
-      </c>
-      <c r="AB112">
-        <v>0.95</v>
-      </c>
-      <c r="AC112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
@@ -10587,7 +10587,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>6</v>
@@ -10673,10 +10673,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10762,7 +10762,7 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10854,7 +10854,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>1</v>

--- a/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
+++ b/Finland Veikkausliiga/Finland Veikkausliiga.xlsx
@@ -106,13 +106,13 @@
     <t>FC Inter</t>
   </si>
   <si>
-    <t>AC Oulu</t>
-  </si>
-  <si>
     <t>HJK Helsinki</t>
   </si>
   <si>
     <t>KTP</t>
+  </si>
+  <si>
+    <t>AC Oulu</t>
   </si>
   <si>
     <t>KuPS Kuopio</t>
@@ -121,22 +121,22 @@
     <t>FC Ilves</t>
   </si>
   <si>
-    <t>FC Honka</t>
-  </si>
-  <si>
     <t>FC Haka</t>
   </si>
   <si>
     <t>FC Lahti</t>
   </si>
   <si>
+    <t>FC Honka</t>
+  </si>
+  <si>
     <t>SJK</t>
   </si>
   <si>
-    <t>VPS Vaasa</t>
+    <t>IFK Mariehamn</t>
   </si>
   <si>
-    <t>IFK Mariehamn</t>
+    <t>VPS Vaasa</t>
   </si>
   <si>
     <t>H</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6183377</v>
+        <v>6183671</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="N3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
+        <v>2.025</v>
+      </c>
+      <c r="V3">
         <v>1.825</v>
       </c>
-      <c r="V3">
-        <v>2.025</v>
-      </c>
       <c r="W3">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.825</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6183671</v>
+        <v>6183376</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,37 +797,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>1.925</v>
@@ -836,34 +836,34 @@
         <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6183376</v>
+        <v>6183377</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>39</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6183379</v>
+        <v>6183380</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,16 +1150,16 @@
         <v>45084.5</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
@@ -1168,40 +1168,40 @@
         <v>1.5</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N8">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>0.5329999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,16 +1210,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6183380</v>
+        <v>6183382</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1239,76 +1239,76 @@
         <v>45084.5</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>2.5</v>
+      </c>
+      <c r="N9">
+        <v>2.55</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+      <c r="P9">
+        <v>2.5</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
-        <v>1.5</v>
-      </c>
-      <c r="L9">
-        <v>3.8</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>1.75</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>4.5</v>
-      </c>
-      <c r="Q9">
-        <v>-0.75</v>
-      </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
         <v>-0.5</v>
       </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6183903</v>
+        <v>6183381</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,73 +1328,73 @@
         <v>45084.5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6183382</v>
+        <v>6183379</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,61 +1417,61 @@
         <v>45084.5</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
         <v>1.95</v>
       </c>
-      <c r="S11">
-        <v>1.9</v>
-      </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X11">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1483,10 +1483,10 @@
         <v>-0</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6183381</v>
+        <v>6183903</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,70 +1509,70 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5.5</v>
+      </c>
+      <c r="N12">
+        <v>1.5</v>
+      </c>
+      <c r="O12">
         <v>3.8</v>
       </c>
-      <c r="M12">
-        <v>1.533</v>
-      </c>
-      <c r="N12">
-        <v>5.25</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1684,7 +1684,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1776,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6183388</v>
+        <v>6183904</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1862,76 +1862,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W16">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
-        <v>1.125</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6183904</v>
+        <v>6183387</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,49 +2040,49 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>3.75</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.825</v>
@@ -2091,25 +2091,25 @@
         <v>2.025</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6183387</v>
+        <v>6183388</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,10 +2129,10 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>1.333</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q19">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.025</v>
+        <v>2.125</v>
       </c>
       <c r="S19">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>0.333</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.125</v>
       </c>
       <c r="AA19">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6183392</v>
+        <v>6183393</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,13 +2218,13 @@
         <v>45104.5</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2233,43 +2233,43 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M20">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>1.375</v>
+        <v>0.833</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,7 +2278,7 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
         <v>-1</v>
@@ -2287,7 +2287,7 @@
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2384,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6183390</v>
+        <v>6183672</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2396,76 +2396,76 @@
         <v>45104.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.45</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>1.727</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6183389</v>
+        <v>6183392</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,58 +2485,58 @@
         <v>45104.5</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>2.025</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
         <v>1.95</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>1.9</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.8</v>
-      </c>
-      <c r="V23">
-        <v>2.05</v>
-      </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>1.375</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2545,16 +2545,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6183393</v>
+        <v>6183389</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45104.5</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
       </c>
       <c r="K24">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L24">
         <v>3.5</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O24">
         <v>3.4</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
         <v>1.9</v>
-      </c>
-      <c r="S24">
-        <v>1.95</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W24">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6183672</v>
+        <v>6183390</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45104.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
+        <v>1.45</v>
+      </c>
+      <c r="L25">
         <v>4.2</v>
       </c>
-      <c r="L25">
-        <v>3.4</v>
-      </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P25">
-        <v>1.727</v>
+        <v>9</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,10 +2752,10 @@
         <v>45108.33333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2841,10 +2841,10 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2930,7 +2930,7 @@
         <v>45108.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>29</v>
@@ -3108,10 +3108,10 @@
         <v>45108.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3197,7 +3197,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
@@ -3286,10 +3286,10 @@
         <v>45115.33333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6183905</v>
+        <v>6183401</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>2.9</v>
+      </c>
+      <c r="L33">
+        <v>3.2</v>
+      </c>
+      <c r="M33">
+        <v>2.3</v>
+      </c>
+      <c r="N33">
+        <v>2.45</v>
+      </c>
+      <c r="O33">
+        <v>3.2</v>
+      </c>
+      <c r="P33">
+        <v>2.7</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>2.375</v>
-      </c>
-      <c r="L33">
-        <v>3.1</v>
-      </c>
-      <c r="M33">
-        <v>2.9</v>
-      </c>
-      <c r="N33">
-        <v>2.15</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>3.1</v>
-      </c>
-      <c r="Q33">
-        <v>-0.25</v>
-      </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6183401</v>
+        <v>6183400</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="L34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="N34">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O34">
         <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
+        <v>1.9</v>
+      </c>
+      <c r="S34">
+        <v>1.95</v>
+      </c>
+      <c r="T34">
+        <v>2.25</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="S34">
-        <v>2</v>
-      </c>
-      <c r="T34">
-        <v>2.5</v>
-      </c>
-      <c r="U34">
-        <v>1.875</v>
-      </c>
-      <c r="V34">
-        <v>1.975</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6183400</v>
+        <v>6183905</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,40 +3553,40 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
         <v>1.9</v>
@@ -3598,31 +3598,31 @@
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>45115.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3731,10 +3731,10 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3998,10 +3998,10 @@
         <v>45122.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4087,7 +4087,7 @@
         <v>45123.52083333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
         <v>38</v>
@@ -4253,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6183410</v>
+        <v>6183409</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4265,58 +4265,58 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
         <v>31</v>
       </c>
-      <c r="G43" t="s">
-        <v>34</v>
-      </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
       </c>
       <c r="K43">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L43">
+        <v>3.6</v>
+      </c>
+      <c r="M43">
+        <v>4.333</v>
+      </c>
+      <c r="N43">
+        <v>1.75</v>
+      </c>
+      <c r="O43">
+        <v>3.6</v>
+      </c>
+      <c r="P43">
         <v>4</v>
-      </c>
-      <c r="M43">
-        <v>6.5</v>
-      </c>
-      <c r="N43">
-        <v>1.7</v>
-      </c>
-      <c r="O43">
-        <v>3.5</v>
-      </c>
-      <c r="P43">
-        <v>4.75</v>
       </c>
       <c r="Q43">
         <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4325,16 +4325,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6183411</v>
+        <v>6183410</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA44">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6183409</v>
+        <v>6183411</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,73 +4443,73 @@
         <v>45129.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N45">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.775</v>
+      </c>
+      <c r="S45">
+        <v>2.1</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>2.05</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.8</v>
       </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>2.025</v>
-      </c>
-      <c r="V45">
-        <v>1.825</v>
-      </c>
       <c r="W45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>1.1</v>
+      </c>
+      <c r="AB45">
         <v>1.05</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>1.025</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4532,10 +4532,10 @@
         <v>45130.375</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>4</v>
@@ -4713,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,10 +4888,10 @@
         <v>45137.375</v>
       </c>
       <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,10 +4977,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -5069,7 +5069,7 @@
         <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5155,7 +5155,7 @@
         <v>45137.52083333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
         <v>29</v>
@@ -5247,7 +5247,7 @@
         <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5333,10 +5333,10 @@
         <v>45143.375</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -5422,10 +5422,10 @@
         <v>45145.5</v>
       </c>
       <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
         <v>37</v>
-      </c>
-      <c r="G56" t="s">
-        <v>35</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5511,7 +5511,7 @@
         <v>45145.5</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
         <v>29</v>
@@ -5600,7 +5600,7 @@
         <v>45147.54166666666</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5689,10 +5689,10 @@
         <v>45149.5</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,10 +5778,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5956,7 +5956,7 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>29</v>
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6134,10 +6134,10 @@
         <v>45156.5</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6223,10 +6223,10 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>34</v>
@@ -6404,7 +6404,7 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>45159.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6668,10 +6668,10 @@
         <v>45163.5</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6849,7 +6849,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6935,7 +6935,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>33</v>
@@ -7024,7 +7024,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7113,10 +7113,10 @@
         <v>45165.5</v>
       </c>
       <c r="F75" t="s">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
         <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>45168.5</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
         <v>29</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6183438</v>
+        <v>6183909</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,58 +7380,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
       </c>
       <c r="K78">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
         <v>2.3</v>
       </c>
       <c r="N78">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
+        <v>2.025</v>
+      </c>
+      <c r="V78">
         <v>1.825</v>
       </c>
-      <c r="V78">
-        <v>2.025</v>
-      </c>
       <c r="W78">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7440,16 +7440,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.825</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6183439</v>
+        <v>6183441</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,73 +7469,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N79">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P79">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB79">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6183909</v>
+        <v>6183440</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="N80">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
+        <v>1.975</v>
+      </c>
+      <c r="S80">
+        <v>1.875</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
         <v>1.9</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.95</v>
       </c>
-      <c r="T80">
-        <v>2.75</v>
-      </c>
-      <c r="U80">
-        <v>2.025</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>0.875</v>
+      </c>
+      <c r="AB80">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA80">
-        <v>-1</v>
-      </c>
-      <c r="AB80">
-        <v>-1</v>
-      </c>
       <c r="AC80">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7635,7 +7635,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6183441</v>
+        <v>6183439</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7647,73 +7647,73 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
         <v>3.4</v>
       </c>
       <c r="M81">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB81">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6183440</v>
+        <v>6183438</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,40 +7736,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R82">
         <v>1.975</v>
@@ -7778,31 +7778,31 @@
         <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7813,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7183904</v>
+        <v>7183905</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,43 +7828,43 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
         <v>2.5</v>
@@ -7876,19 +7876,19 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>1.05</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7183905</v>
+        <v>7183904</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,46 +7914,46 @@
         <v>45184.5</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L84">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
         <v>2.5</v>
@@ -7965,19 +7965,19 @@
         <v>1.8</v>
       </c>
       <c r="W84">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
         <v>1.05</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7183413</v>
+        <v>7183906</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,76 +8003,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
+        <v>3.3</v>
+      </c>
+      <c r="Q85">
+        <v>-0.25</v>
+      </c>
+      <c r="R85">
         <v>1.8</v>
       </c>
-      <c r="O85">
-        <v>3.6</v>
-      </c>
-      <c r="P85">
-        <v>3.8</v>
-      </c>
-      <c r="Q85">
-        <v>-0.5</v>
-      </c>
-      <c r="R85">
-        <v>1.85</v>
-      </c>
       <c r="S85">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
         <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
         <v>0.8</v>
       </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>-1</v>
-      </c>
-      <c r="Z85">
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8169,7 +8169,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7183906</v>
+        <v>7183413</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,55 +8184,55 @@
         <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P87">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S87">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA87">
         <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7183920</v>
+        <v>7183907</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,70 +8362,70 @@
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="N89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O89">
         <v>3.3</v>
       </c>
       <c r="P89">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB89">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7183907</v>
+        <v>7183920</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,73 +8448,73 @@
         <v>45191.5</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M90">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="N90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O90">
         <v>3.3</v>
       </c>
       <c r="P90">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>45191.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>34</v>
@@ -8626,10 +8626,10 @@
         <v>45191.52083333334</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8807,7 +8807,7 @@
         <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7183910</v>
+        <v>7183922</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,58 +8893,58 @@
         <v>45196.5</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.909</v>
+      </c>
+      <c r="O95">
         <v>3.5</v>
       </c>
-      <c r="M95">
-        <v>4.2</v>
-      </c>
-      <c r="N95">
-        <v>1.8</v>
-      </c>
-      <c r="O95">
-        <v>3.6</v>
-      </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8953,13 +8953,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7183922</v>
+        <v>7183910</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,58 +8982,58 @@
         <v>45196.5</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>41</v>
       </c>
       <c r="K96">
+        <v>1.85</v>
+      </c>
+      <c r="L96">
+        <v>3.5</v>
+      </c>
+      <c r="M96">
+        <v>4.2</v>
+      </c>
+      <c r="N96">
         <v>1.8</v>
       </c>
-      <c r="L96">
+      <c r="O96">
         <v>3.6</v>
       </c>
-      <c r="M96">
+      <c r="P96">
         <v>4.333</v>
       </c>
-      <c r="N96">
-        <v>1.909</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
-      <c r="P96">
-        <v>4</v>
-      </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9042,13 +9042,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9071,10 +9071,10 @@
         <v>45198.5</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9160,7 +9160,7 @@
         <v>45198.5</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9249,10 +9249,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
         <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>37</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9605,10 +9605,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -9694,10 +9694,10 @@
         <v>45207.375</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7183914</v>
+        <v>7183915</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,58 +9783,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
       </c>
       <c r="K105">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P105">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>1.625</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,13 +9843,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7183915</v>
+        <v>7183914</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
       </c>
       <c r="K106">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>1.625</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7183930</v>
+        <v>7183928</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45220.375</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>2.15</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>45220.375</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>34</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7183928</v>
+        <v>7183930</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,73 +10142,73 @@
         <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>2.15</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M109">
+        <v>2.9</v>
+      </c>
+      <c r="N109">
         <v>3</v>
-      </c>
-      <c r="N109">
-        <v>2.25</v>
       </c>
       <c r="O109">
         <v>3.6</v>
       </c>
       <c r="P109">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>3</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y109">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA109">
+        <v>-0.5</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7183917</v>
+        <v>7183916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>43</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3.4</v>
+      </c>
+      <c r="M110">
+        <v>3.3</v>
+      </c>
+      <c r="N110">
+        <v>2.2</v>
+      </c>
+      <c r="O110">
+        <v>3.3</v>
+      </c>
+      <c r="P110">
         <v>3</v>
       </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
-        <v>41</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>3.5</v>
-      </c>
-      <c r="M110">
-        <v>3.2</v>
-      </c>
-      <c r="N110">
-        <v>1.6</v>
-      </c>
-      <c r="O110">
-        <v>4</v>
-      </c>
-      <c r="P110">
-        <v>4.5</v>
-      </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z110">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7183916</v>
+        <v>7183917</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K111">
         <v>2</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M111">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N111">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O111">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2.05</v>
+      </c>
+      <c r="T111">
+        <v>2.75</v>
+      </c>
+      <c r="U111">
+        <v>1.875</v>
+      </c>
+      <c r="V111">
         <v>1.975</v>
       </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.95</v>
-      </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10409,7 +10409,7 @@
         <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7380222</v>
+        <v>7380223</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,73 +10495,73 @@
         <v>45224.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7380223</v>
+        <v>7380222</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,73 +10584,73 @@
         <v>45224.5</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N114">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O114">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10673,10 +10673,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>5</v>
@@ -10762,10 +10762,10 @@
         <v>45231.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10851,10 +10851,10 @@
         <v>45235.45833333334</v>
       </c>
       <